--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Seconda pull request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D08C4B-87E5-4C26-9328-738075252EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F64D0-E721-40E3-B8B0-80691D6ED1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="471">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2034,36 +2034,6 @@
     <t>ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
   </si>
   <si>
-    <t>2024-05-04T11:43:16Z</t>
-  </si>
-  <si>
-    <t>b4b4e2990a657df8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.924c6b93d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>74b12ad66ecca75d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3419874d79^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-04T11:43:17Z</t>
-  </si>
-  <si>
-    <t>208ed47b3c356635</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0020f34e0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e01f11ef5ee23482</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ac5d8dfebd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-04T11:43:21Z</t>
   </si>
   <si>
@@ -2169,15 +2139,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.92e8192447^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-05-04T11:43:27Z</t>
-  </si>
-  <si>
-    <t>b25f1da5206a5f62</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.340ad12d00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
   </si>
   <si>
@@ -2191,6 +2152,51 @@
   </si>
   <si>
     <t>Erroregestito da un pannello di controllo centralizzato che consenta la gestione e correzione di ogni tipologia di errore prevista.</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2c8685f071^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9ac77d7a16c3cfc2</t>
+  </si>
+  <si>
+    <t>2024-05-10T12:28:11Z</t>
+  </si>
+  <si>
+    <t>2024-05-10T12:30:09Z</t>
+  </si>
+  <si>
+    <t>5ea4334f12e42e62</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b4c19ffdf2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-10T12:32:06Z</t>
+  </si>
+  <si>
+    <t>e5066719ea34cbd0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ff1c4e1e01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-10T12:34:10Z</t>
+  </si>
+  <si>
+    <t>8da046774bf7fe65</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.00efd60278^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-10T12:36:29Z</t>
+  </si>
+  <si>
+    <t>a3e7af4ce0f28e19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.623935b845^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4171,10 +4177,10 @@
   <dimension ref="A1:T768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O59" sqref="O59"/>
+      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4348,7 +4354,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1">
+    <row r="8" spans="1:20">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -4427,7 +4433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" s="20">
         <v>28</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="20">
         <v>36</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A18" s="20">
         <v>52</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="20">
         <v>53</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="20">
         <v>54</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="20">
         <v>55</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="20">
         <v>56</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="20">
         <v>57</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" s="20">
         <v>58</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" s="20">
         <v>59</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" s="20">
         <v>60</v>
       </c>
@@ -5007,7 +5013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="20">
         <v>61</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="20">
         <v>62</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="20">
         <v>191</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="52" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A52" s="20">
         <v>368</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A53" s="20">
         <v>376</v>
       </c>
@@ -5942,16 +5948,16 @@
         <v>395</v>
       </c>
       <c r="F54" s="23">
-        <v>45416</v>
+        <v>45422</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="J54" s="25" t="s">
         <v>84</v>
@@ -5986,16 +5992,16 @@
         <v>61</v>
       </c>
       <c r="F55" s="23">
-        <v>45416</v>
+        <v>45422</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="J55" s="25" t="s">
         <v>84</v>
@@ -6030,16 +6036,16 @@
         <v>63</v>
       </c>
       <c r="F56" s="23">
-        <v>45416</v>
+        <v>45422</v>
       </c>
       <c r="G56" s="47" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="H56" s="47" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="I56" s="47" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="J56" s="25" t="s">
         <v>84</v>
@@ -6074,16 +6080,16 @@
         <v>65</v>
       </c>
       <c r="F57" s="23">
-        <v>45416</v>
+        <v>45422</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="H57" s="47" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="I57" s="47" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="J57" s="25" t="s">
         <v>84</v>
@@ -6121,10 +6127,10 @@
         <v>45416</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H58" s="47" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I58" s="47" t="s">
         <v>401</v>
@@ -6143,11 +6149,9 @@
         <v>402</v>
       </c>
       <c r="O58" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="P58" s="46" t="s">
-        <v>400</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
       <c r="R58" s="26"/>
       <c r="S58" s="27"/>
@@ -6197,11 +6201,9 @@
         <v>405</v>
       </c>
       <c r="O59" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="P59" s="46" t="s">
-        <v>400</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="P59" s="25"/>
       <c r="Q59" s="25"/>
       <c r="R59" s="26"/>
       <c r="S59" s="27"/>
@@ -6209,7 +6211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="75.75" thickBot="1">
+    <row r="60" spans="1:20" ht="75">
       <c r="A60" s="20">
         <v>47</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="135.75" thickBot="1">
+    <row r="61" spans="1:20" ht="135">
       <c r="A61" s="20">
         <v>75</v>
       </c>
@@ -6277,13 +6279,13 @@
         <v>45416</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H61" s="47" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J61" s="25" t="s">
         <v>84</v>
@@ -6302,7 +6304,7 @@
         <v>84</v>
       </c>
       <c r="P61" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q61" s="25"/>
       <c r="R61" s="26"/>
@@ -6331,13 +6333,13 @@
         <v>45416</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H62" s="47" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>84</v>
@@ -6356,7 +6358,7 @@
         <v>84</v>
       </c>
       <c r="P62" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q62" s="25"/>
       <c r="R62" s="26"/>
@@ -6385,13 +6387,13 @@
         <v>45416</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H63" s="47" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>84</v>
@@ -6410,7 +6412,7 @@
         <v>84</v>
       </c>
       <c r="P63" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q63" s="25"/>
       <c r="R63" s="26"/>
@@ -6439,13 +6441,13 @@
         <v>45416</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I64" s="47" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>84</v>
@@ -6464,7 +6466,7 @@
         <v>84</v>
       </c>
       <c r="P64" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q64" s="25"/>
       <c r="R64" s="26"/>
@@ -6493,13 +6495,13 @@
         <v>45416</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H65" s="47" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>84</v>
@@ -6518,7 +6520,7 @@
         <v>84</v>
       </c>
       <c r="P65" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q65" s="25"/>
       <c r="R65" s="26"/>
@@ -6547,13 +6549,13 @@
         <v>45416</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H66" s="47" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>84</v>
@@ -6572,7 +6574,7 @@
         <v>84</v>
       </c>
       <c r="P66" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
@@ -6601,13 +6603,13 @@
         <v>45416</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="I67" s="47" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>84</v>
@@ -6626,7 +6628,7 @@
         <v>84</v>
       </c>
       <c r="P67" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
@@ -6655,13 +6657,13 @@
         <v>45416</v>
       </c>
       <c r="G68" s="47" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H68" s="47" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="I68" s="47" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="J68" s="25" t="s">
         <v>84</v>
@@ -6680,7 +6682,7 @@
         <v>84</v>
       </c>
       <c r="P68" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
@@ -6689,7 +6691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="105.75" thickBot="1">
+    <row r="69" spans="1:20" ht="105">
       <c r="A69" s="20">
         <v>83</v>
       </c>
@@ -6709,13 +6711,13 @@
         <v>45416</v>
       </c>
       <c r="G69" s="47" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>84</v>
@@ -6724,9 +6726,7 @@
       <c r="L69" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="46" t="s">
-        <v>84</v>
-      </c>
+      <c r="M69" s="25"/>
       <c r="N69" s="46" t="s">
         <v>415</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>84</v>
       </c>
       <c r="P69" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="26"/>
@@ -6743,7 +6743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="105.75" thickBot="1">
+    <row r="70" spans="1:20" ht="105">
       <c r="A70" s="20">
         <v>84</v>
       </c>
@@ -6763,13 +6763,13 @@
         <v>45416</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>84</v>
@@ -6782,13 +6782,13 @@
         <v>84</v>
       </c>
       <c r="N70" s="25" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="O70" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P70" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q70" s="25"/>
       <c r="R70" s="26"/>
@@ -6797,7 +6797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="120.75" thickBot="1">
+    <row r="71" spans="1:20" ht="120">
       <c r="A71" s="20">
         <v>85</v>
       </c>
@@ -6817,32 +6817,30 @@
         <v>45416</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K71" s="25"/>
-      <c r="L71" s="46" t="s">
-        <v>84</v>
-      </c>
+      <c r="L71" s="25"/>
       <c r="M71" s="46" t="s">
         <v>84</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="O71" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P71" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q71" s="25"/>
       <c r="R71" s="26"/>
@@ -6851,7 +6849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="120.75" thickBot="1">
+    <row r="72" spans="1:20" ht="120">
       <c r="A72" s="20">
         <v>86</v>
       </c>
@@ -6871,13 +6869,13 @@
         <v>45416</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>84</v>
@@ -6890,7 +6888,7 @@
         <v>84</v>
       </c>
       <c r="N72" s="25" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="O72" s="46" t="s">
         <v>84</v>
@@ -6905,7 +6903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="42" customFormat="1" ht="135.75" thickBot="1">
+    <row r="73" spans="1:20" s="42" customFormat="1" ht="135">
       <c r="A73" s="33">
         <v>87</v>
       </c>
@@ -6943,7 +6941,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="42" customFormat="1" ht="120.75" thickBot="1">
+    <row r="74" spans="1:20" s="42" customFormat="1" ht="120">
       <c r="A74" s="33">
         <v>88</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="105.75" thickBot="1">
+    <row r="75" spans="1:20" ht="105">
       <c r="A75" s="20">
         <v>89</v>
       </c>
@@ -7001,13 +6999,13 @@
         <v>45416</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>84</v>
@@ -7020,13 +7018,13 @@
         <v>84</v>
       </c>
       <c r="N75" s="25" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="O75" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P75" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -7035,7 +7033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="42" customFormat="1" ht="105.75" thickBot="1">
+    <row r="76" spans="1:20" s="42" customFormat="1" ht="105">
       <c r="A76" s="33">
         <v>90</v>
       </c>
@@ -7073,7 +7071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="42" customFormat="1" ht="120.75" thickBot="1">
+    <row r="77" spans="1:20" s="42" customFormat="1" ht="120">
       <c r="A77" s="33">
         <v>91</v>
       </c>
@@ -7169,13 +7167,13 @@
         <v>45416</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>84</v>
@@ -7188,13 +7186,13 @@
         <v>84</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="O79" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P79" s="46" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q79" s="25"/>
       <c r="R79" s="26"/>
@@ -7203,7 +7201,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="180.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:20" ht="180" hidden="1">
       <c r="A80" s="20">
         <v>224</v>
       </c>
@@ -7237,7 +7235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="270.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:20" ht="270" hidden="1">
       <c r="A81" s="20">
         <v>225</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:20" ht="240" hidden="1">
       <c r="A82" s="20">
         <v>226</v>
       </c>
@@ -7305,7 +7303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:20" ht="135" hidden="1">
       <c r="A83" s="20">
         <v>227</v>
       </c>
@@ -7339,7 +7337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:20" ht="240" hidden="1">
       <c r="A84" s="20">
         <v>228</v>
       </c>
@@ -7373,7 +7371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="195.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:20" ht="195" hidden="1">
       <c r="A85" s="20">
         <v>229</v>
       </c>
@@ -7407,7 +7405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="210.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:20" ht="210" hidden="1">
       <c r="A86" s="20">
         <v>230</v>
       </c>
@@ -7441,7 +7439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:20" ht="225" hidden="1">
       <c r="A87" s="20">
         <v>231</v>
       </c>
@@ -7475,7 +7473,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="210.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:20" ht="210" hidden="1">
       <c r="A88" s="20">
         <v>232</v>
       </c>
@@ -7509,7 +7507,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="210.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:20" ht="210" hidden="1">
       <c r="A89" s="20">
         <v>233</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="210.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:20" ht="210" hidden="1">
       <c r="A90" s="20">
         <v>234</v>
       </c>
@@ -7577,7 +7575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:20" ht="225" hidden="1">
       <c r="A91" s="20">
         <v>235</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:20" ht="120" hidden="1">
       <c r="A92" s="20">
         <v>236</v>
       </c>
@@ -7645,7 +7643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:20" ht="225" hidden="1">
       <c r="A93" s="20">
         <v>237</v>
       </c>
@@ -7679,7 +7677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="255.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:20" ht="255" hidden="1">
       <c r="A94" s="20">
         <v>238</v>
       </c>
@@ -7713,7 +7711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:20" ht="225" hidden="1">
       <c r="A95" s="20">
         <v>239</v>
       </c>
@@ -7747,7 +7745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="270.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:20" ht="270" hidden="1">
       <c r="A96" s="20">
         <v>328</v>
       </c>
@@ -7781,7 +7779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:20" ht="225" hidden="1">
       <c r="A97" s="20">
         <v>329</v>
       </c>
@@ -7815,7 +7813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="270.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:20" ht="270" hidden="1">
       <c r="A98" s="20">
         <v>330</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:20" ht="240" hidden="1">
       <c r="A99" s="20">
         <v>331</v>
       </c>
@@ -7883,7 +7881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:20" ht="240" hidden="1">
       <c r="A100" s="20">
         <v>356</v>
       </c>
@@ -7917,7 +7915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="210.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:20" ht="210" hidden="1">
       <c r="A101" s="20">
         <v>357</v>
       </c>
@@ -7968,16 +7966,16 @@
         <v>333</v>
       </c>
       <c r="F102" s="23">
-        <v>45416</v>
+        <v>45422</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="J102" s="25" t="s">
         <v>84</v>
@@ -7995,7 +7993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A103" s="20">
         <v>32</v>
       </c>
@@ -8029,7 +8027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A104" s="20">
         <v>40</v>
       </c>
@@ -8063,7 +8061,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A105" s="20">
         <v>48</v>
       </c>
@@ -8099,7 +8097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A106" s="20">
         <v>147</v>
       </c>
@@ -8133,7 +8131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A107" s="20">
         <v>148</v>
       </c>
@@ -8167,7 +8165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A108" s="20">
         <v>149</v>
       </c>
@@ -8201,7 +8199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A109" s="20">
         <v>150</v>
       </c>
@@ -8235,7 +8233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A110" s="20">
         <v>151</v>
       </c>
@@ -8269,7 +8267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A111" s="20">
         <v>152</v>
       </c>
@@ -8303,7 +8301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A112" s="20">
         <v>153</v>
       </c>
@@ -8337,7 +8335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A113" s="20">
         <v>154</v>
       </c>
@@ -8371,7 +8369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A114" s="20">
         <v>155</v>
       </c>
@@ -8405,7 +8403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A115" s="20">
         <v>156</v>
       </c>
@@ -8439,7 +8437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A116" s="20">
         <v>157</v>
       </c>
@@ -8473,7 +8471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A117" s="20">
         <v>158</v>
       </c>
@@ -8507,7 +8505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A118" s="20">
         <v>159</v>
       </c>
@@ -8541,7 +8539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A119" s="20">
         <v>160</v>
       </c>
@@ -8575,7 +8573,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A120" s="20">
         <v>161</v>
       </c>
@@ -8609,7 +8607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A121" s="20">
         <v>162</v>
       </c>
@@ -8643,7 +8641,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A122" s="20">
         <v>163</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A123" s="20">
         <v>164</v>
       </c>
@@ -8711,7 +8709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A124" s="20">
         <v>165</v>
       </c>
@@ -8745,7 +8743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A125" s="20">
         <v>166</v>
       </c>
@@ -8779,7 +8777,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A126" s="20">
         <v>167</v>
       </c>
@@ -8813,7 +8811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A127" s="20">
         <v>168</v>
       </c>
@@ -8847,7 +8845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1">
       <c r="A128" s="20">
         <v>169</v>
       </c>
@@ -14349,7 +14347,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M102 J11:J53 L11:L57 M11:M72 M75 M79 L71 O75 O79 O102 O11:O72</xm:sqref>
+          <xm:sqref>M102 J11:J53 L11:L57 M11:M68 M70:M72 M75 M79 O11:O72 O75 O79 O102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Seconda pull request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F64D0-E721-40E3-B8B0-80691D6ED1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00BB9C0-746B-46BB-ABC1-8D45E79B70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="471">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4177,10 +4177,10 @@
   <dimension ref="A1:T768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
+      <selection pane="bottomRight" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -6149,9 +6149,11 @@
         <v>402</v>
       </c>
       <c r="O58" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="P58" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="P58" s="46" t="s">
+        <v>455</v>
+      </c>
       <c r="Q58" s="25"/>
       <c r="R58" s="26"/>
       <c r="S58" s="27"/>
@@ -6201,9 +6203,11 @@
         <v>405</v>
       </c>
       <c r="O59" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="P59" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="P59" s="46" t="s">
+        <v>455</v>
+      </c>
       <c r="Q59" s="25"/>
       <c r="R59" s="26"/>
       <c r="S59" s="27"/>
@@ -6726,7 +6730,9 @@
       <c r="L69" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="25"/>
+      <c r="M69" s="46" t="s">
+        <v>84</v>
+      </c>
       <c r="N69" s="46" t="s">
         <v>415</v>
       </c>
@@ -6829,7 +6835,9 @@
         <v>84</v>
       </c>
       <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
+      <c r="L71" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="M71" s="46" t="s">
         <v>84</v>
       </c>
@@ -14347,7 +14355,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M102 J11:J53 L11:L57 M11:M68 M70:M72 M75 M79 O11:O72 O75 O79 O102</xm:sqref>
+          <xm:sqref>M102 J11:J53 L11:L57 M11:M72 M75 M79 O102 O75 O79 O11:O72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Seconda pull request\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Terza pull request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00BB9C0-746B-46BB-ABC1-8D45E79B70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39739682-A4E2-43FA-A2BE-A12F7AC6CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2154,49 +2154,49 @@
     <t>Erroregestito da un pannello di controllo centralizzato che consenta la gestione e correzione di ogni tipologia di errore prevista.</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2c8685f071^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9ac77d7a16c3cfc2</t>
-  </si>
-  <si>
-    <t>2024-05-10T12:28:11Z</t>
-  </si>
-  <si>
-    <t>2024-05-10T12:30:09Z</t>
-  </si>
-  <si>
-    <t>5ea4334f12e42e62</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b4c19ffdf2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-10T12:32:06Z</t>
-  </si>
-  <si>
-    <t>e5066719ea34cbd0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ff1c4e1e01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-10T12:34:10Z</t>
-  </si>
-  <si>
-    <t>8da046774bf7fe65</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.00efd60278^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-10T12:36:29Z</t>
-  </si>
-  <si>
-    <t>a3e7af4ce0f28e19</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.623935b845^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-05-16T07:58:19Z</t>
+  </si>
+  <si>
+    <t>4d918fbc5ea6c2e4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a4cca34114^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-16T08:05:07Z</t>
+  </si>
+  <si>
+    <t>4364a66ad8fd30a5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0aebd64347^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-16T08:07:47Z</t>
+  </si>
+  <si>
+    <t>7266eb42fcd3fd64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3280aac4ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-16T08:10:27Z</t>
+  </si>
+  <si>
+    <t>90685ce8dfbf115a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3713fedaef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-16T08:13:06Z</t>
+  </si>
+  <si>
+    <t>1df3440e30cf0c86</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e505cf260b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4176,11 +4176,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T768"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L71" sqref="L71"/>
+      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -5948,16 +5948,16 @@
         <v>395</v>
       </c>
       <c r="F54" s="23">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H54" s="24" t="s">
         <v>457</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J54" s="25" t="s">
         <v>84</v>
@@ -5992,7 +5992,7 @@
         <v>61</v>
       </c>
       <c r="F55" s="23">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="G55" s="47" t="s">
         <v>459</v>
@@ -6036,7 +6036,7 @@
         <v>63</v>
       </c>
       <c r="F56" s="23">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="G56" s="47" t="s">
         <v>462</v>
@@ -6080,7 +6080,7 @@
         <v>65</v>
       </c>
       <c r="F57" s="23">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="G57" s="47" t="s">
         <v>465</v>
@@ -7974,7 +7974,7 @@
         <v>333</v>
       </c>
       <c r="F102" s="23">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>468</v>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Terza pull request\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Quarta pull request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39739682-A4E2-43FA-A2BE-A12F7AC6CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC393885-4D5F-4967-8F04-8C4A548D5894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="465">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2170,24 +2170,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0aebd64347^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-16T08:07:47Z</t>
-  </si>
-  <si>
-    <t>7266eb42fcd3fd64</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3280aac4ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-16T08:10:27Z</t>
-  </si>
-  <si>
-    <t>90685ce8dfbf115a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3713fedaef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2024-05-16T08:13:06Z</t>
@@ -2544,7 +2526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2699,6 +2681,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4176,11 +4161,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T768"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -6019,91 +6004,79 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="135.75" thickBot="1">
-      <c r="A56" s="20">
+    <row r="56" spans="1:20" s="42" customFormat="1" ht="135.75" thickBot="1">
+      <c r="A56" s="33">
         <v>13</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="23">
-        <v>45428</v>
-      </c>
-      <c r="G56" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="28" t="s">
+      <c r="F56" s="36"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="135.75" thickBot="1">
-      <c r="A57" s="20">
+    <row r="57" spans="1:20" s="42" customFormat="1" ht="135.75" thickBot="1">
+      <c r="A57" s="33">
         <v>14</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="23">
-        <v>45428</v>
-      </c>
-      <c r="G57" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="H57" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="28" t="s">
+      <c r="F57" s="36"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7977,13 +7950,13 @@
         <v>45428</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J102" s="25" t="s">
         <v>84</v>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Quarta pull request\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Chiarimenti certificazione RAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC393885-4D5F-4967-8F04-8C4A548D5894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF037AA5-F877-4C42-BD5D-F4FD8C7BEA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$151</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="464">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1977,18 +1977,12 @@
     <t>Il software non gestisce  in modo strutturato le informazioni richieste dal test case.</t>
   </si>
   <si>
-    <t>Sezione  "DICOM Object Catalog" non gestita</t>
-  </si>
-  <si>
     <t>Sezione non gestita da applicativo</t>
   </si>
   <si>
     <t>Sezione opzionale non gestita nel CDA</t>
   </si>
   <si>
-    <t>Errore gestito da un pannello di controllo che gestisce tutti gli errori consentendo la soluzione corretta a seconda del caso.</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -2151,9 +2145,6 @@
     <t>[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
   </si>
   <si>
-    <t>Erroregestito da un pannello di controllo centralizzato che consenta la gestione e correzione di ogni tipologia di errore prevista.</t>
-  </si>
-  <si>
     <t>2024-05-16T07:58:19Z</t>
   </si>
   <si>
@@ -2179,6 +2170,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e505cf260b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il sofware non gestisce i tag inerenti l’anamnesi patologica prossima e quella remota </t>
+  </si>
+  <si>
+    <t>Gli errori saranno gestiti tramite un pannello di controllo centralizzato e polimorfico che sarà in grado di riconoscere gli errori, su cui potranno agire gli operatori autorizzati ed effettuare le opportune correzioni, se necessario, reinviando il referto al FSE.</t>
   </si>
 </sst>
 </file>
@@ -2659,6 +2656,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2681,9 +2681,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4162,10 +4159,10 @@
   <dimension ref="A1:T768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4203,14 +4200,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="21">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="54"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4228,14 +4225,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="52"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4253,12 +4250,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4277,12 +4274,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4300,8 +4297,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -5936,13 +5933,13 @@
         <v>45428</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J54" s="25" t="s">
         <v>84</v>
@@ -5980,13 +5977,13 @@
         <v>45428</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J55" s="25" t="s">
         <v>84</v>
@@ -6021,9 +6018,9 @@
         <v>63</v>
       </c>
       <c r="F56" s="36"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
       <c r="J56" s="38" t="s">
         <v>391</v>
       </c>
@@ -6059,9 +6056,9 @@
         <v>65</v>
       </c>
       <c r="F57" s="36"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
       <c r="J57" s="38" t="s">
         <v>391</v>
       </c>
@@ -6100,13 +6097,13 @@
         <v>45416</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H58" s="47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I58" s="47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J58" s="25" t="s">
         <v>84</v>
@@ -6119,13 +6116,13 @@
         <v>84</v>
       </c>
       <c r="N58" s="46" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O58" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P58" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q58" s="25"/>
       <c r="R58" s="26"/>
@@ -6154,13 +6151,13 @@
         <v>45416</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I59" s="47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J59" s="25" t="s">
         <v>84</v>
@@ -6173,13 +6170,13 @@
         <v>84</v>
       </c>
       <c r="N59" s="46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O59" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P59" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q59" s="25"/>
       <c r="R59" s="26"/>
@@ -6188,7 +6185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="75">
+    <row r="60" spans="1:20" ht="150">
       <c r="A60" s="20">
         <v>47</v>
       </c>
@@ -6225,7 +6222,7 @@
         <v>84</v>
       </c>
       <c r="P60" s="46" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="Q60" s="25"/>
       <c r="R60" s="26" t="s">
@@ -6236,7 +6233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="135">
+    <row r="61" spans="1:20" ht="150">
       <c r="A61" s="20">
         <v>75</v>
       </c>
@@ -6256,13 +6253,13 @@
         <v>45416</v>
       </c>
       <c r="G61" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="H61" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="I61" s="47" t="s">
         <v>418</v>
-      </c>
-      <c r="H61" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="I61" s="47" t="s">
-        <v>420</v>
       </c>
       <c r="J61" s="25" t="s">
         <v>84</v>
@@ -6275,13 +6272,13 @@
         <v>84</v>
       </c>
       <c r="N61" s="46" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O61" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P61" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q61" s="25"/>
       <c r="R61" s="26"/>
@@ -6290,7 +6287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="120.75" thickBot="1">
+    <row r="62" spans="1:20" ht="150.75" thickBot="1">
       <c r="A62" s="20">
         <v>76</v>
       </c>
@@ -6310,13 +6307,13 @@
         <v>45416</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H62" s="47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>84</v>
@@ -6329,13 +6326,13 @@
         <v>84</v>
       </c>
       <c r="N62" s="46" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O62" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P62" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q62" s="25"/>
       <c r="R62" s="26"/>
@@ -6344,7 +6341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="105.75" thickBot="1">
+    <row r="63" spans="1:20" ht="150.75" thickBot="1">
       <c r="A63" s="20">
         <v>77</v>
       </c>
@@ -6364,13 +6361,13 @@
         <v>45416</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H63" s="47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>84</v>
@@ -6383,13 +6380,13 @@
         <v>84</v>
       </c>
       <c r="N63" s="46" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O63" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P63" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q63" s="25"/>
       <c r="R63" s="26"/>
@@ -6398,7 +6395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="105.75" thickBot="1">
+    <row r="64" spans="1:20" ht="150.75" thickBot="1">
       <c r="A64" s="20">
         <v>78</v>
       </c>
@@ -6418,13 +6415,13 @@
         <v>45416</v>
       </c>
       <c r="G64" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="I64" s="47" t="s">
         <v>425</v>
-      </c>
-      <c r="H64" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>427</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>84</v>
@@ -6437,13 +6434,13 @@
         <v>84</v>
       </c>
       <c r="N64" s="46" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O64" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P64" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q64" s="25"/>
       <c r="R64" s="26"/>
@@ -6452,7 +6449,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="120.75" thickBot="1">
+    <row r="65" spans="1:20" ht="150.75" thickBot="1">
       <c r="A65" s="20">
         <v>79</v>
       </c>
@@ -6472,13 +6469,13 @@
         <v>45416</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H65" s="47" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>84</v>
@@ -6491,13 +6488,13 @@
         <v>84</v>
       </c>
       <c r="N65" s="46" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O65" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P65" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q65" s="25"/>
       <c r="R65" s="26"/>
@@ -6506,7 +6503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="120.75" thickBot="1">
+    <row r="66" spans="1:20" ht="150.75" thickBot="1">
       <c r="A66" s="20">
         <v>80</v>
       </c>
@@ -6526,13 +6523,13 @@
         <v>45416</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H66" s="47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>84</v>
@@ -6545,13 +6542,13 @@
         <v>84</v>
       </c>
       <c r="N66" s="46" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O66" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P66" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
@@ -6560,7 +6557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="120.75" thickBot="1">
+    <row r="67" spans="1:20" ht="150.75" thickBot="1">
       <c r="A67" s="20">
         <v>81</v>
       </c>
@@ -6580,13 +6577,13 @@
         <v>45416</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I67" s="47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>84</v>
@@ -6599,13 +6596,13 @@
         <v>84</v>
       </c>
       <c r="N67" s="46" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O67" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P67" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
@@ -6614,7 +6611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="120.75" thickBot="1">
+    <row r="68" spans="1:20" ht="150.75" thickBot="1">
       <c r="A68" s="20">
         <v>82</v>
       </c>
@@ -6634,13 +6631,13 @@
         <v>45416</v>
       </c>
       <c r="G68" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="H68" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="I68" s="47" t="s">
         <v>432</v>
-      </c>
-      <c r="H68" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="I68" s="47" t="s">
-        <v>434</v>
       </c>
       <c r="J68" s="25" t="s">
         <v>84</v>
@@ -6653,13 +6650,13 @@
         <v>84</v>
       </c>
       <c r="N68" s="46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O68" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P68" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
@@ -6668,7 +6665,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="105">
+    <row r="69" spans="1:20" ht="150">
       <c r="A69" s="20">
         <v>83</v>
       </c>
@@ -6688,13 +6685,13 @@
         <v>45416</v>
       </c>
       <c r="G69" s="47" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>84</v>
@@ -6707,13 +6704,13 @@
         <v>84</v>
       </c>
       <c r="N69" s="46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O69" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P69" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="26"/>
@@ -6722,7 +6719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="105">
+    <row r="70" spans="1:20" ht="150">
       <c r="A70" s="20">
         <v>84</v>
       </c>
@@ -6742,13 +6739,13 @@
         <v>45416</v>
       </c>
       <c r="G70" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="I70" s="24" t="s">
         <v>439</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>441</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>84</v>
@@ -6761,13 +6758,13 @@
         <v>84</v>
       </c>
       <c r="N70" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O70" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P70" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q70" s="25"/>
       <c r="R70" s="26"/>
@@ -6776,7 +6773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="120">
+    <row r="71" spans="1:20" ht="150">
       <c r="A71" s="20">
         <v>85</v>
       </c>
@@ -6796,13 +6793,13 @@
         <v>45416</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>84</v>
@@ -6815,13 +6812,13 @@
         <v>84</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O71" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P71" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q71" s="25"/>
       <c r="R71" s="26"/>
@@ -6830,7 +6827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="120">
+    <row r="72" spans="1:20" ht="150">
       <c r="A72" s="20">
         <v>86</v>
       </c>
@@ -6850,13 +6847,13 @@
         <v>45416</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>84</v>
@@ -6869,13 +6866,13 @@
         <v>84</v>
       </c>
       <c r="N72" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O72" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P72" s="46" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="Q72" s="25"/>
       <c r="R72" s="26"/>
@@ -6946,7 +6943,7 @@
         <v>391</v>
       </c>
       <c r="K74" s="43" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="L74" s="38"/>
       <c r="M74" s="38"/>
@@ -6960,7 +6957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="105">
+    <row r="75" spans="1:20" ht="150">
       <c r="A75" s="20">
         <v>89</v>
       </c>
@@ -6980,13 +6977,13 @@
         <v>45416</v>
       </c>
       <c r="G75" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="I75" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>448</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>84</v>
@@ -6999,13 +6996,13 @@
         <v>84</v>
       </c>
       <c r="N75" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O75" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P75" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -7038,7 +7035,7 @@
         <v>391</v>
       </c>
       <c r="K76" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L76" s="38"/>
       <c r="M76" s="38"/>
@@ -7076,7 +7073,7 @@
         <v>391</v>
       </c>
       <c r="K77" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L77" s="38"/>
       <c r="M77" s="38"/>
@@ -7114,7 +7111,7 @@
         <v>391</v>
       </c>
       <c r="K78" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
@@ -7128,7 +7125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="120.75" thickBot="1">
+    <row r="79" spans="1:20" ht="150.75" thickBot="1">
       <c r="A79" s="20">
         <v>93</v>
       </c>
@@ -7148,13 +7145,13 @@
         <v>45416</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>84</v>
@@ -7167,13 +7164,13 @@
         <v>84</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O79" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P79" s="46" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q79" s="25"/>
       <c r="R79" s="26"/>
@@ -7950,13 +7947,13 @@
         <v>45428</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J102" s="25" t="s">
         <v>84</v>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTNET2019\FSETEST\FSE20Tester\bin\Debug\Pdftest\Chiarimenti certificazione RAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF037AA5-F877-4C42-BD5D-F4FD8C7BEA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41833FD8-FD6F-40C3-B8A4-F61EADA585C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,11 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="541">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1983,199 +1978,451 @@
     <t>Sezione opzionale non gestita nel CDA</t>
   </si>
   <si>
+    <t>Il campo purpose_of_use non è valorizzato</t>
+  </si>
+  <si>
+    <t>Il campo action_id non è corretto</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.</t>
+  </si>
+  <si>
+    <t>[Errore-46| codice fiscale 'gtwgwy82b42g920m' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]</t>
+  </si>
+  <si>
+    <t>Infoservice di Francesco Leo</t>
+  </si>
+  <si>
+    <t>[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t>[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ]</t>
+  </si>
+  <si>
+    <t>[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
+  </si>
+  <si>
+    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: K]</t>
+  </si>
+  <si>
+    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: 9999]</t>
+  </si>
+  <si>
+    <t>[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
+  </si>
+  <si>
+    <t>[ERRORE-b4| Sezione Referto: DEVE essere presente la sezione "Referto".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]</t>
+  </si>
+  <si>
+    <t>[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]</t>
+  </si>
+  <si>
+    <t>[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il sofware non gestisce i tag inerenti l’anamnesi patologica prossima e quella remota </t>
+  </si>
+  <si>
+    <t>Gli errori saranno gestiti tramite un pannello di controllo centralizzato e polimorfico che sarà in grado di riconoscere gli errori, su cui potranno agire gli operatori autorizzati ed effettuare le opportune correzioni, se necessario, reinviando il referto al FSE.</t>
+  </si>
+  <si>
+    <t>L’applicativo non gestisce alcuni dei campi opzionali che sono invece obbligatori per questo test case</t>
+  </si>
+  <si>
+    <t>L’applicativo non gestisce la sezione Storia Clinica</t>
+  </si>
+  <si>
+    <t>L’applicativo non gestisce l’elemento inFulfillmentOf</t>
+  </si>
+  <si>
+    <t>L’applicativo non gestisce la sezione Quesito Diagnostico</t>
+  </si>
+  <si>
+    <t>Non è possibile produrre un referto per i pazienti senza confidentiality code</t>
+  </si>
+  <si>
+    <t>Il codice fiscale può essere solo maiuscolo</t>
+  </si>
+  <si>
+    <t>Gli unici valori utilizzabili per la generazione del CDA sono "Normal" e "Very Restricted"</t>
+  </si>
+  <si>
+    <t>Il campo del comune di residenza del paziente è  obbligatorio</t>
+  </si>
+  <si>
+    <t>Il nome e' obbligatorio nell'applicativo.</t>
+  </si>
+  <si>
+    <t>I valori ammessi in  anagrafica sono solo  "maschio", "femmina" o "indifferenziato"</t>
+  </si>
+  <si>
+    <t>I soli valori ammessi sono Normale o Urgente.</t>
+  </si>
+  <si>
+    <t>Il codice univoco di prescrizione non puo' mancare.</t>
+  </si>
+  <si>
+    <t>La tipologia del campione è obbligatoria nell'applicativo e deve essere selezionata fra quelle valide.</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:25:51Z</t>
+  </si>
+  <si>
+    <t>b261ba53322028ff</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c5c5d0abdd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1583ae9b3162fcdc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f22e9c6713^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b2309d8715cc0abd</t>
+  </si>
+  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>Il campo purpose_of_use non è valorizzato</t>
-  </si>
-  <si>
-    <t>2024-05-04T09:40:04Z</t>
-  </si>
-  <si>
-    <t>da71b7259591b5da</t>
-  </si>
-  <si>
-    <t>Il campo action_id non è corretto</t>
-  </si>
-  <si>
-    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.</t>
-  </si>
-  <si>
-    <t>[Errore-46| codice fiscale 'gtwgwy82b42g920m' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]</t>
-  </si>
-  <si>
-    <t>Infoservice di Francesco Leo</t>
-  </si>
-  <si>
-    <t>[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ]</t>
-  </si>
-  <si>
-    <t>[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
-  </si>
-  <si>
-    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: K]</t>
-  </si>
-  <si>
-    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: 9999]</t>
-  </si>
-  <si>
-    <t>[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
-  </si>
-  <si>
-    <t>ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
-  </si>
-  <si>
-    <t>2024-05-04T11:43:21Z</t>
-  </si>
-  <si>
-    <t>52d002e9dd545ac4</t>
-  </si>
-  <si>
-    <t>2024-05-04T11:43:22Z</t>
-  </si>
-  <si>
-    <t>6919f5765a971d4e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8d7d957fd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>440954d8b5edf576</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7516e925a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>701105ab1502ee0e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.80b2c2c1e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-04T11:43:23Z</t>
-  </si>
-  <si>
-    <t>b18d911b8669f887</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d0e600dfbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>80fc071cfe6ab35a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6f7c17196d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cd097d2dd100786b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.42136e9a91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-04T11:43:24Z</t>
-  </si>
-  <si>
-    <t>4ea261a46d803dfb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.22ea273cea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>861fd3af3ae6cf0b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ff340e16ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b845fdd6ddacee16</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.78d5ce2b9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-04T11:43:25Z</t>
-  </si>
-  <si>
-    <t>a2fafc60d0daab63</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d3dd9d883d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ff0524f3f7ac1deb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0359f04640^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16471fe190fc7af2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a58ca5e4c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-04T11:43:26Z</t>
-  </si>
-  <si>
-    <t>bd7b1d2278b93fbd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f8e3ef97bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>79cccfe8c08c9952</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.92e8192447^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
-  </si>
-  <si>
-    <t>[ERRORE-b4| Sezione Referto: DEVE essere presente la sezione "Referto".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]</t>
-  </si>
-  <si>
-    <t>[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]</t>
-  </si>
-  <si>
-    <t>[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
-  </si>
-  <si>
-    <t>2024-05-16T07:58:19Z</t>
-  </si>
-  <si>
-    <t>4d918fbc5ea6c2e4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a4cca34114^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-16T08:05:07Z</t>
-  </si>
-  <si>
-    <t>4364a66ad8fd30a5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0aebd64347^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-16T08:13:06Z</t>
-  </si>
-  <si>
-    <t>1df3440e30cf0c86</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e505cf260b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il sofware non gestisce i tag inerenti l’anamnesi patologica prossima e quella remota </t>
-  </si>
-  <si>
-    <t>Gli errori saranno gestiti tramite un pannello di controllo centralizzato e polimorfico che sarà in grado di riconoscere gli errori, su cui potranno agire gli operatori autorizzati ed effettuare le opportune correzioni, se necessario, reinviando il referto al FSE.</t>
+    <t>2024-06-23T09:25:52Z</t>
+  </si>
+  <si>
+    <t>647bad034df62725</t>
+  </si>
+  <si>
+    <t>b4ecfac09467f7fa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d3534a4e37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>012342412527cf11</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.41fd8b53da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2125c053dfb0df34</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.429991423c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:25:53Z</t>
+  </si>
+  <si>
+    <t>8dda59b9d3f212ec</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.46befcf247^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>82cad5eb5e0efe5b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b82e1dd929^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c34bfeedfc616149</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.03b74bd780^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:25:54Z</t>
+  </si>
+  <si>
+    <t>1b3ea8658a93aeb0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d0781f9e5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5c93afac9d7a523d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.59449e41f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a01971b040d003f7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2d2558d0e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9f75d6c0c936c77b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8e81fcaa05^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:25:55Z</t>
+  </si>
+  <si>
+    <t>df5b5e3ec7173e31</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c925d2ebf4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>84b93ae626bb2224</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7a56cdaf85^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d116125376e7e036</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.40f4373bb3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f8ac9afa25337392</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fb03f30865^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:25:56Z</t>
+  </si>
+  <si>
+    <t>10e6b743d643520a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2600ea86cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:26:36Z</t>
+  </si>
+  <si>
+    <t>69a2d6869b5c93b4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b3cc1e9c7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:26:37Z</t>
+  </si>
+  <si>
+    <t>42a5df690be18e3f</t>
+  </si>
+  <si>
+    <t>1ee707f0d6de4d68</t>
+  </si>
+  <si>
+    <t>a9fac76a9e9b3376</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.99ae69356c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4175fa759f9a2e98</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e14e0f22b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:26:38Z</t>
+  </si>
+  <si>
+    <t>15b535c337a73d99</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.973136c7eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t>4307678d52bd53b0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.eb7a1476f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4c65c31a5f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]</t>
+  </si>
+  <si>
+    <t>2e7c7cee3f0cd424</t>
+  </si>
+  <si>
+    <t>57e388c3f1341aef</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1bd644efa2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:26:39Z</t>
+  </si>
+  <si>
+    <t>cc5c2d646805d20a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.90469d635f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>134264694e7b4ceb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3f1805798c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'effectiveTime'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id, "urn:hl7-org:v3":code}' is expected.</t>
+  </si>
+  <si>
+    <t>fea48a2d13bc6a17</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.51f4130a40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
+  </si>
+  <si>
+    <t>2d37182fbd13bcb5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ef8ea27628^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:26:40Z</t>
+  </si>
+  <si>
+    <t>4211a68fd44ab8af</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.cf8845ae32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']</t>
+  </si>
+  <si>
+    <t>f85f2f5184ca6352</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.326f349d57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice "S" ]</t>
+  </si>
+  <si>
+    <t>5859d464986ab12f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e831b17be2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:27:29Z</t>
+  </si>
+  <si>
+    <t>1e4ec4f905e902fb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.ce33377d63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:27:30Z</t>
+  </si>
+  <si>
+    <t>c95bebda3b17b81f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.07955da806^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b4927df7eab92de2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.857ed8468f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:27:31Z</t>
+  </si>
+  <si>
+    <t>2ecce8f5d2d50093</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.b903881163^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>23b054a577eef2a2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.729fff5ab5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4a7ca59669ce7ab6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.f31541b3cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-23T09:27:32Z</t>
+  </si>
+  <si>
+    <t>ad9bafafb6e4405a</t>
+  </si>
+  <si>
+    <t>Tipologia non gestita né documentata</t>
+  </si>
+  <si>
+    <t>95eed381b246b03b</t>
+  </si>
+  <si>
+    <t>Errore di timeout</t>
+  </si>
+  <si>
+    <t>606b0a2010e4a23f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.b6557f0e37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b1| L'elemento code della section DEVE essere valorizzato con uno dei seguenti codici LOINC individuati:
+						18717-9 BANCA DEL SANGUE
+						18718-7 MARCATORI CELLULARI 
+						18719-5 CHIMICA
+						18720-3	COAGULAZIONE
+						18721-1 MONITORAGGIO TERAPEUTICO DEI FARMACI
+						18722-9 FERTILITÀ
+						18723-7 EMATOLOGIA
+						18724-5 HLA
+						18725-2 MICROBIOLOGIA
+						18727-8 SEROLOGIA
+						18728-6 TOSSICOLOGIA
+						18729-4 ESAMI DELLE URINE
+						18767-4 EMOGASANALISI
+						18768-2 CONTE CELLULARE+DIFFERENZIALE
+						18769-0 SUSCETTIBILITÀ ANTIMICROBICA
+						26435-8 PATOLOGIA MOLECOLARE
+						26436-6 ESAMI DI LABORATORIO
+						26437-4 TEST DI SENSIBILITÀ A SOSTANZE CHIMICHE
+						26438-2 CITOLOGIA
+						18716-1 ALLERGOLOGIA
+						26439-0 PATOLOGIA CHIRURGICA]</t>
+  </si>
+  <si>
+    <t>d17bb48a30878f58</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.c4e289f12b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2681,6 +2928,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4159,21 +4500,24 @@
   <dimension ref="A1:T768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P79" sqref="P79"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="111.7109375" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
     <col min="16" max="16" width="27.140625" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
@@ -4181,7 +4525,7 @@
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="21.95" customHeight="1">
       <c r="C1" s="4"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -4199,13 +4543,13 @@
       <c r="S1" s="2"/>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:20" ht="21">
+    <row r="2" spans="1:20" ht="21.95" customHeight="1">
       <c r="A2" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D2" s="54"/>
       <c r="F2" s="12"/>
@@ -4224,7 +4568,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75">
+    <row r="3" spans="1:20" ht="21.95" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>23</v>
       </c>
@@ -4249,7 +4593,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75">
+    <row r="4" spans="1:20" ht="21.95" customHeight="1">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
       <c r="C4" s="61" t="s">
@@ -4273,7 +4617,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75">
+    <row r="5" spans="1:20" ht="21.95" customHeight="1">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
@@ -4296,7 +4640,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="9.9499999999999993" customHeight="1">
       <c r="A6" s="49"/>
       <c r="B6" s="50"/>
       <c r="C6" s="16"/>
@@ -4316,7 +4660,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="9.9499999999999993" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4336,7 +4680,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -4353,7 +4697,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="38.25" thickBot="1">
+    <row r="9" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -4415,7 +4759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -4431,13 +4775,23 @@
       <c r="E10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="F10" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>515</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>517</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -4449,7 +4803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -4465,13 +4819,23 @@
       <c r="E11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="F11" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>519</v>
+      </c>
+      <c r="I11" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -4483,7 +4847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -4499,13 +4863,23 @@
       <c r="E12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="F12" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>521</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
@@ -4517,7 +4891,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -4533,13 +4907,23 @@
       <c r="E13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>523</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -4551,7 +4935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -4567,13 +4951,23 @@
       <c r="E14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="F14" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>523</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>527</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -4585,7 +4979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="20">
         <v>28</v>
       </c>
@@ -4601,17 +4995,37 @@
       <c r="E15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="F15" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>531</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="L15" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="O15" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="80" t="s">
+        <v>416</v>
+      </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
@@ -4619,7 +5033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="20">
         <v>36</v>
       </c>
@@ -4635,17 +5049,37 @@
       <c r="E16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="F16" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>533</v>
+      </c>
+      <c r="I16" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="L16" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="93" t="s">
+        <v>400</v>
+      </c>
+      <c r="O16" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="80" t="s">
+        <v>416</v>
+      </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
@@ -4653,7 +5087,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="17" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -4666,20 +5100,34 @@
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="78">
+        <v>45466</v>
+      </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="L17" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="93" t="s">
+        <v>534</v>
+      </c>
+      <c r="O17" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="80" t="s">
+        <v>416</v>
+      </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
         <v>84</v>
@@ -4689,279 +5137,311 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A18" s="20">
+    <row r="18" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A18" s="33">
         <v>52</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A19" s="20">
+    <row r="19" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="33">
         <v>53</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="28" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A20" s="20">
+    <row r="20" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A20" s="33">
         <v>54</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28" t="s">
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A21" s="20">
+    <row r="21" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A21" s="33">
         <v>55</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A22" s="20">
+    <row r="22" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A22" s="33">
         <v>56</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28" t="s">
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A23" s="20">
+    <row r="23" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A23" s="33">
         <v>57</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="28" t="s">
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A24" s="20">
+    <row r="24" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A24" s="33">
         <v>58</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28" t="s">
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A25" s="20">
+    <row r="25" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A25" s="33">
         <v>59</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="28" t="s">
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A26" s="20">
         <v>60</v>
       </c>
@@ -4977,17 +5457,37 @@
       <c r="E26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
+      <c r="F26" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G26" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>536</v>
+      </c>
+      <c r="J26" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
+      <c r="L26" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="O26" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="80" t="s">
+        <v>416</v>
+      </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
@@ -4995,41 +5495,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A27" s="20">
+    <row r="27" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A27" s="33">
         <v>61</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="28" t="s">
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="20">
         <v>62</v>
       </c>
@@ -5045,17 +5549,37 @@
       <c r="E28" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
+      <c r="F28" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="H28" s="79" t="s">
+        <v>538</v>
+      </c>
+      <c r="I28" s="79" t="s">
+        <v>539</v>
+      </c>
+      <c r="J28" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
+      <c r="L28" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" s="80" t="s">
+        <v>540</v>
+      </c>
+      <c r="O28" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" s="80" t="s">
+        <v>416</v>
+      </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
@@ -5063,37 +5587,47 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A29" s="20">
+    <row r="29" spans="1:20" s="90" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A29" s="81">
         <v>191</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="28" t="s">
+      <c r="F29" s="84">
+        <v>45466</v>
+      </c>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="K29" s="91" t="s">
+        <v>532</v>
+      </c>
+      <c r="L29" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="89" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5845,7 +6379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A52" s="20">
         <v>368</v>
       </c>
@@ -5861,16 +6395,26 @@
       <c r="E52" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
+      <c r="F52" s="78">
+        <v>45466</v>
+      </c>
+      <c r="G52" s="79" t="s">
+        <v>523</v>
+      </c>
+      <c r="H52" s="79" t="s">
+        <v>528</v>
+      </c>
+      <c r="I52" s="79" t="s">
+        <v>529</v>
+      </c>
+      <c r="J52" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
+      <c r="L52" s="93"/>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
+      <c r="O52" s="93"/>
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
       <c r="R52" s="26"/>
@@ -5879,41 +6423,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A53" s="20">
+    <row r="53" spans="1:20" s="90" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A53" s="81">
         <v>376</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="28" t="s">
+      <c r="F53" s="84">
+        <v>45466</v>
+      </c>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="K53" s="91" t="s">
+        <v>532</v>
+      </c>
+      <c r="L53" s="91"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="87"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="120.75" thickBot="1">
+    <row r="54" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A54" s="20">
         <v>11</v>
       </c>
@@ -5930,16 +6480,16 @@
         <v>395</v>
       </c>
       <c r="F54" s="23">
-        <v>45428</v>
+        <v>45466</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="J54" s="25" t="s">
         <v>84</v>
@@ -5957,7 +6507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="135.75" thickBot="1">
+    <row r="55" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A55" s="20">
         <v>12</v>
       </c>
@@ -5974,16 +6524,16 @@
         <v>61</v>
       </c>
       <c r="F55" s="23">
-        <v>45428</v>
+        <v>45466</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="J55" s="25" t="s">
         <v>84</v>
@@ -6001,7 +6551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="42" customFormat="1" ht="135.75" thickBot="1">
+    <row r="56" spans="1:20" s="42" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A56" s="33">
         <v>13</v>
       </c>
@@ -6017,7 +6567,9 @@
       <c r="E56" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="36"/>
+      <c r="F56" s="23">
+        <v>45466</v>
+      </c>
       <c r="G56" s="48"/>
       <c r="H56" s="48"/>
       <c r="I56" s="48"/>
@@ -6039,7 +6591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="42" customFormat="1" ht="135.75" thickBot="1">
+    <row r="57" spans="1:20" s="42" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A57" s="33">
         <v>14</v>
       </c>
@@ -6055,7 +6607,9 @@
       <c r="E57" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="36"/>
+      <c r="F57" s="23">
+        <v>45466</v>
+      </c>
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48"/>
@@ -6077,7 +6631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="150.75" thickBot="1">
+    <row r="58" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A58" s="20">
         <v>31</v>
       </c>
@@ -6094,16 +6648,16 @@
         <v>70</v>
       </c>
       <c r="F58" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="H58" s="47" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="I58" s="47" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="J58" s="25" t="s">
         <v>84</v>
@@ -6116,13 +6670,13 @@
         <v>84</v>
       </c>
       <c r="N58" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O58" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P58" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q58" s="25"/>
       <c r="R58" s="26"/>
@@ -6131,7 +6685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="150.75" thickBot="1">
+    <row r="59" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A59" s="20">
         <v>39</v>
       </c>
@@ -6148,16 +6702,16 @@
         <v>78</v>
       </c>
       <c r="F59" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="I59" s="47" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="J59" s="25" t="s">
         <v>84</v>
@@ -6170,13 +6724,13 @@
         <v>84</v>
       </c>
       <c r="N59" s="46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O59" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P59" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q59" s="25"/>
       <c r="R59" s="26"/>
@@ -6185,7 +6739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="150">
+    <row r="60" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A60" s="20">
         <v>47</v>
       </c>
@@ -6202,7 +6756,7 @@
         <v>83</v>
       </c>
       <c r="F60" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
@@ -6222,7 +6776,7 @@
         <v>84</v>
       </c>
       <c r="P60" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q60" s="25"/>
       <c r="R60" s="26" t="s">
@@ -6233,7 +6787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="150">
+    <row r="61" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A61" s="20">
         <v>75</v>
       </c>
@@ -6250,16 +6804,16 @@
         <v>110</v>
       </c>
       <c r="F61" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="H61" s="47" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="J61" s="25" t="s">
         <v>84</v>
@@ -6272,13 +6826,13 @@
         <v>84</v>
       </c>
       <c r="N61" s="46" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O61" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P61" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q61" s="25"/>
       <c r="R61" s="26"/>
@@ -6287,7 +6841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="150.75" thickBot="1">
+    <row r="62" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A62" s="20">
         <v>76</v>
       </c>
@@ -6304,16 +6858,16 @@
         <v>112</v>
       </c>
       <c r="F62" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="H62" s="47" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>84</v>
@@ -6326,13 +6880,13 @@
         <v>84</v>
       </c>
       <c r="N62" s="46" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O62" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P62" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q62" s="25"/>
       <c r="R62" s="26"/>
@@ -6341,7 +6895,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="150.75" thickBot="1">
+    <row r="63" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A63" s="20">
         <v>77</v>
       </c>
@@ -6358,16 +6912,16 @@
         <v>114</v>
       </c>
       <c r="F63" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="H63" s="47" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>84</v>
@@ -6380,13 +6934,13 @@
         <v>84</v>
       </c>
       <c r="N63" s="46" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O63" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P63" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q63" s="25"/>
       <c r="R63" s="26"/>
@@ -6395,7 +6949,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="150.75" thickBot="1">
+    <row r="64" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A64" s="20">
         <v>78</v>
       </c>
@@ -6412,16 +6966,16 @@
         <v>116</v>
       </c>
       <c r="F64" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="I64" s="47" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>84</v>
@@ -6434,13 +6988,13 @@
         <v>84</v>
       </c>
       <c r="N64" s="46" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O64" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P64" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q64" s="25"/>
       <c r="R64" s="26"/>
@@ -6449,7 +7003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="150.75" thickBot="1">
+    <row r="65" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A65" s="20">
         <v>79</v>
       </c>
@@ -6466,16 +7020,16 @@
         <v>118</v>
       </c>
       <c r="F65" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="H65" s="47" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>84</v>
@@ -6488,13 +7042,13 @@
         <v>84</v>
       </c>
       <c r="N65" s="46" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O65" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P65" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q65" s="25"/>
       <c r="R65" s="26"/>
@@ -6503,7 +7057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="150.75" thickBot="1">
+    <row r="66" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A66" s="20">
         <v>80</v>
       </c>
@@ -6520,16 +7074,16 @@
         <v>120</v>
       </c>
       <c r="F66" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="H66" s="47" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>84</v>
@@ -6542,13 +7096,13 @@
         <v>84</v>
       </c>
       <c r="N66" s="46" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O66" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P66" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
@@ -6557,7 +7111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="150.75" thickBot="1">
+    <row r="67" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A67" s="20">
         <v>81</v>
       </c>
@@ -6574,16 +7128,16 @@
         <v>122</v>
       </c>
       <c r="F67" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="I67" s="47" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>84</v>
@@ -6596,13 +7150,13 @@
         <v>84</v>
       </c>
       <c r="N67" s="46" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O67" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P67" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
@@ -6611,7 +7165,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="150.75" thickBot="1">
+    <row r="68" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A68" s="20">
         <v>82</v>
       </c>
@@ -6628,16 +7182,16 @@
         <v>124</v>
       </c>
       <c r="F68" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G68" s="47" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="H68" s="47" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="I68" s="47" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="J68" s="25" t="s">
         <v>84</v>
@@ -6650,13 +7204,13 @@
         <v>84</v>
       </c>
       <c r="N68" s="46" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O68" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P68" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
@@ -6665,7 +7219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="150">
+    <row r="69" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A69" s="20">
         <v>83</v>
       </c>
@@ -6682,16 +7236,16 @@
         <v>126</v>
       </c>
       <c r="F69" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G69" s="47" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>84</v>
@@ -6704,13 +7258,13 @@
         <v>84</v>
       </c>
       <c r="N69" s="46" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O69" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P69" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="26"/>
@@ -6719,7 +7273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="150">
+    <row r="70" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A70" s="20">
         <v>84</v>
       </c>
@@ -6736,16 +7290,16 @@
         <v>128</v>
       </c>
       <c r="F70" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>84</v>
@@ -6758,13 +7312,13 @@
         <v>84</v>
       </c>
       <c r="N70" s="25" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="O70" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P70" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q70" s="25"/>
       <c r="R70" s="26"/>
@@ -6773,7 +7327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="150">
+    <row r="71" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A71" s="20">
         <v>85</v>
       </c>
@@ -6790,16 +7344,16 @@
         <v>130</v>
       </c>
       <c r="F71" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>84</v>
@@ -6812,13 +7366,13 @@
         <v>84</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="O71" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P71" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q71" s="25"/>
       <c r="R71" s="26"/>
@@ -6827,7 +7381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="150">
+    <row r="72" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A72" s="20">
         <v>86</v>
       </c>
@@ -6844,16 +7398,16 @@
         <v>132</v>
       </c>
       <c r="F72" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>84</v>
@@ -6866,13 +7420,13 @@
         <v>84</v>
       </c>
       <c r="N72" s="25" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="O72" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P72" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q72" s="25"/>
       <c r="R72" s="26"/>
@@ -6881,7 +7435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="42" customFormat="1" ht="135">
+    <row r="73" spans="1:20" s="42" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A73" s="33">
         <v>87</v>
       </c>
@@ -6897,7 +7451,9 @@
       <c r="E73" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="36"/>
+      <c r="F73" s="23">
+        <v>45466</v>
+      </c>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
@@ -6919,7 +7475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="42" customFormat="1" ht="120">
+    <row r="74" spans="1:20" s="42" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A74" s="33">
         <v>88</v>
       </c>
@@ -6935,7 +7491,9 @@
       <c r="E74" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="36"/>
+      <c r="F74" s="23">
+        <v>45466</v>
+      </c>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
@@ -6943,7 +7501,7 @@
         <v>391</v>
       </c>
       <c r="K74" s="43" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="L74" s="38"/>
       <c r="M74" s="38"/>
@@ -6957,7 +7515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="150">
+    <row r="75" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A75" s="20">
         <v>89</v>
       </c>
@@ -6974,16 +7532,16 @@
         <v>138</v>
       </c>
       <c r="F75" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>84</v>
@@ -6996,13 +7554,13 @@
         <v>84</v>
       </c>
       <c r="N75" s="25" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="O75" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P75" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -7011,7 +7569,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="42" customFormat="1" ht="105">
+    <row r="76" spans="1:20" s="42" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A76" s="33">
         <v>90</v>
       </c>
@@ -7027,7 +7585,9 @@
       <c r="E76" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F76" s="36"/>
+      <c r="F76" s="23">
+        <v>45466</v>
+      </c>
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
@@ -7049,7 +7609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="42" customFormat="1" ht="120">
+    <row r="77" spans="1:20" s="42" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A77" s="33">
         <v>91</v>
       </c>
@@ -7065,7 +7625,9 @@
       <c r="E77" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="36"/>
+      <c r="F77" s="23">
+        <v>45466</v>
+      </c>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
@@ -7087,7 +7649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="42" customFormat="1" ht="120.75" thickBot="1">
+    <row r="78" spans="1:20" s="42" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A78" s="33">
         <v>92</v>
       </c>
@@ -7103,7 +7665,9 @@
       <c r="E78" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="36"/>
+      <c r="F78" s="23">
+        <v>45466</v>
+      </c>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
@@ -7125,7 +7689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="150.75" thickBot="1">
+    <row r="79" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A79" s="20">
         <v>93</v>
       </c>
@@ -7142,16 +7706,16 @@
         <v>146</v>
       </c>
       <c r="F79" s="23">
-        <v>45416</v>
+        <v>45466</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>84</v>
@@ -7164,13 +7728,13 @@
         <v>84</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="O79" s="46" t="s">
         <v>84</v>
       </c>
       <c r="P79" s="46" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="Q79" s="25"/>
       <c r="R79" s="26"/>
@@ -7179,7 +7743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="180" hidden="1">
+    <row r="80" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A80" s="20">
         <v>224</v>
       </c>
@@ -7213,7 +7777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="270" hidden="1">
+    <row r="81" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A81" s="20">
         <v>225</v>
       </c>
@@ -7247,7 +7811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="240" hidden="1">
+    <row r="82" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A82" s="20">
         <v>226</v>
       </c>
@@ -7281,7 +7845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="135" hidden="1">
+    <row r="83" spans="1:20" ht="360.75" hidden="1" thickBot="1">
       <c r="A83" s="20">
         <v>227</v>
       </c>
@@ -7315,7 +7879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="240" hidden="1">
+    <row r="84" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A84" s="20">
         <v>228</v>
       </c>
@@ -7349,7 +7913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="195" hidden="1">
+    <row r="85" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A85" s="20">
         <v>229</v>
       </c>
@@ -7383,7 +7947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="210" hidden="1">
+    <row r="86" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A86" s="20">
         <v>230</v>
       </c>
@@ -7417,7 +7981,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="225" hidden="1">
+    <row r="87" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A87" s="20">
         <v>231</v>
       </c>
@@ -7451,7 +8015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="210" hidden="1">
+    <row r="88" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A88" s="20">
         <v>232</v>
       </c>
@@ -7485,7 +8049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="210" hidden="1">
+    <row r="89" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A89" s="20">
         <v>233</v>
       </c>
@@ -7519,7 +8083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="210" hidden="1">
+    <row r="90" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A90" s="20">
         <v>234</v>
       </c>
@@ -7553,7 +8117,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="225" hidden="1">
+    <row r="91" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A91" s="20">
         <v>235</v>
       </c>
@@ -7587,7 +8151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="120" hidden="1">
+    <row r="92" spans="1:20" ht="270.75" hidden="1" thickBot="1">
       <c r="A92" s="20">
         <v>236</v>
       </c>
@@ -7621,7 +8185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="225" hidden="1">
+    <row r="93" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A93" s="20">
         <v>237</v>
       </c>
@@ -7655,7 +8219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="255" hidden="1">
+    <row r="94" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A94" s="20">
         <v>238</v>
       </c>
@@ -7689,7 +8253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="225" hidden="1">
+    <row r="95" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A95" s="20">
         <v>239</v>
       </c>
@@ -7723,7 +8287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="270" hidden="1">
+    <row r="96" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A96" s="20">
         <v>328</v>
       </c>
@@ -7757,7 +8321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="225" hidden="1">
+    <row r="97" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A97" s="20">
         <v>329</v>
       </c>
@@ -7791,7 +8355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="270" hidden="1">
+    <row r="98" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A98" s="20">
         <v>330</v>
       </c>
@@ -7825,7 +8389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="240" hidden="1">
+    <row r="99" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A99" s="20">
         <v>331</v>
       </c>
@@ -7859,7 +8423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="240" hidden="1">
+    <row r="100" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A100" s="20">
         <v>356</v>
       </c>
@@ -7893,7 +8457,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="210" hidden="1">
+    <row r="101" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A101" s="20">
         <v>357</v>
       </c>
@@ -7927,7 +8491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="135">
+    <row r="102" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
       <c r="A102" s="20">
         <v>370</v>
       </c>
@@ -7944,16 +8508,16 @@
         <v>333</v>
       </c>
       <c r="F102" s="23">
-        <v>45428</v>
+        <v>45466</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="J102" s="25" t="s">
         <v>84</v>
@@ -7971,7 +8535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="103" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A103" s="20">
         <v>32</v>
       </c>
@@ -7987,17 +8551,37 @@
       <c r="E103" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="23"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="25"/>
+      <c r="F103" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G103" s="79" t="s">
+        <v>476</v>
+      </c>
+      <c r="H103" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="I103" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="J103" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="25"/>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
+      <c r="L103" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M103" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N103" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="O103" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P103" s="63" t="s">
+        <v>416</v>
+      </c>
       <c r="Q103" s="25"/>
       <c r="R103" s="26"/>
       <c r="S103" s="27"/>
@@ -8005,7 +8589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A104" s="20">
         <v>40</v>
       </c>
@@ -8021,17 +8605,37 @@
       <c r="E104" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F104" s="23"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="25"/>
+      <c r="F104" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G104" s="79" t="s">
+        <v>476</v>
+      </c>
+      <c r="H104" s="79" t="s">
+        <v>478</v>
+      </c>
+      <c r="I104" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="J104" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="25"/>
+      <c r="L104" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M104" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N104" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="O104" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P104" s="64" t="s">
+        <v>416</v>
+      </c>
       <c r="Q104" s="25"/>
       <c r="R104" s="26"/>
       <c r="S104" s="27"/>
@@ -8039,7 +8643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="105" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A105" s="20">
         <v>48</v>
       </c>
@@ -8055,17 +8659,29 @@
       <c r="E105" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F105" s="23"/>
+      <c r="F105" s="23">
+        <v>45466</v>
+      </c>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
-      <c r="J105" s="25"/>
+      <c r="J105" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
+      <c r="L105" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M105" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="N105" s="25"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="25"/>
+      <c r="O105" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P105" s="65" t="s">
+        <v>416</v>
+      </c>
       <c r="Q105" s="25"/>
       <c r="R105" s="26" t="s">
         <v>84</v>
@@ -8075,7 +8691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="106" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A106" s="20">
         <v>147</v>
       </c>
@@ -8091,11 +8707,21 @@
       <c r="E106" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F106" s="23"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="25"/>
+      <c r="F106" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="J106" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K106" s="25"/>
       <c r="L106" s="25"/>
       <c r="M106" s="25"/>
@@ -8109,109 +8735,121 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A107" s="20">
+    <row r="107" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A107" s="33">
         <v>148</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="25"/>
-      <c r="O107" s="25"/>
-      <c r="P107" s="25"/>
-      <c r="Q107" s="25"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="27"/>
-      <c r="T107" s="28" t="s">
+      <c r="F107" s="36"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="K107" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="40"/>
+      <c r="T107" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A108" s="20">
+    <row r="108" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A108" s="33">
         <v>149</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F108" s="23"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="25"/>
-      <c r="O108" s="25"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="27"/>
-      <c r="T108" s="28" t="s">
+      <c r="F108" s="36"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="K108" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
+      <c r="R108" s="39"/>
+      <c r="S108" s="40"/>
+      <c r="T108" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A109" s="20">
+    <row r="109" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A109" s="33">
         <v>150</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E109" s="22" t="s">
+      <c r="E109" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F109" s="23"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="28" t="s">
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="K109" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="39"/>
+      <c r="S109" s="40"/>
+      <c r="T109" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="110" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A110" s="20">
         <v>151</v>
       </c>
@@ -8227,17 +8865,37 @@
       <c r="E110" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="F110" s="23"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="25"/>
+      <c r="F110" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G110" s="79" t="s">
+        <v>476</v>
+      </c>
+      <c r="H110" s="79" t="s">
+        <v>479</v>
+      </c>
+      <c r="I110" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="J110" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="25"/>
-      <c r="N110" s="25"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="25"/>
+      <c r="L110" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M110" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N110" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="O110" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P110" s="66" t="s">
+        <v>416</v>
+      </c>
       <c r="Q110" s="25"/>
       <c r="R110" s="26"/>
       <c r="S110" s="27"/>
@@ -8245,7 +8903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="111" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A111" s="20">
         <v>152</v>
       </c>
@@ -8261,17 +8919,37 @@
       <c r="E111" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F111" s="23"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="25"/>
+      <c r="F111" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G111" s="79" t="s">
+        <v>476</v>
+      </c>
+      <c r="H111" s="79" t="s">
+        <v>481</v>
+      </c>
+      <c r="I111" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="J111" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
-      <c r="N111" s="25"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="25"/>
+      <c r="L111" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M111" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N111" s="93" t="s">
+        <v>402</v>
+      </c>
+      <c r="O111" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P111" s="67" t="s">
+        <v>416</v>
+      </c>
       <c r="Q111" s="25"/>
       <c r="R111" s="26"/>
       <c r="S111" s="27"/>
@@ -8279,7 +8957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="112" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A112" s="20">
         <v>153</v>
       </c>
@@ -8295,17 +8973,37 @@
       <c r="E112" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F112" s="23"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="25"/>
+      <c r="F112" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G112" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="H112" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="I112" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="J112" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="25"/>
-      <c r="N112" s="25"/>
-      <c r="O112" s="25"/>
-      <c r="P112" s="25"/>
+      <c r="L112" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M112" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N112" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="O112" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P112" s="68" t="s">
+        <v>416</v>
+      </c>
       <c r="Q112" s="25"/>
       <c r="R112" s="26"/>
       <c r="S112" s="27"/>
@@ -8313,7 +9011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="113" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A113" s="20">
         <v>154</v>
       </c>
@@ -8329,17 +9027,37 @@
       <c r="E113" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F113" s="23"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="25"/>
+      <c r="F113" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G113" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="H113" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="I113" s="79" t="s">
+        <v>489</v>
+      </c>
+      <c r="J113" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="25"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="25"/>
+      <c r="L113" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M113" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N113" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="O113" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P113" s="69" t="s">
+        <v>416</v>
+      </c>
       <c r="Q113" s="25"/>
       <c r="R113" s="26"/>
       <c r="S113" s="27"/>
@@ -8347,7 +9065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="114" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A114" s="20">
         <v>155</v>
       </c>
@@ -8363,17 +9081,37 @@
       <c r="E114" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F114" s="23"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="25"/>
+      <c r="F114" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G114" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="H114" s="79" t="s">
+        <v>491</v>
+      </c>
+      <c r="I114" s="79" t="s">
+        <v>488</v>
+      </c>
+      <c r="J114" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="25"/>
-      <c r="P114" s="25"/>
+      <c r="L114" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M114" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N114" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="O114" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P114" s="70" t="s">
+        <v>416</v>
+      </c>
       <c r="Q114" s="25"/>
       <c r="R114" s="26"/>
       <c r="S114" s="27"/>
@@ -8381,7 +9119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="115" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A115" s="20">
         <v>156</v>
       </c>
@@ -8397,17 +9135,37 @@
       <c r="E115" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F115" s="23"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="25"/>
+      <c r="F115" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G115" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="H115" s="79" t="s">
+        <v>492</v>
+      </c>
+      <c r="I115" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="J115" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="25"/>
-      <c r="O115" s="25"/>
-      <c r="P115" s="25"/>
+      <c r="L115" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M115" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N115" s="80" t="s">
+        <v>407</v>
+      </c>
+      <c r="O115" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P115" s="71" t="s">
+        <v>416</v>
+      </c>
       <c r="Q115" s="25"/>
       <c r="R115" s="26"/>
       <c r="S115" s="27"/>
@@ -8415,75 +9173,83 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A116" s="20">
+    <row r="116" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A116" s="33">
         <v>157</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F116" s="23"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="25"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="26"/>
-      <c r="S116" s="27"/>
-      <c r="T116" s="28" t="s">
+      <c r="F116" s="36"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K116" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
+      <c r="O116" s="38"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="38"/>
+      <c r="R116" s="39"/>
+      <c r="S116" s="40"/>
+      <c r="T116" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A117" s="20">
+    <row r="117" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A117" s="33">
         <v>158</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="F117" s="23"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="25"/>
-      <c r="Q117" s="25"/>
-      <c r="R117" s="26"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="28" t="s">
+      <c r="F117" s="36"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K117" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="38"/>
+      <c r="O117" s="38"/>
+      <c r="P117" s="38"/>
+      <c r="Q117" s="38"/>
+      <c r="R117" s="39"/>
+      <c r="S117" s="40"/>
+      <c r="T117" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="118" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A118" s="20">
         <v>159</v>
       </c>
@@ -8499,17 +9265,37 @@
       <c r="E118" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F118" s="23"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="25"/>
+      <c r="F118" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G118" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="H118" s="79" t="s">
+        <v>495</v>
+      </c>
+      <c r="I118" s="79" t="s">
+        <v>496</v>
+      </c>
+      <c r="J118" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="25"/>
+      <c r="L118" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M118" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N118" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="O118" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P118" s="72" t="s">
+        <v>416</v>
+      </c>
       <c r="Q118" s="25"/>
       <c r="R118" s="26"/>
       <c r="S118" s="27"/>
@@ -8517,7 +9303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="119" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A119" s="20">
         <v>160</v>
       </c>
@@ -8533,17 +9319,37 @@
       <c r="E119" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F119" s="23"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="25"/>
+      <c r="F119" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G119" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="H119" s="79" t="s">
+        <v>497</v>
+      </c>
+      <c r="I119" s="79" t="s">
+        <v>498</v>
+      </c>
+      <c r="J119" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="25"/>
-      <c r="P119" s="25"/>
+      <c r="L119" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M119" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N119" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="O119" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P119" s="73" t="s">
+        <v>416</v>
+      </c>
       <c r="Q119" s="25"/>
       <c r="R119" s="26"/>
       <c r="S119" s="27"/>
@@ -8551,7 +9357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="120" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A120" s="20">
         <v>161</v>
       </c>
@@ -8567,17 +9373,37 @@
       <c r="E120" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F120" s="23"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="25"/>
+      <c r="F120" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G120" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="H120" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="I120" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="J120" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="25"/>
+      <c r="L120" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M120" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N120" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="O120" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P120" s="74" t="s">
+        <v>416</v>
+      </c>
       <c r="Q120" s="25"/>
       <c r="R120" s="26"/>
       <c r="S120" s="27"/>
@@ -8585,7 +9411,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="121" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A121" s="20">
         <v>162</v>
       </c>
@@ -8601,17 +9427,37 @@
       <c r="E121" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="F121" s="23"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="25"/>
+      <c r="F121" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G121" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="H121" s="79" t="s">
+        <v>503</v>
+      </c>
+      <c r="I121" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="J121" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="25"/>
-      <c r="N121" s="25"/>
-      <c r="O121" s="25"/>
-      <c r="P121" s="25"/>
+      <c r="L121" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M121" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N121" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="O121" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P121" s="75" t="s">
+        <v>416</v>
+      </c>
       <c r="Q121" s="25"/>
       <c r="R121" s="26"/>
       <c r="S121" s="27"/>
@@ -8619,7 +9465,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="122" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A122" s="20">
         <v>163</v>
       </c>
@@ -8635,17 +9481,37 @@
       <c r="E122" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F122" s="23"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="25"/>
+      <c r="F122" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="I122" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="J122" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="25"/>
-      <c r="O122" s="25"/>
-      <c r="P122" s="25"/>
+      <c r="L122" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M122" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N122" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="O122" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P122" s="76" t="s">
+        <v>416</v>
+      </c>
       <c r="Q122" s="25"/>
       <c r="R122" s="26"/>
       <c r="S122" s="27"/>
@@ -8653,177 +9519,197 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A123" s="20">
+    <row r="123" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A123" s="33">
         <v>164</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D123" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="E123" s="22" t="s">
+      <c r="E123" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F123" s="23"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="25"/>
-      <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="26"/>
-      <c r="S123" s="27"/>
-      <c r="T123" s="28" t="s">
+      <c r="F123" s="36"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K123" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="L123" s="38"/>
+      <c r="M123" s="38"/>
+      <c r="N123" s="38"/>
+      <c r="O123" s="38"/>
+      <c r="P123" s="38"/>
+      <c r="Q123" s="38"/>
+      <c r="R123" s="39"/>
+      <c r="S123" s="40"/>
+      <c r="T123" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A124" s="20">
+    <row r="124" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A124" s="33">
         <v>165</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D124" s="21" t="s">
+      <c r="D124" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F124" s="23"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="25"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="25"/>
-      <c r="Q124" s="25"/>
-      <c r="R124" s="26"/>
-      <c r="S124" s="27"/>
-      <c r="T124" s="28" t="s">
+      <c r="F124" s="36"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K124" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="38"/>
+      <c r="P124" s="38"/>
+      <c r="Q124" s="38"/>
+      <c r="R124" s="39"/>
+      <c r="S124" s="40"/>
+      <c r="T124" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A125" s="20">
+    <row r="125" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A125" s="33">
         <v>166</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D125" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="F125" s="23"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
-      <c r="N125" s="25"/>
-      <c r="O125" s="25"/>
-      <c r="P125" s="25"/>
-      <c r="Q125" s="25"/>
-      <c r="R125" s="26"/>
-      <c r="S125" s="27"/>
-      <c r="T125" s="28" t="s">
+      <c r="F125" s="36"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K125" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="L125" s="38"/>
+      <c r="M125" s="38"/>
+      <c r="N125" s="38"/>
+      <c r="O125" s="38"/>
+      <c r="P125" s="38"/>
+      <c r="Q125" s="38"/>
+      <c r="R125" s="39"/>
+      <c r="S125" s="40"/>
+      <c r="T125" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A126" s="20">
+    <row r="126" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A126" s="33">
         <v>167</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D126" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="F126" s="23"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="25"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="25"/>
-      <c r="Q126" s="25"/>
-      <c r="R126" s="26"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="28" t="s">
+      <c r="F126" s="36"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K126" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38"/>
+      <c r="N126" s="38"/>
+      <c r="O126" s="38"/>
+      <c r="P126" s="38"/>
+      <c r="Q126" s="38"/>
+      <c r="R126" s="39"/>
+      <c r="S126" s="40"/>
+      <c r="T126" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A127" s="20">
+    <row r="127" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A127" s="33">
         <v>168</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="D127" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F127" s="23"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="25"/>
-      <c r="O127" s="25"/>
-      <c r="P127" s="25"/>
-      <c r="Q127" s="25"/>
-      <c r="R127" s="26"/>
-      <c r="S127" s="27"/>
-      <c r="T127" s="28" t="s">
+      <c r="F127" s="36"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K127" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="L127" s="38"/>
+      <c r="M127" s="38"/>
+      <c r="N127" s="38"/>
+      <c r="O127" s="38"/>
+      <c r="P127" s="38"/>
+      <c r="Q127" s="38"/>
+      <c r="R127" s="39"/>
+      <c r="S127" s="40"/>
+      <c r="T127" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="128" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A128" s="20">
         <v>169</v>
       </c>
@@ -8839,17 +9725,37 @@
       <c r="E128" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F128" s="23"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="25"/>
+      <c r="F128" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G128" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="J128" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="25"/>
-      <c r="O128" s="25"/>
-      <c r="P128" s="25"/>
+      <c r="L128" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M128" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N128" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="O128" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P128" s="77" t="s">
+        <v>416</v>
+      </c>
       <c r="Q128" s="25"/>
       <c r="R128" s="26"/>
       <c r="S128" s="27"/>
@@ -9605,7 +10511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="151" spans="1:20" ht="14.25" customHeight="1">
       <c r="A151" s="20">
         <v>374</v>
       </c>
@@ -9621,17 +10527,35 @@
       <c r="E151" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="F151" s="23"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="25"/>
+      <c r="F151" s="23">
+        <v>45466</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H151" s="79" t="s">
+        <v>513</v>
+      </c>
+      <c r="I151" s="79" t="s">
+        <v>514</v>
+      </c>
+      <c r="J151" s="80" t="s">
+        <v>84</v>
+      </c>
       <c r="K151" s="25"/>
-      <c r="L151" s="25"/>
-      <c r="M151" s="25"/>
+      <c r="L151" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M151" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="N151" s="25"/>
-      <c r="O151" s="25"/>
-      <c r="P151" s="25"/>
+      <c r="O151" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="P151" s="93" t="s">
+        <v>416</v>
+      </c>
       <c r="Q151" s="25"/>
       <c r="R151" s="26"/>
       <c r="S151" s="27"/>
@@ -9639,7 +10563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" ht="21.95" customHeight="1">
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -9656,7 +10580,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="15"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" ht="21.95" customHeight="1">
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -9673,7 +10597,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="15"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" ht="21.95" customHeight="1">
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -9690,7 +10614,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="15"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" ht="21.95" customHeight="1">
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -9707,7 +10631,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="15"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" ht="21.95" customHeight="1">
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
@@ -9724,7 +10648,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="15"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" ht="21.95" customHeight="1">
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
@@ -9741,7 +10665,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="15"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" ht="21.95" customHeight="1">
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -9758,7 +10682,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="15"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" ht="21.95" customHeight="1">
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -9775,7 +10699,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="15"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" ht="21.95" customHeight="1">
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -9792,7 +10716,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="15"/>
     </row>
-    <row r="161" spans="6:20">
+    <row r="161" spans="6:20" ht="21.95" customHeight="1">
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
@@ -9809,7 +10733,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="15"/>
     </row>
-    <row r="162" spans="6:20">
+    <row r="162" spans="6:20" ht="21.95" customHeight="1">
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
@@ -9826,7 +10750,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="15"/>
     </row>
-    <row r="163" spans="6:20">
+    <row r="163" spans="6:20" ht="21.95" customHeight="1">
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -9843,7 +10767,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="15"/>
     </row>
-    <row r="164" spans="6:20">
+    <row r="164" spans="6:20" ht="21.95" customHeight="1">
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -9860,7 +10784,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="15"/>
     </row>
-    <row r="165" spans="6:20">
+    <row r="165" spans="6:20" ht="21.95" customHeight="1">
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
@@ -9877,7 +10801,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="15"/>
     </row>
-    <row r="166" spans="6:20">
+    <row r="166" spans="6:20" ht="21.95" customHeight="1">
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -9894,7 +10818,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="15"/>
     </row>
-    <row r="167" spans="6:20">
+    <row r="167" spans="6:20" ht="21.95" customHeight="1">
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -9911,7 +10835,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="15"/>
     </row>
-    <row r="168" spans="6:20">
+    <row r="168" spans="6:20" ht="21.95" customHeight="1">
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -9928,7 +10852,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="15"/>
     </row>
-    <row r="169" spans="6:20">
+    <row r="169" spans="6:20" ht="21.95" customHeight="1">
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -9945,7 +10869,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="15"/>
     </row>
-    <row r="170" spans="6:20">
+    <row r="170" spans="6:20" ht="21.95" customHeight="1">
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
@@ -9962,7 +10886,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="15"/>
     </row>
-    <row r="171" spans="6:20">
+    <row r="171" spans="6:20" ht="21.95" customHeight="1">
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -9979,7 +10903,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="15"/>
     </row>
-    <row r="172" spans="6:20">
+    <row r="172" spans="6:20" ht="21.95" customHeight="1">
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
@@ -9996,7 +10920,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="15"/>
     </row>
-    <row r="173" spans="6:20">
+    <row r="173" spans="6:20" ht="21.95" customHeight="1">
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
@@ -10013,7 +10937,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="15"/>
     </row>
-    <row r="174" spans="6:20">
+    <row r="174" spans="6:20" ht="21.95" customHeight="1">
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
@@ -10030,7 +10954,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="15"/>
     </row>
-    <row r="175" spans="6:20">
+    <row r="175" spans="6:20" ht="21.95" customHeight="1">
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -10047,7 +10971,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="15"/>
     </row>
-    <row r="176" spans="6:20">
+    <row r="176" spans="6:20" ht="21.95" customHeight="1">
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
@@ -10064,7 +10988,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="15"/>
     </row>
-    <row r="177" spans="6:20">
+    <row r="177" spans="6:20" ht="21.95" customHeight="1">
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
@@ -10081,7 +11005,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="15"/>
     </row>
-    <row r="178" spans="6:20">
+    <row r="178" spans="6:20" ht="21.95" customHeight="1">
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
@@ -10098,7 +11022,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="15"/>
     </row>
-    <row r="179" spans="6:20">
+    <row r="179" spans="6:20" ht="21.95" customHeight="1">
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -10115,7 +11039,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="15"/>
     </row>
-    <row r="180" spans="6:20">
+    <row r="180" spans="6:20" ht="21.95" customHeight="1">
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
@@ -10132,7 +11056,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="15"/>
     </row>
-    <row r="181" spans="6:20">
+    <row r="181" spans="6:20" ht="21.95" customHeight="1">
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -10149,7 +11073,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="15"/>
     </row>
-    <row r="182" spans="6:20">
+    <row r="182" spans="6:20" ht="21.95" customHeight="1">
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -10166,7 +11090,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="15"/>
     </row>
-    <row r="183" spans="6:20">
+    <row r="183" spans="6:20" ht="21.95" customHeight="1">
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -10183,7 +11107,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="15"/>
     </row>
-    <row r="184" spans="6:20">
+    <row r="184" spans="6:20" ht="21.95" customHeight="1">
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -10200,7 +11124,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="15"/>
     </row>
-    <row r="185" spans="6:20">
+    <row r="185" spans="6:20" ht="21.95" customHeight="1">
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -10217,7 +11141,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="15"/>
     </row>
-    <row r="186" spans="6:20">
+    <row r="186" spans="6:20" ht="21.95" customHeight="1">
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -10234,7 +11158,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="15"/>
     </row>
-    <row r="187" spans="6:20">
+    <row r="187" spans="6:20" ht="21.95" customHeight="1">
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -10251,7 +11175,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="15"/>
     </row>
-    <row r="188" spans="6:20">
+    <row r="188" spans="6:20" ht="21.95" customHeight="1">
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -10268,7 +11192,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="15"/>
     </row>
-    <row r="189" spans="6:20">
+    <row r="189" spans="6:20" ht="21.95" customHeight="1">
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
@@ -10285,7 +11209,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="15"/>
     </row>
-    <row r="190" spans="6:20">
+    <row r="190" spans="6:20" ht="21.95" customHeight="1">
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
@@ -10302,7 +11226,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="15"/>
     </row>
-    <row r="191" spans="6:20">
+    <row r="191" spans="6:20" ht="21.95" customHeight="1">
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -10319,7 +11243,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="15"/>
     </row>
-    <row r="192" spans="6:20">
+    <row r="192" spans="6:20" ht="21.95" customHeight="1">
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
@@ -10336,7 +11260,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="15"/>
     </row>
-    <row r="193" spans="6:20">
+    <row r="193" spans="6:20" ht="21.95" customHeight="1">
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -10353,7 +11277,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="15"/>
     </row>
-    <row r="194" spans="6:20">
+    <row r="194" spans="6:20" ht="21.95" customHeight="1">
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -10370,7 +11294,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="15"/>
     </row>
-    <row r="195" spans="6:20">
+    <row r="195" spans="6:20" ht="21.95" customHeight="1">
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -10387,7 +11311,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="15"/>
     </row>
-    <row r="196" spans="6:20">
+    <row r="196" spans="6:20" ht="21.95" customHeight="1">
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
@@ -10404,7 +11328,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="15"/>
     </row>
-    <row r="197" spans="6:20">
+    <row r="197" spans="6:20" ht="21.95" customHeight="1">
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
@@ -10421,7 +11345,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="15"/>
     </row>
-    <row r="198" spans="6:20">
+    <row r="198" spans="6:20" ht="21.95" customHeight="1">
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
@@ -10438,7 +11362,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="15"/>
     </row>
-    <row r="199" spans="6:20">
+    <row r="199" spans="6:20" ht="21.95" customHeight="1">
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -10455,7 +11379,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="15"/>
     </row>
-    <row r="200" spans="6:20">
+    <row r="200" spans="6:20" ht="21.95" customHeight="1">
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
@@ -10472,7 +11396,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="15"/>
     </row>
-    <row r="201" spans="6:20">
+    <row r="201" spans="6:20" ht="21.95" customHeight="1">
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -10489,7 +11413,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="15"/>
     </row>
-    <row r="202" spans="6:20">
+    <row r="202" spans="6:20" ht="21.95" customHeight="1">
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
@@ -10506,7 +11430,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="15"/>
     </row>
-    <row r="203" spans="6:20">
+    <row r="203" spans="6:20" ht="21.95" customHeight="1">
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
@@ -10523,7 +11447,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="15"/>
     </row>
-    <row r="204" spans="6:20">
+    <row r="204" spans="6:20" ht="21.95" customHeight="1">
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
@@ -10540,7 +11464,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="15"/>
     </row>
-    <row r="205" spans="6:20">
+    <row r="205" spans="6:20" ht="21.95" customHeight="1">
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
@@ -10557,7 +11481,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="15"/>
     </row>
-    <row r="206" spans="6:20">
+    <row r="206" spans="6:20" ht="21.95" customHeight="1">
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
@@ -10574,7 +11498,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="15"/>
     </row>
-    <row r="207" spans="6:20">
+    <row r="207" spans="6:20" ht="21.95" customHeight="1">
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
@@ -10591,7 +11515,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="15"/>
     </row>
-    <row r="208" spans="6:20">
+    <row r="208" spans="6:20" ht="21.95" customHeight="1">
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
@@ -10608,7 +11532,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="15"/>
     </row>
-    <row r="209" spans="6:20">
+    <row r="209" spans="6:20" ht="21.95" customHeight="1">
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -10625,7 +11549,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="15"/>
     </row>
-    <row r="210" spans="6:20">
+    <row r="210" spans="6:20" ht="21.95" customHeight="1">
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
       <c r="H210" s="12"/>
@@ -10642,7 +11566,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="15"/>
     </row>
-    <row r="211" spans="6:20">
+    <row r="211" spans="6:20" ht="21.95" customHeight="1">
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
@@ -10659,7 +11583,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="15"/>
     </row>
-    <row r="212" spans="6:20">
+    <row r="212" spans="6:20" ht="21.95" customHeight="1">
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
@@ -10676,7 +11600,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="15"/>
     </row>
-    <row r="213" spans="6:20">
+    <row r="213" spans="6:20" ht="21.95" customHeight="1">
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
@@ -10693,7 +11617,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="15"/>
     </row>
-    <row r="214" spans="6:20">
+    <row r="214" spans="6:20" ht="21.95" customHeight="1">
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
@@ -10710,7 +11634,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="15"/>
     </row>
-    <row r="215" spans="6:20">
+    <row r="215" spans="6:20" ht="21.95" customHeight="1">
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
@@ -10727,7 +11651,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="15"/>
     </row>
-    <row r="216" spans="6:20">
+    <row r="216" spans="6:20" ht="21.95" customHeight="1">
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
       <c r="H216" s="12"/>
@@ -10744,7 +11668,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="15"/>
     </row>
-    <row r="217" spans="6:20">
+    <row r="217" spans="6:20" ht="21.95" customHeight="1">
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -10761,7 +11685,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="15"/>
     </row>
-    <row r="218" spans="6:20">
+    <row r="218" spans="6:20" ht="21.95" customHeight="1">
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
@@ -10778,7 +11702,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="15"/>
     </row>
-    <row r="219" spans="6:20">
+    <row r="219" spans="6:20" ht="21.95" customHeight="1">
       <c r="F219" s="12"/>
       <c r="G219" s="12"/>
       <c r="H219" s="12"/>
@@ -10795,7 +11719,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="15"/>
     </row>
-    <row r="220" spans="6:20">
+    <row r="220" spans="6:20" ht="21.95" customHeight="1">
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
       <c r="H220" s="12"/>
@@ -10812,7 +11736,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="15"/>
     </row>
-    <row r="221" spans="6:20">
+    <row r="221" spans="6:20" ht="21.95" customHeight="1">
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
@@ -10829,7 +11753,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="15"/>
     </row>
-    <row r="222" spans="6:20">
+    <row r="222" spans="6:20" ht="21.95" customHeight="1">
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
       <c r="H222" s="12"/>
@@ -10846,7 +11770,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="15"/>
     </row>
-    <row r="223" spans="6:20">
+    <row r="223" spans="6:20" ht="21.95" customHeight="1">
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
       <c r="H223" s="12"/>
@@ -10863,7 +11787,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="15"/>
     </row>
-    <row r="224" spans="6:20">
+    <row r="224" spans="6:20" ht="21.95" customHeight="1">
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
       <c r="H224" s="12"/>
@@ -10880,7 +11804,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="15"/>
     </row>
-    <row r="225" spans="6:20">
+    <row r="225" spans="6:20" ht="21.95" customHeight="1">
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
       <c r="H225" s="12"/>
@@ -10897,7 +11821,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="15"/>
     </row>
-    <row r="226" spans="6:20">
+    <row r="226" spans="6:20" ht="21.95" customHeight="1">
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
       <c r="H226" s="12"/>
@@ -10914,7 +11838,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="15"/>
     </row>
-    <row r="227" spans="6:20">
+    <row r="227" spans="6:20" ht="21.95" customHeight="1">
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
       <c r="H227" s="12"/>
@@ -10931,7 +11855,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="15"/>
     </row>
-    <row r="228" spans="6:20">
+    <row r="228" spans="6:20" ht="21.95" customHeight="1">
       <c r="F228" s="12"/>
       <c r="G228" s="12"/>
       <c r="H228" s="12"/>
@@ -10948,7 +11872,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="15"/>
     </row>
-    <row r="229" spans="6:20">
+    <row r="229" spans="6:20" ht="21.95" customHeight="1">
       <c r="F229" s="12"/>
       <c r="G229" s="12"/>
       <c r="H229" s="12"/>
@@ -10965,7 +11889,7 @@
       <c r="S229" s="2"/>
       <c r="T229" s="15"/>
     </row>
-    <row r="230" spans="6:20">
+    <row r="230" spans="6:20" ht="21.95" customHeight="1">
       <c r="F230" s="12"/>
       <c r="G230" s="12"/>
       <c r="H230" s="12"/>
@@ -10982,7 +11906,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="15"/>
     </row>
-    <row r="231" spans="6:20">
+    <row r="231" spans="6:20" ht="21.95" customHeight="1">
       <c r="F231" s="12"/>
       <c r="G231" s="12"/>
       <c r="H231" s="12"/>
@@ -10999,7 +11923,7 @@
       <c r="S231" s="2"/>
       <c r="T231" s="15"/>
     </row>
-    <row r="232" spans="6:20">
+    <row r="232" spans="6:20" ht="21.95" customHeight="1">
       <c r="F232" s="12"/>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
@@ -11016,7 +11940,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="15"/>
     </row>
-    <row r="233" spans="6:20">
+    <row r="233" spans="6:20" ht="21.95" customHeight="1">
       <c r="F233" s="12"/>
       <c r="G233" s="12"/>
       <c r="H233" s="12"/>
@@ -11033,7 +11957,7 @@
       <c r="S233" s="2"/>
       <c r="T233" s="15"/>
     </row>
-    <row r="234" spans="6:20">
+    <row r="234" spans="6:20" ht="21.95" customHeight="1">
       <c r="F234" s="12"/>
       <c r="G234" s="12"/>
       <c r="H234" s="12"/>
@@ -11050,7 +11974,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="15"/>
     </row>
-    <row r="235" spans="6:20">
+    <row r="235" spans="6:20" ht="21.95" customHeight="1">
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
       <c r="H235" s="12"/>
@@ -11067,7 +11991,7 @@
       <c r="S235" s="2"/>
       <c r="T235" s="15"/>
     </row>
-    <row r="236" spans="6:20">
+    <row r="236" spans="6:20" ht="21.95" customHeight="1">
       <c r="F236" s="12"/>
       <c r="G236" s="12"/>
       <c r="H236" s="12"/>
@@ -11084,7 +12008,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="15"/>
     </row>
-    <row r="237" spans="6:20">
+    <row r="237" spans="6:20" ht="21.95" customHeight="1">
       <c r="F237" s="12"/>
       <c r="G237" s="12"/>
       <c r="H237" s="12"/>
@@ -11101,7 +12025,7 @@
       <c r="S237" s="2"/>
       <c r="T237" s="15"/>
     </row>
-    <row r="238" spans="6:20">
+    <row r="238" spans="6:20" ht="21.95" customHeight="1">
       <c r="F238" s="12"/>
       <c r="G238" s="12"/>
       <c r="H238" s="12"/>
@@ -11118,7 +12042,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="15"/>
     </row>
-    <row r="239" spans="6:20">
+    <row r="239" spans="6:20" ht="21.95" customHeight="1">
       <c r="F239" s="12"/>
       <c r="G239" s="12"/>
       <c r="H239" s="12"/>
@@ -11135,7 +12059,7 @@
       <c r="S239" s="2"/>
       <c r="T239" s="15"/>
     </row>
-    <row r="240" spans="6:20">
+    <row r="240" spans="6:20" ht="21.95" customHeight="1">
       <c r="F240" s="12"/>
       <c r="G240" s="12"/>
       <c r="H240" s="12"/>
@@ -11152,7 +12076,7 @@
       <c r="S240" s="2"/>
       <c r="T240" s="15"/>
     </row>
-    <row r="241" spans="6:20">
+    <row r="241" spans="6:20" ht="21.95" customHeight="1">
       <c r="F241" s="12"/>
       <c r="G241" s="12"/>
       <c r="H241" s="12"/>
@@ -11169,7 +12093,7 @@
       <c r="S241" s="2"/>
       <c r="T241" s="15"/>
     </row>
-    <row r="242" spans="6:20">
+    <row r="242" spans="6:20" ht="21.95" customHeight="1">
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
       <c r="H242" s="12"/>
@@ -11186,7 +12110,7 @@
       <c r="S242" s="2"/>
       <c r="T242" s="15"/>
     </row>
-    <row r="243" spans="6:20">
+    <row r="243" spans="6:20" ht="21.95" customHeight="1">
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
       <c r="H243" s="12"/>
@@ -11203,7 +12127,7 @@
       <c r="S243" s="2"/>
       <c r="T243" s="15"/>
     </row>
-    <row r="244" spans="6:20">
+    <row r="244" spans="6:20" ht="21.95" customHeight="1">
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
       <c r="H244" s="12"/>
@@ -11220,7 +12144,7 @@
       <c r="S244" s="2"/>
       <c r="T244" s="15"/>
     </row>
-    <row r="245" spans="6:20">
+    <row r="245" spans="6:20" ht="21.95" customHeight="1">
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
       <c r="H245" s="12"/>
@@ -11237,7 +12161,7 @@
       <c r="S245" s="2"/>
       <c r="T245" s="15"/>
     </row>
-    <row r="246" spans="6:20">
+    <row r="246" spans="6:20" ht="21.95" customHeight="1">
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
       <c r="H246" s="12"/>
@@ -11254,7 +12178,7 @@
       <c r="S246" s="2"/>
       <c r="T246" s="15"/>
     </row>
-    <row r="247" spans="6:20">
+    <row r="247" spans="6:20" ht="21.95" customHeight="1">
       <c r="F247" s="12"/>
       <c r="G247" s="12"/>
       <c r="H247" s="12"/>
@@ -11271,7 +12195,7 @@
       <c r="S247" s="2"/>
       <c r="T247" s="15"/>
     </row>
-    <row r="248" spans="6:20">
+    <row r="248" spans="6:20" ht="21.95" customHeight="1">
       <c r="F248" s="12"/>
       <c r="G248" s="12"/>
       <c r="H248" s="12"/>
@@ -11288,7 +12212,7 @@
       <c r="S248" s="2"/>
       <c r="T248" s="15"/>
     </row>
-    <row r="249" spans="6:20">
+    <row r="249" spans="6:20" ht="21.95" customHeight="1">
       <c r="F249" s="12"/>
       <c r="G249" s="12"/>
       <c r="H249" s="12"/>
@@ -11305,7 +12229,7 @@
       <c r="S249" s="2"/>
       <c r="T249" s="15"/>
     </row>
-    <row r="250" spans="6:20">
+    <row r="250" spans="6:20" ht="21.95" customHeight="1">
       <c r="F250" s="12"/>
       <c r="G250" s="12"/>
       <c r="H250" s="12"/>
@@ -11322,7 +12246,7 @@
       <c r="S250" s="2"/>
       <c r="T250" s="15"/>
     </row>
-    <row r="251" spans="6:20">
+    <row r="251" spans="6:20" ht="21.95" customHeight="1">
       <c r="F251" s="12"/>
       <c r="G251" s="12"/>
       <c r="H251" s="12"/>
@@ -11339,7 +12263,7 @@
       <c r="S251" s="2"/>
       <c r="T251" s="15"/>
     </row>
-    <row r="252" spans="6:20">
+    <row r="252" spans="6:20" ht="21.95" customHeight="1">
       <c r="F252" s="12"/>
       <c r="G252" s="12"/>
       <c r="H252" s="12"/>
@@ -11356,7 +12280,7 @@
       <c r="S252" s="2"/>
       <c r="T252" s="15"/>
     </row>
-    <row r="253" spans="6:20">
+    <row r="253" spans="6:20" ht="21.95" customHeight="1">
       <c r="F253" s="12"/>
       <c r="G253" s="12"/>
       <c r="H253" s="12"/>
@@ -11373,7 +12297,7 @@
       <c r="S253" s="2"/>
       <c r="T253" s="15"/>
     </row>
-    <row r="254" spans="6:20">
+    <row r="254" spans="6:20" ht="21.95" customHeight="1">
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
       <c r="H254" s="12"/>
@@ -11390,7 +12314,7 @@
       <c r="S254" s="2"/>
       <c r="T254" s="15"/>
     </row>
-    <row r="255" spans="6:20">
+    <row r="255" spans="6:20" ht="21.95" customHeight="1">
       <c r="F255" s="12"/>
       <c r="G255" s="12"/>
       <c r="H255" s="12"/>
@@ -11407,7 +12331,7 @@
       <c r="S255" s="2"/>
       <c r="T255" s="15"/>
     </row>
-    <row r="256" spans="6:20">
+    <row r="256" spans="6:20" ht="21.95" customHeight="1">
       <c r="F256" s="12"/>
       <c r="G256" s="12"/>
       <c r="H256" s="12"/>
@@ -11424,7 +12348,7 @@
       <c r="S256" s="2"/>
       <c r="T256" s="15"/>
     </row>
-    <row r="257" spans="6:20">
+    <row r="257" spans="6:20" ht="21.95" customHeight="1">
       <c r="F257" s="12"/>
       <c r="G257" s="12"/>
       <c r="H257" s="12"/>
@@ -11441,7 +12365,7 @@
       <c r="S257" s="2"/>
       <c r="T257" s="15"/>
     </row>
-    <row r="258" spans="6:20">
+    <row r="258" spans="6:20" ht="21.95" customHeight="1">
       <c r="F258" s="12"/>
       <c r="G258" s="12"/>
       <c r="H258" s="12"/>
@@ -11458,7 +12382,7 @@
       <c r="S258" s="2"/>
       <c r="T258" s="15"/>
     </row>
-    <row r="259" spans="6:20">
+    <row r="259" spans="6:20" ht="21.95" customHeight="1">
       <c r="F259" s="12"/>
       <c r="G259" s="12"/>
       <c r="H259" s="12"/>
@@ -11475,7 +12399,7 @@
       <c r="S259" s="2"/>
       <c r="T259" s="15"/>
     </row>
-    <row r="260" spans="6:20">
+    <row r="260" spans="6:20" ht="21.95" customHeight="1">
       <c r="F260" s="12"/>
       <c r="G260" s="12"/>
       <c r="H260" s="12"/>
@@ -11492,7 +12416,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="15"/>
     </row>
-    <row r="261" spans="6:20">
+    <row r="261" spans="6:20" ht="21.95" customHeight="1">
       <c r="F261" s="12"/>
       <c r="G261" s="12"/>
       <c r="H261" s="12"/>
@@ -11509,7 +12433,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="15"/>
     </row>
-    <row r="262" spans="6:20">
+    <row r="262" spans="6:20" ht="21.95" customHeight="1">
       <c r="F262" s="12"/>
       <c r="G262" s="12"/>
       <c r="H262" s="12"/>
@@ -11526,7 +12450,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="15"/>
     </row>
-    <row r="263" spans="6:20">
+    <row r="263" spans="6:20" ht="21.95" customHeight="1">
       <c r="F263" s="12"/>
       <c r="G263" s="12"/>
       <c r="H263" s="12"/>
@@ -11543,7 +12467,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="15"/>
     </row>
-    <row r="264" spans="6:20">
+    <row r="264" spans="6:20" ht="21.95" customHeight="1">
       <c r="F264" s="12"/>
       <c r="G264" s="12"/>
       <c r="H264" s="12"/>
@@ -11560,7 +12484,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="15"/>
     </row>
-    <row r="265" spans="6:20">
+    <row r="265" spans="6:20" ht="21.95" customHeight="1">
       <c r="F265" s="12"/>
       <c r="G265" s="12"/>
       <c r="H265" s="12"/>
@@ -11577,7 +12501,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="15"/>
     </row>
-    <row r="266" spans="6:20">
+    <row r="266" spans="6:20" ht="21.95" customHeight="1">
       <c r="F266" s="12"/>
       <c r="G266" s="12"/>
       <c r="H266" s="12"/>
@@ -11594,7 +12518,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="15"/>
     </row>
-    <row r="267" spans="6:20">
+    <row r="267" spans="6:20" ht="21.95" customHeight="1">
       <c r="F267" s="12"/>
       <c r="G267" s="12"/>
       <c r="H267" s="12"/>
@@ -11611,7 +12535,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="15"/>
     </row>
-    <row r="268" spans="6:20">
+    <row r="268" spans="6:20" ht="21.95" customHeight="1">
       <c r="F268" s="12"/>
       <c r="G268" s="12"/>
       <c r="H268" s="12"/>
@@ -11628,7 +12552,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="15"/>
     </row>
-    <row r="269" spans="6:20">
+    <row r="269" spans="6:20" ht="21.95" customHeight="1">
       <c r="F269" s="12"/>
       <c r="G269" s="12"/>
       <c r="H269" s="12"/>
@@ -11645,7 +12569,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="15"/>
     </row>
-    <row r="270" spans="6:20">
+    <row r="270" spans="6:20" ht="21.95" customHeight="1">
       <c r="F270" s="12"/>
       <c r="G270" s="12"/>
       <c r="H270" s="12"/>
@@ -11662,7 +12586,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="15"/>
     </row>
-    <row r="271" spans="6:20">
+    <row r="271" spans="6:20" ht="21.95" customHeight="1">
       <c r="F271" s="12"/>
       <c r="G271" s="12"/>
       <c r="H271" s="12"/>
@@ -11679,7 +12603,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="15"/>
     </row>
-    <row r="272" spans="6:20">
+    <row r="272" spans="6:20" ht="21.95" customHeight="1">
       <c r="F272" s="12"/>
       <c r="G272" s="12"/>
       <c r="H272" s="12"/>
@@ -11696,7 +12620,7 @@
       <c r="S272" s="2"/>
       <c r="T272" s="15"/>
     </row>
-    <row r="273" spans="6:20">
+    <row r="273" spans="6:20" ht="21.95" customHeight="1">
       <c r="F273" s="12"/>
       <c r="G273" s="12"/>
       <c r="H273" s="12"/>
@@ -11713,7 +12637,7 @@
       <c r="S273" s="2"/>
       <c r="T273" s="15"/>
     </row>
-    <row r="274" spans="6:20">
+    <row r="274" spans="6:20" ht="21.95" customHeight="1">
       <c r="F274" s="12"/>
       <c r="G274" s="12"/>
       <c r="H274" s="12"/>
@@ -11730,7 +12654,7 @@
       <c r="S274" s="2"/>
       <c r="T274" s="15"/>
     </row>
-    <row r="275" spans="6:20">
+    <row r="275" spans="6:20" ht="21.95" customHeight="1">
       <c r="F275" s="12"/>
       <c r="G275" s="12"/>
       <c r="H275" s="12"/>
@@ -11747,7 +12671,7 @@
       <c r="S275" s="2"/>
       <c r="T275" s="15"/>
     </row>
-    <row r="276" spans="6:20">
+    <row r="276" spans="6:20" ht="21.95" customHeight="1">
       <c r="F276" s="12"/>
       <c r="G276" s="12"/>
       <c r="H276" s="12"/>
@@ -11764,7 +12688,7 @@
       <c r="S276" s="2"/>
       <c r="T276" s="15"/>
     </row>
-    <row r="277" spans="6:20">
+    <row r="277" spans="6:20" ht="21.95" customHeight="1">
       <c r="F277" s="12"/>
       <c r="G277" s="12"/>
       <c r="H277" s="12"/>
@@ -11781,7 +12705,7 @@
       <c r="S277" s="2"/>
       <c r="T277" s="15"/>
     </row>
-    <row r="278" spans="6:20">
+    <row r="278" spans="6:20" ht="21.95" customHeight="1">
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
       <c r="H278" s="12"/>
@@ -11798,7 +12722,7 @@
       <c r="S278" s="2"/>
       <c r="T278" s="15"/>
     </row>
-    <row r="279" spans="6:20">
+    <row r="279" spans="6:20" ht="21.95" customHeight="1">
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
       <c r="H279" s="12"/>
@@ -11815,7 +12739,7 @@
       <c r="S279" s="2"/>
       <c r="T279" s="15"/>
     </row>
-    <row r="280" spans="6:20">
+    <row r="280" spans="6:20" ht="21.95" customHeight="1">
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
       <c r="H280" s="12"/>
@@ -11832,7 +12756,7 @@
       <c r="S280" s="2"/>
       <c r="T280" s="15"/>
     </row>
-    <row r="281" spans="6:20">
+    <row r="281" spans="6:20" ht="21.95" customHeight="1">
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
       <c r="H281" s="12"/>
@@ -11849,7 +12773,7 @@
       <c r="S281" s="2"/>
       <c r="T281" s="15"/>
     </row>
-    <row r="282" spans="6:20">
+    <row r="282" spans="6:20" ht="21.95" customHeight="1">
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
       <c r="H282" s="12"/>
@@ -11866,7 +12790,7 @@
       <c r="S282" s="2"/>
       <c r="T282" s="15"/>
     </row>
-    <row r="283" spans="6:20">
+    <row r="283" spans="6:20" ht="21.95" customHeight="1">
       <c r="F283" s="12"/>
       <c r="G283" s="12"/>
       <c r="H283" s="12"/>
@@ -11883,7 +12807,7 @@
       <c r="S283" s="2"/>
       <c r="T283" s="15"/>
     </row>
-    <row r="284" spans="6:20">
+    <row r="284" spans="6:20" ht="21.95" customHeight="1">
       <c r="F284" s="12"/>
       <c r="G284" s="12"/>
       <c r="H284" s="12"/>
@@ -11900,7 +12824,7 @@
       <c r="S284" s="2"/>
       <c r="T284" s="15"/>
     </row>
-    <row r="285" spans="6:20">
+    <row r="285" spans="6:20" ht="21.95" customHeight="1">
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
       <c r="H285" s="12"/>
@@ -11917,7 +12841,7 @@
       <c r="S285" s="2"/>
       <c r="T285" s="15"/>
     </row>
-    <row r="286" spans="6:20">
+    <row r="286" spans="6:20" ht="21.95" customHeight="1">
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
       <c r="H286" s="12"/>
@@ -11934,7 +12858,7 @@
       <c r="S286" s="2"/>
       <c r="T286" s="15"/>
     </row>
-    <row r="287" spans="6:20">
+    <row r="287" spans="6:20" ht="21.95" customHeight="1">
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
       <c r="H287" s="12"/>
@@ -11951,7 +12875,7 @@
       <c r="S287" s="2"/>
       <c r="T287" s="15"/>
     </row>
-    <row r="288" spans="6:20">
+    <row r="288" spans="6:20" ht="21.95" customHeight="1">
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
@@ -11968,7 +12892,7 @@
       <c r="S288" s="2"/>
       <c r="T288" s="15"/>
     </row>
-    <row r="289" spans="6:20">
+    <row r="289" spans="6:20" ht="21.95" customHeight="1">
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
       <c r="H289" s="12"/>
@@ -11985,7 +12909,7 @@
       <c r="S289" s="2"/>
       <c r="T289" s="15"/>
     </row>
-    <row r="290" spans="6:20">
+    <row r="290" spans="6:20" ht="21.95" customHeight="1">
       <c r="F290" s="12"/>
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
@@ -12002,7 +12926,7 @@
       <c r="S290" s="2"/>
       <c r="T290" s="15"/>
     </row>
-    <row r="291" spans="6:20">
+    <row r="291" spans="6:20" ht="21.95" customHeight="1">
       <c r="F291" s="12"/>
       <c r="G291" s="12"/>
       <c r="H291" s="12"/>
@@ -12019,7 +12943,7 @@
       <c r="S291" s="2"/>
       <c r="T291" s="15"/>
     </row>
-    <row r="292" spans="6:20">
+    <row r="292" spans="6:20" ht="21.95" customHeight="1">
       <c r="F292" s="12"/>
       <c r="G292" s="12"/>
       <c r="H292" s="12"/>
@@ -12036,7 +12960,7 @@
       <c r="S292" s="2"/>
       <c r="T292" s="15"/>
     </row>
-    <row r="293" spans="6:20">
+    <row r="293" spans="6:20" ht="21.95" customHeight="1">
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
       <c r="H293" s="12"/>
@@ -12053,7 +12977,7 @@
       <c r="S293" s="2"/>
       <c r="T293" s="15"/>
     </row>
-    <row r="294" spans="6:20">
+    <row r="294" spans="6:20" ht="21.95" customHeight="1">
       <c r="F294" s="12"/>
       <c r="G294" s="12"/>
       <c r="H294" s="12"/>
@@ -12070,7 +12994,7 @@
       <c r="S294" s="2"/>
       <c r="T294" s="15"/>
     </row>
-    <row r="295" spans="6:20">
+    <row r="295" spans="6:20" ht="21.95" customHeight="1">
       <c r="F295" s="12"/>
       <c r="G295" s="12"/>
       <c r="H295" s="12"/>
@@ -12087,7 +13011,7 @@
       <c r="S295" s="2"/>
       <c r="T295" s="15"/>
     </row>
-    <row r="296" spans="6:20">
+    <row r="296" spans="6:20" ht="21.95" customHeight="1">
       <c r="F296" s="12"/>
       <c r="G296" s="12"/>
       <c r="H296" s="12"/>
@@ -12104,7 +13028,7 @@
       <c r="S296" s="2"/>
       <c r="T296" s="15"/>
     </row>
-    <row r="297" spans="6:20">
+    <row r="297" spans="6:20" ht="21.95" customHeight="1">
       <c r="F297" s="12"/>
       <c r="G297" s="12"/>
       <c r="H297" s="12"/>
@@ -12121,7 +13045,7 @@
       <c r="S297" s="2"/>
       <c r="T297" s="15"/>
     </row>
-    <row r="298" spans="6:20">
+    <row r="298" spans="6:20" ht="21.95" customHeight="1">
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
       <c r="H298" s="12"/>
@@ -12138,7 +13062,7 @@
       <c r="S298" s="2"/>
       <c r="T298" s="15"/>
     </row>
-    <row r="299" spans="6:20">
+    <row r="299" spans="6:20" ht="21.95" customHeight="1">
       <c r="F299" s="12"/>
       <c r="G299" s="12"/>
       <c r="H299" s="12"/>
@@ -12155,7 +13079,7 @@
       <c r="S299" s="2"/>
       <c r="T299" s="15"/>
     </row>
-    <row r="300" spans="6:20">
+    <row r="300" spans="6:20" ht="21.95" customHeight="1">
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
       <c r="H300" s="12"/>
@@ -12172,7 +13096,7 @@
       <c r="S300" s="2"/>
       <c r="T300" s="15"/>
     </row>
-    <row r="301" spans="6:20">
+    <row r="301" spans="6:20" ht="21.95" customHeight="1">
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
       <c r="H301" s="12"/>
@@ -12189,7 +13113,7 @@
       <c r="S301" s="2"/>
       <c r="T301" s="15"/>
     </row>
-    <row r="302" spans="6:20">
+    <row r="302" spans="6:20" ht="21.95" customHeight="1">
       <c r="F302" s="12"/>
       <c r="G302" s="12"/>
       <c r="H302" s="12"/>
@@ -12206,7 +13130,7 @@
       <c r="S302" s="2"/>
       <c r="T302" s="15"/>
     </row>
-    <row r="303" spans="6:20">
+    <row r="303" spans="6:20" ht="21.95" customHeight="1">
       <c r="F303" s="12"/>
       <c r="G303" s="12"/>
       <c r="H303" s="12"/>
@@ -12223,7 +13147,7 @@
       <c r="S303" s="2"/>
       <c r="T303" s="15"/>
     </row>
-    <row r="304" spans="6:20">
+    <row r="304" spans="6:20" ht="21.95" customHeight="1">
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
       <c r="H304" s="12"/>
@@ -12240,7 +13164,7 @@
       <c r="S304" s="2"/>
       <c r="T304" s="15"/>
     </row>
-    <row r="305" spans="6:20">
+    <row r="305" spans="6:20" ht="21.95" customHeight="1">
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
       <c r="H305" s="12"/>
@@ -12257,7 +13181,7 @@
       <c r="S305" s="2"/>
       <c r="T305" s="15"/>
     </row>
-    <row r="306" spans="6:20">
+    <row r="306" spans="6:20" ht="21.95" customHeight="1">
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
       <c r="H306" s="12"/>
@@ -12274,7 +13198,7 @@
       <c r="S306" s="2"/>
       <c r="T306" s="15"/>
     </row>
-    <row r="307" spans="6:20">
+    <row r="307" spans="6:20" ht="21.95" customHeight="1">
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
       <c r="H307" s="12"/>
@@ -12291,7 +13215,7 @@
       <c r="S307" s="2"/>
       <c r="T307" s="15"/>
     </row>
-    <row r="308" spans="6:20">
+    <row r="308" spans="6:20" ht="21.95" customHeight="1">
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
       <c r="H308" s="12"/>
@@ -12308,7 +13232,7 @@
       <c r="S308" s="2"/>
       <c r="T308" s="15"/>
     </row>
-    <row r="309" spans="6:20">
+    <row r="309" spans="6:20" ht="21.95" customHeight="1">
       <c r="F309" s="12"/>
       <c r="G309" s="12"/>
       <c r="H309" s="12"/>
@@ -12325,7 +13249,7 @@
       <c r="S309" s="2"/>
       <c r="T309" s="15"/>
     </row>
-    <row r="310" spans="6:20">
+    <row r="310" spans="6:20" ht="21.95" customHeight="1">
       <c r="F310" s="12"/>
       <c r="G310" s="12"/>
       <c r="H310" s="12"/>
@@ -12342,7 +13266,7 @@
       <c r="S310" s="2"/>
       <c r="T310" s="15"/>
     </row>
-    <row r="311" spans="6:20">
+    <row r="311" spans="6:20" ht="21.95" customHeight="1">
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
       <c r="H311" s="12"/>
@@ -12359,7 +13283,7 @@
       <c r="S311" s="2"/>
       <c r="T311" s="15"/>
     </row>
-    <row r="312" spans="6:20">
+    <row r="312" spans="6:20" ht="21.95" customHeight="1">
       <c r="F312" s="12"/>
       <c r="G312" s="12"/>
       <c r="H312" s="12"/>
@@ -12376,7 +13300,7 @@
       <c r="S312" s="2"/>
       <c r="T312" s="15"/>
     </row>
-    <row r="313" spans="6:20">
+    <row r="313" spans="6:20" ht="21.95" customHeight="1">
       <c r="F313" s="12"/>
       <c r="G313" s="12"/>
       <c r="H313" s="12"/>
@@ -12393,7 +13317,7 @@
       <c r="S313" s="2"/>
       <c r="T313" s="15"/>
     </row>
-    <row r="314" spans="6:20">
+    <row r="314" spans="6:20" ht="21.95" customHeight="1">
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
       <c r="H314" s="12"/>
@@ -12410,7 +13334,7 @@
       <c r="S314" s="2"/>
       <c r="T314" s="15"/>
     </row>
-    <row r="315" spans="6:20">
+    <row r="315" spans="6:20" ht="21.95" customHeight="1">
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
       <c r="H315" s="12"/>
@@ -12427,7 +13351,7 @@
       <c r="S315" s="2"/>
       <c r="T315" s="15"/>
     </row>
-    <row r="316" spans="6:20">
+    <row r="316" spans="6:20" ht="21.95" customHeight="1">
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
       <c r="H316" s="12"/>
@@ -12444,7 +13368,7 @@
       <c r="S316" s="2"/>
       <c r="T316" s="15"/>
     </row>
-    <row r="317" spans="6:20">
+    <row r="317" spans="6:20" ht="21.95" customHeight="1">
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
       <c r="H317" s="12"/>
@@ -12461,7 +13385,7 @@
       <c r="S317" s="2"/>
       <c r="T317" s="15"/>
     </row>
-    <row r="318" spans="6:20">
+    <row r="318" spans="6:20" ht="21.95" customHeight="1">
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
       <c r="H318" s="12"/>
@@ -12478,7 +13402,7 @@
       <c r="S318" s="2"/>
       <c r="T318" s="15"/>
     </row>
-    <row r="319" spans="6:20">
+    <row r="319" spans="6:20" ht="21.95" customHeight="1">
       <c r="F319" s="12"/>
       <c r="G319" s="12"/>
       <c r="H319" s="12"/>
@@ -12495,7 +13419,7 @@
       <c r="S319" s="2"/>
       <c r="T319" s="15"/>
     </row>
-    <row r="320" spans="6:20">
+    <row r="320" spans="6:20" ht="21.95" customHeight="1">
       <c r="F320" s="12"/>
       <c r="G320" s="12"/>
       <c r="H320" s="12"/>
@@ -12512,7 +13436,7 @@
       <c r="S320" s="2"/>
       <c r="T320" s="15"/>
     </row>
-    <row r="321" spans="6:20">
+    <row r="321" spans="6:20" ht="21.95" customHeight="1">
       <c r="F321" s="12"/>
       <c r="G321" s="12"/>
       <c r="H321" s="12"/>
@@ -12529,7 +13453,7 @@
       <c r="S321" s="2"/>
       <c r="T321" s="15"/>
     </row>
-    <row r="322" spans="6:20">
+    <row r="322" spans="6:20" ht="21.95" customHeight="1">
       <c r="F322" s="12"/>
       <c r="G322" s="12"/>
       <c r="H322" s="12"/>
@@ -12546,7 +13470,7 @@
       <c r="S322" s="2"/>
       <c r="T322" s="15"/>
     </row>
-    <row r="323" spans="6:20">
+    <row r="323" spans="6:20" ht="21.95" customHeight="1">
       <c r="F323" s="12"/>
       <c r="G323" s="12"/>
       <c r="H323" s="12"/>
@@ -12563,7 +13487,7 @@
       <c r="S323" s="2"/>
       <c r="T323" s="15"/>
     </row>
-    <row r="324" spans="6:20">
+    <row r="324" spans="6:20" ht="21.95" customHeight="1">
       <c r="F324" s="12"/>
       <c r="G324" s="12"/>
       <c r="H324" s="12"/>
@@ -12580,7 +13504,7 @@
       <c r="S324" s="2"/>
       <c r="T324" s="15"/>
     </row>
-    <row r="325" spans="6:20">
+    <row r="325" spans="6:20" ht="21.95" customHeight="1">
       <c r="F325" s="12"/>
       <c r="G325" s="12"/>
       <c r="H325" s="12"/>
@@ -12597,7 +13521,7 @@
       <c r="S325" s="2"/>
       <c r="T325" s="15"/>
     </row>
-    <row r="326" spans="6:20">
+    <row r="326" spans="6:20" ht="21.95" customHeight="1">
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
       <c r="H326" s="12"/>
@@ -12614,7 +13538,7 @@
       <c r="S326" s="2"/>
       <c r="T326" s="15"/>
     </row>
-    <row r="327" spans="6:20">
+    <row r="327" spans="6:20" ht="21.95" customHeight="1">
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
       <c r="H327" s="12"/>
@@ -12631,7 +13555,7 @@
       <c r="S327" s="2"/>
       <c r="T327" s="15"/>
     </row>
-    <row r="328" spans="6:20">
+    <row r="328" spans="6:20" ht="21.95" customHeight="1">
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
       <c r="H328" s="12"/>
@@ -12648,7 +13572,7 @@
       <c r="S328" s="2"/>
       <c r="T328" s="15"/>
     </row>
-    <row r="329" spans="6:20">
+    <row r="329" spans="6:20" ht="21.95" customHeight="1">
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
       <c r="H329" s="12"/>
@@ -12665,7 +13589,7 @@
       <c r="S329" s="2"/>
       <c r="T329" s="15"/>
     </row>
-    <row r="330" spans="6:20">
+    <row r="330" spans="6:20" ht="21.95" customHeight="1">
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
       <c r="H330" s="12"/>
@@ -12682,7 +13606,7 @@
       <c r="S330" s="2"/>
       <c r="T330" s="15"/>
     </row>
-    <row r="331" spans="6:20">
+    <row r="331" spans="6:20" ht="21.95" customHeight="1">
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
       <c r="H331" s="12"/>
@@ -12699,7 +13623,7 @@
       <c r="S331" s="2"/>
       <c r="T331" s="15"/>
     </row>
-    <row r="332" spans="6:20">
+    <row r="332" spans="6:20" ht="21.95" customHeight="1">
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
       <c r="H332" s="12"/>
@@ -12716,7 +13640,7 @@
       <c r="S332" s="2"/>
       <c r="T332" s="15"/>
     </row>
-    <row r="333" spans="6:20">
+    <row r="333" spans="6:20" ht="21.95" customHeight="1">
       <c r="F333" s="12"/>
       <c r="G333" s="12"/>
       <c r="H333" s="12"/>
@@ -12733,7 +13657,7 @@
       <c r="S333" s="2"/>
       <c r="T333" s="15"/>
     </row>
-    <row r="334" spans="6:20">
+    <row r="334" spans="6:20" ht="21.95" customHeight="1">
       <c r="F334" s="12"/>
       <c r="G334" s="12"/>
       <c r="H334" s="12"/>
@@ -12750,7 +13674,7 @@
       <c r="S334" s="2"/>
       <c r="T334" s="15"/>
     </row>
-    <row r="335" spans="6:20">
+    <row r="335" spans="6:20" ht="21.95" customHeight="1">
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
       <c r="H335" s="12"/>
@@ -12767,7 +13691,7 @@
       <c r="S335" s="2"/>
       <c r="T335" s="15"/>
     </row>
-    <row r="336" spans="6:20">
+    <row r="336" spans="6:20" ht="21.95" customHeight="1">
       <c r="F336" s="12"/>
       <c r="G336" s="12"/>
       <c r="H336" s="12"/>
@@ -12784,7 +13708,7 @@
       <c r="S336" s="2"/>
       <c r="T336" s="15"/>
     </row>
-    <row r="337" spans="6:20">
+    <row r="337" spans="6:20" ht="21.95" customHeight="1">
       <c r="F337" s="12"/>
       <c r="G337" s="12"/>
       <c r="H337" s="12"/>
@@ -12801,7 +13725,7 @@
       <c r="S337" s="2"/>
       <c r="T337" s="15"/>
     </row>
-    <row r="338" spans="6:20">
+    <row r="338" spans="6:20" ht="21.95" customHeight="1">
       <c r="F338" s="12"/>
       <c r="G338" s="12"/>
       <c r="H338" s="12"/>
@@ -12818,7 +13742,7 @@
       <c r="S338" s="2"/>
       <c r="T338" s="15"/>
     </row>
-    <row r="339" spans="6:20">
+    <row r="339" spans="6:20" ht="21.95" customHeight="1">
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
       <c r="H339" s="12"/>
@@ -12835,7 +13759,7 @@
       <c r="S339" s="2"/>
       <c r="T339" s="15"/>
     </row>
-    <row r="340" spans="6:20">
+    <row r="340" spans="6:20" ht="21.95" customHeight="1">
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
       <c r="H340" s="12"/>
@@ -12852,7 +13776,7 @@
       <c r="S340" s="2"/>
       <c r="T340" s="15"/>
     </row>
-    <row r="341" spans="6:20">
+    <row r="341" spans="6:20" ht="21.95" customHeight="1">
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
       <c r="H341" s="12"/>
@@ -12869,7 +13793,7 @@
       <c r="S341" s="2"/>
       <c r="T341" s="15"/>
     </row>
-    <row r="342" spans="6:20">
+    <row r="342" spans="6:20" ht="21.95" customHeight="1">
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
       <c r="H342" s="12"/>
@@ -12886,7 +13810,7 @@
       <c r="S342" s="2"/>
       <c r="T342" s="15"/>
     </row>
-    <row r="343" spans="6:20">
+    <row r="343" spans="6:20" ht="21.95" customHeight="1">
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
       <c r="H343" s="12"/>
@@ -12903,7 +13827,7 @@
       <c r="S343" s="2"/>
       <c r="T343" s="15"/>
     </row>
-    <row r="344" spans="6:20">
+    <row r="344" spans="6:20" ht="21.95" customHeight="1">
       <c r="F344" s="12"/>
       <c r="G344" s="12"/>
       <c r="H344" s="12"/>
@@ -12920,7 +13844,7 @@
       <c r="S344" s="2"/>
       <c r="T344" s="15"/>
     </row>
-    <row r="345" spans="6:20">
+    <row r="345" spans="6:20" ht="21.95" customHeight="1">
       <c r="F345" s="12"/>
       <c r="G345" s="12"/>
       <c r="H345" s="12"/>
@@ -12937,7 +13861,7 @@
       <c r="S345" s="2"/>
       <c r="T345" s="15"/>
     </row>
-    <row r="346" spans="6:20">
+    <row r="346" spans="6:20" ht="21.95" customHeight="1">
       <c r="F346" s="12"/>
       <c r="G346" s="12"/>
       <c r="H346" s="12"/>
@@ -12954,7 +13878,7 @@
       <c r="S346" s="2"/>
       <c r="T346" s="15"/>
     </row>
-    <row r="347" spans="6:20">
+    <row r="347" spans="6:20" ht="21.95" customHeight="1">
       <c r="F347" s="12"/>
       <c r="G347" s="12"/>
       <c r="H347" s="12"/>
@@ -12971,7 +13895,7 @@
       <c r="S347" s="2"/>
       <c r="T347" s="15"/>
     </row>
-    <row r="348" spans="6:20">
+    <row r="348" spans="6:20" ht="21.95" customHeight="1">
       <c r="F348" s="12"/>
       <c r="G348" s="12"/>
       <c r="H348" s="12"/>
@@ -12988,7 +13912,7 @@
       <c r="S348" s="2"/>
       <c r="T348" s="15"/>
     </row>
-    <row r="349" spans="6:20">
+    <row r="349" spans="6:20" ht="21.95" customHeight="1">
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -13005,7 +13929,7 @@
       <c r="S349" s="2"/>
       <c r="T349" s="15"/>
     </row>
-    <row r="350" spans="6:20">
+    <row r="350" spans="6:20" ht="21.95" customHeight="1">
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -13022,7 +13946,7 @@
       <c r="S350" s="2"/>
       <c r="T350" s="15"/>
     </row>
-    <row r="351" spans="6:20">
+    <row r="351" spans="6:20" ht="21.95" customHeight="1">
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -13039,1255 +13963,1255 @@
       <c r="S351" s="2"/>
       <c r="T351" s="15"/>
     </row>
-    <row r="352" spans="6:20">
+    <row r="352" spans="6:20" ht="21.95" customHeight="1">
       <c r="T352" s="13"/>
     </row>
-    <row r="353" spans="20:20">
+    <row r="353" spans="20:20" ht="21.95" customHeight="1">
       <c r="T353" s="13"/>
     </row>
-    <row r="354" spans="20:20">
+    <row r="354" spans="20:20" ht="21.95" customHeight="1">
       <c r="T354" s="13"/>
     </row>
-    <row r="355" spans="20:20">
+    <row r="355" spans="20:20" ht="21.95" customHeight="1">
       <c r="T355" s="13"/>
     </row>
-    <row r="356" spans="20:20">
+    <row r="356" spans="20:20" ht="21.95" customHeight="1">
       <c r="T356" s="13"/>
     </row>
-    <row r="357" spans="20:20">
+    <row r="357" spans="20:20" ht="21.95" customHeight="1">
       <c r="T357" s="13"/>
     </row>
-    <row r="358" spans="20:20">
+    <row r="358" spans="20:20" ht="21.95" customHeight="1">
       <c r="T358" s="13"/>
     </row>
-    <row r="359" spans="20:20">
+    <row r="359" spans="20:20" ht="21.95" customHeight="1">
       <c r="T359" s="13"/>
     </row>
-    <row r="360" spans="20:20">
+    <row r="360" spans="20:20" ht="21.95" customHeight="1">
       <c r="T360" s="13"/>
     </row>
-    <row r="361" spans="20:20">
+    <row r="361" spans="20:20" ht="21.95" customHeight="1">
       <c r="T361" s="13"/>
     </row>
-    <row r="362" spans="20:20">
+    <row r="362" spans="20:20" ht="21.95" customHeight="1">
       <c r="T362" s="13"/>
     </row>
-    <row r="363" spans="20:20">
+    <row r="363" spans="20:20" ht="21.95" customHeight="1">
       <c r="T363" s="13"/>
     </row>
-    <row r="364" spans="20:20">
+    <row r="364" spans="20:20" ht="21.95" customHeight="1">
       <c r="T364" s="13"/>
     </row>
-    <row r="365" spans="20:20">
+    <row r="365" spans="20:20" ht="21.95" customHeight="1">
       <c r="T365" s="13"/>
     </row>
-    <row r="366" spans="20:20">
+    <row r="366" spans="20:20" ht="21.95" customHeight="1">
       <c r="T366" s="13"/>
     </row>
-    <row r="367" spans="20:20">
+    <row r="367" spans="20:20" ht="21.95" customHeight="1">
       <c r="T367" s="13"/>
     </row>
-    <row r="368" spans="20:20">
+    <row r="368" spans="20:20" ht="21.95" customHeight="1">
       <c r="T368" s="13"/>
     </row>
-    <row r="369" spans="20:20">
+    <row r="369" spans="20:20" ht="21.95" customHeight="1">
       <c r="T369" s="13"/>
     </row>
-    <row r="370" spans="20:20">
+    <row r="370" spans="20:20" ht="21.95" customHeight="1">
       <c r="T370" s="13"/>
     </row>
-    <row r="371" spans="20:20">
+    <row r="371" spans="20:20" ht="21.95" customHeight="1">
       <c r="T371" s="13"/>
     </row>
-    <row r="372" spans="20:20">
+    <row r="372" spans="20:20" ht="21.95" customHeight="1">
       <c r="T372" s="13"/>
     </row>
-    <row r="373" spans="20:20">
+    <row r="373" spans="20:20" ht="21.95" customHeight="1">
       <c r="T373" s="13"/>
     </row>
-    <row r="374" spans="20:20">
+    <row r="374" spans="20:20" ht="21.95" customHeight="1">
       <c r="T374" s="13"/>
     </row>
-    <row r="375" spans="20:20">
+    <row r="375" spans="20:20" ht="21.95" customHeight="1">
       <c r="T375" s="13"/>
     </row>
-    <row r="376" spans="20:20">
+    <row r="376" spans="20:20" ht="21.95" customHeight="1">
       <c r="T376" s="13"/>
     </row>
-    <row r="377" spans="20:20">
+    <row r="377" spans="20:20" ht="21.95" customHeight="1">
       <c r="T377" s="13"/>
     </row>
-    <row r="378" spans="20:20">
+    <row r="378" spans="20:20" ht="21.95" customHeight="1">
       <c r="T378" s="13"/>
     </row>
-    <row r="379" spans="20:20">
+    <row r="379" spans="20:20" ht="21.95" customHeight="1">
       <c r="T379" s="13"/>
     </row>
-    <row r="380" spans="20:20">
+    <row r="380" spans="20:20" ht="21.95" customHeight="1">
       <c r="T380" s="13"/>
     </row>
-    <row r="381" spans="20:20">
+    <row r="381" spans="20:20" ht="21.95" customHeight="1">
       <c r="T381" s="13"/>
     </row>
-    <row r="382" spans="20:20">
+    <row r="382" spans="20:20" ht="21.95" customHeight="1">
       <c r="T382" s="13"/>
     </row>
-    <row r="383" spans="20:20">
+    <row r="383" spans="20:20" ht="21.95" customHeight="1">
       <c r="T383" s="13"/>
     </row>
-    <row r="384" spans="20:20">
+    <row r="384" spans="20:20" ht="21.95" customHeight="1">
       <c r="T384" s="13"/>
     </row>
-    <row r="385" spans="20:20">
+    <row r="385" spans="20:20" ht="21.95" customHeight="1">
       <c r="T385" s="13"/>
     </row>
-    <row r="386" spans="20:20">
+    <row r="386" spans="20:20" ht="21.95" customHeight="1">
       <c r="T386" s="13"/>
     </row>
-    <row r="387" spans="20:20">
+    <row r="387" spans="20:20" ht="21.95" customHeight="1">
       <c r="T387" s="13"/>
     </row>
-    <row r="388" spans="20:20">
+    <row r="388" spans="20:20" ht="21.95" customHeight="1">
       <c r="T388" s="13"/>
     </row>
-    <row r="389" spans="20:20">
+    <row r="389" spans="20:20" ht="21.95" customHeight="1">
       <c r="T389" s="13"/>
     </row>
-    <row r="390" spans="20:20">
+    <row r="390" spans="20:20" ht="21.95" customHeight="1">
       <c r="T390" s="13"/>
     </row>
-    <row r="391" spans="20:20">
+    <row r="391" spans="20:20" ht="21.95" customHeight="1">
       <c r="T391" s="13"/>
     </row>
-    <row r="392" spans="20:20">
+    <row r="392" spans="20:20" ht="21.95" customHeight="1">
       <c r="T392" s="13"/>
     </row>
-    <row r="393" spans="20:20">
+    <row r="393" spans="20:20" ht="21.95" customHeight="1">
       <c r="T393" s="13"/>
     </row>
-    <row r="394" spans="20:20">
+    <row r="394" spans="20:20" ht="21.95" customHeight="1">
       <c r="T394" s="13"/>
     </row>
-    <row r="395" spans="20:20">
+    <row r="395" spans="20:20" ht="21.95" customHeight="1">
       <c r="T395" s="13"/>
     </row>
-    <row r="396" spans="20:20">
+    <row r="396" spans="20:20" ht="21.95" customHeight="1">
       <c r="T396" s="13"/>
     </row>
-    <row r="397" spans="20:20">
+    <row r="397" spans="20:20" ht="21.95" customHeight="1">
       <c r="T397" s="13"/>
     </row>
-    <row r="398" spans="20:20">
+    <row r="398" spans="20:20" ht="21.95" customHeight="1">
       <c r="T398" s="13"/>
     </row>
-    <row r="399" spans="20:20">
+    <row r="399" spans="20:20" ht="21.95" customHeight="1">
       <c r="T399" s="13"/>
     </row>
-    <row r="400" spans="20:20">
+    <row r="400" spans="20:20" ht="21.95" customHeight="1">
       <c r="T400" s="13"/>
     </row>
-    <row r="401" spans="20:20">
+    <row r="401" spans="20:20" ht="21.95" customHeight="1">
       <c r="T401" s="13"/>
     </row>
-    <row r="402" spans="20:20">
+    <row r="402" spans="20:20" ht="21.95" customHeight="1">
       <c r="T402" s="13"/>
     </row>
-    <row r="403" spans="20:20">
+    <row r="403" spans="20:20" ht="21.95" customHeight="1">
       <c r="T403" s="13"/>
     </row>
-    <row r="404" spans="20:20">
+    <row r="404" spans="20:20" ht="21.95" customHeight="1">
       <c r="T404" s="13"/>
     </row>
-    <row r="405" spans="20:20">
+    <row r="405" spans="20:20" ht="21.95" customHeight="1">
       <c r="T405" s="13"/>
     </row>
-    <row r="406" spans="20:20">
+    <row r="406" spans="20:20" ht="21.95" customHeight="1">
       <c r="T406" s="13"/>
     </row>
-    <row r="407" spans="20:20">
+    <row r="407" spans="20:20" ht="21.95" customHeight="1">
       <c r="T407" s="13"/>
     </row>
-    <row r="408" spans="20:20">
+    <row r="408" spans="20:20" ht="21.95" customHeight="1">
       <c r="T408" s="13"/>
     </row>
-    <row r="409" spans="20:20">
+    <row r="409" spans="20:20" ht="21.95" customHeight="1">
       <c r="T409" s="13"/>
     </row>
-    <row r="410" spans="20:20">
+    <row r="410" spans="20:20" ht="21.95" customHeight="1">
       <c r="T410" s="13"/>
     </row>
-    <row r="411" spans="20:20">
+    <row r="411" spans="20:20" ht="21.95" customHeight="1">
       <c r="T411" s="13"/>
     </row>
-    <row r="412" spans="20:20">
+    <row r="412" spans="20:20" ht="21.95" customHeight="1">
       <c r="T412" s="13"/>
     </row>
-    <row r="413" spans="20:20">
+    <row r="413" spans="20:20" ht="21.95" customHeight="1">
       <c r="T413" s="13"/>
     </row>
-    <row r="414" spans="20:20">
+    <row r="414" spans="20:20" ht="21.95" customHeight="1">
       <c r="T414" s="13"/>
     </row>
-    <row r="415" spans="20:20">
+    <row r="415" spans="20:20" ht="21.95" customHeight="1">
       <c r="T415" s="13"/>
     </row>
-    <row r="416" spans="20:20">
+    <row r="416" spans="20:20" ht="21.95" customHeight="1">
       <c r="T416" s="13"/>
     </row>
-    <row r="417" spans="20:20">
+    <row r="417" spans="20:20" ht="21.95" customHeight="1">
       <c r="T417" s="13"/>
     </row>
-    <row r="418" spans="20:20">
+    <row r="418" spans="20:20" ht="21.95" customHeight="1">
       <c r="T418" s="13"/>
     </row>
-    <row r="419" spans="20:20">
+    <row r="419" spans="20:20" ht="21.95" customHeight="1">
       <c r="T419" s="13"/>
     </row>
-    <row r="420" spans="20:20">
+    <row r="420" spans="20:20" ht="21.95" customHeight="1">
       <c r="T420" s="13"/>
     </row>
-    <row r="421" spans="20:20">
+    <row r="421" spans="20:20" ht="21.95" customHeight="1">
       <c r="T421" s="13"/>
     </row>
-    <row r="422" spans="20:20">
+    <row r="422" spans="20:20" ht="21.95" customHeight="1">
       <c r="T422" s="13"/>
     </row>
-    <row r="423" spans="20:20">
+    <row r="423" spans="20:20" ht="21.95" customHeight="1">
       <c r="T423" s="13"/>
     </row>
-    <row r="424" spans="20:20">
+    <row r="424" spans="20:20" ht="21.95" customHeight="1">
       <c r="T424" s="13"/>
     </row>
-    <row r="425" spans="20:20">
+    <row r="425" spans="20:20" ht="21.95" customHeight="1">
       <c r="T425" s="13"/>
     </row>
-    <row r="426" spans="20:20">
+    <row r="426" spans="20:20" ht="21.95" customHeight="1">
       <c r="T426" s="13"/>
     </row>
-    <row r="427" spans="20:20">
+    <row r="427" spans="20:20" ht="21.95" customHeight="1">
       <c r="T427" s="13"/>
     </row>
-    <row r="428" spans="20:20">
+    <row r="428" spans="20:20" ht="21.95" customHeight="1">
       <c r="T428" s="13"/>
     </row>
-    <row r="429" spans="20:20">
+    <row r="429" spans="20:20" ht="21.95" customHeight="1">
       <c r="T429" s="13"/>
     </row>
-    <row r="430" spans="20:20">
+    <row r="430" spans="20:20" ht="21.95" customHeight="1">
       <c r="T430" s="13"/>
     </row>
-    <row r="431" spans="20:20">
+    <row r="431" spans="20:20" ht="21.95" customHeight="1">
       <c r="T431" s="13"/>
     </row>
-    <row r="432" spans="20:20">
+    <row r="432" spans="20:20" ht="21.95" customHeight="1">
       <c r="T432" s="13"/>
     </row>
-    <row r="433" spans="20:20">
+    <row r="433" spans="20:20" ht="21.95" customHeight="1">
       <c r="T433" s="13"/>
     </row>
-    <row r="434" spans="20:20">
+    <row r="434" spans="20:20" ht="21.95" customHeight="1">
       <c r="T434" s="13"/>
     </row>
-    <row r="435" spans="20:20">
+    <row r="435" spans="20:20" ht="21.95" customHeight="1">
       <c r="T435" s="13"/>
     </row>
-    <row r="436" spans="20:20">
+    <row r="436" spans="20:20" ht="21.95" customHeight="1">
       <c r="T436" s="13"/>
     </row>
-    <row r="437" spans="20:20">
+    <row r="437" spans="20:20" ht="21.95" customHeight="1">
       <c r="T437" s="13"/>
     </row>
-    <row r="438" spans="20:20">
+    <row r="438" spans="20:20" ht="21.95" customHeight="1">
       <c r="T438" s="13"/>
     </row>
-    <row r="439" spans="20:20">
+    <row r="439" spans="20:20" ht="21.95" customHeight="1">
       <c r="T439" s="13"/>
     </row>
-    <row r="440" spans="20:20">
+    <row r="440" spans="20:20" ht="21.95" customHeight="1">
       <c r="T440" s="13"/>
     </row>
-    <row r="441" spans="20:20">
+    <row r="441" spans="20:20" ht="21.95" customHeight="1">
       <c r="T441" s="13"/>
     </row>
-    <row r="442" spans="20:20">
+    <row r="442" spans="20:20" ht="21.95" customHeight="1">
       <c r="T442" s="13"/>
     </row>
-    <row r="443" spans="20:20">
+    <row r="443" spans="20:20" ht="21.95" customHeight="1">
       <c r="T443" s="13"/>
     </row>
-    <row r="444" spans="20:20">
+    <row r="444" spans="20:20" ht="21.95" customHeight="1">
       <c r="T444" s="13"/>
     </row>
-    <row r="445" spans="20:20">
+    <row r="445" spans="20:20" ht="21.95" customHeight="1">
       <c r="T445" s="13"/>
     </row>
-    <row r="446" spans="20:20">
+    <row r="446" spans="20:20" ht="21.95" customHeight="1">
       <c r="T446" s="13"/>
     </row>
-    <row r="447" spans="20:20">
+    <row r="447" spans="20:20" ht="21.95" customHeight="1">
       <c r="T447" s="13"/>
     </row>
-    <row r="448" spans="20:20">
+    <row r="448" spans="20:20" ht="21.95" customHeight="1">
       <c r="T448" s="13"/>
     </row>
-    <row r="449" spans="20:20">
+    <row r="449" spans="20:20" ht="21.95" customHeight="1">
       <c r="T449" s="13"/>
     </row>
-    <row r="450" spans="20:20">
+    <row r="450" spans="20:20" ht="21.95" customHeight="1">
       <c r="T450" s="13"/>
     </row>
-    <row r="451" spans="20:20">
+    <row r="451" spans="20:20" ht="21.95" customHeight="1">
       <c r="T451" s="13"/>
     </row>
-    <row r="452" spans="20:20">
+    <row r="452" spans="20:20" ht="21.95" customHeight="1">
       <c r="T452" s="13"/>
     </row>
-    <row r="453" spans="20:20">
+    <row r="453" spans="20:20" ht="21.95" customHeight="1">
       <c r="T453" s="13"/>
     </row>
-    <row r="454" spans="20:20">
+    <row r="454" spans="20:20" ht="21.95" customHeight="1">
       <c r="T454" s="13"/>
     </row>
-    <row r="455" spans="20:20">
+    <row r="455" spans="20:20" ht="21.95" customHeight="1">
       <c r="T455" s="13"/>
     </row>
-    <row r="456" spans="20:20">
+    <row r="456" spans="20:20" ht="21.95" customHeight="1">
       <c r="T456" s="13"/>
     </row>
-    <row r="457" spans="20:20">
+    <row r="457" spans="20:20" ht="21.95" customHeight="1">
       <c r="T457" s="13"/>
     </row>
-    <row r="458" spans="20:20">
+    <row r="458" spans="20:20" ht="21.95" customHeight="1">
       <c r="T458" s="13"/>
     </row>
-    <row r="459" spans="20:20">
+    <row r="459" spans="20:20" ht="21.95" customHeight="1">
       <c r="T459" s="13"/>
     </row>
-    <row r="460" spans="20:20">
+    <row r="460" spans="20:20" ht="21.95" customHeight="1">
       <c r="T460" s="13"/>
     </row>
-    <row r="461" spans="20:20">
+    <row r="461" spans="20:20" ht="21.95" customHeight="1">
       <c r="T461" s="13"/>
     </row>
-    <row r="462" spans="20:20">
+    <row r="462" spans="20:20" ht="21.95" customHeight="1">
       <c r="T462" s="13"/>
     </row>
-    <row r="463" spans="20:20">
+    <row r="463" spans="20:20" ht="21.95" customHeight="1">
       <c r="T463" s="13"/>
     </row>
-    <row r="464" spans="20:20">
+    <row r="464" spans="20:20" ht="21.95" customHeight="1">
       <c r="T464" s="13"/>
     </row>
-    <row r="465" spans="20:20">
+    <row r="465" spans="20:20" ht="21.95" customHeight="1">
       <c r="T465" s="13"/>
     </row>
-    <row r="466" spans="20:20">
+    <row r="466" spans="20:20" ht="21.95" customHeight="1">
       <c r="T466" s="13"/>
     </row>
-    <row r="467" spans="20:20">
+    <row r="467" spans="20:20" ht="21.95" customHeight="1">
       <c r="T467" s="13"/>
     </row>
-    <row r="468" spans="20:20">
+    <row r="468" spans="20:20" ht="21.95" customHeight="1">
       <c r="T468" s="13"/>
     </row>
-    <row r="469" spans="20:20">
+    <row r="469" spans="20:20" ht="21.95" customHeight="1">
       <c r="T469" s="13"/>
     </row>
-    <row r="470" spans="20:20">
+    <row r="470" spans="20:20" ht="21.95" customHeight="1">
       <c r="T470" s="13"/>
     </row>
-    <row r="471" spans="20:20">
+    <row r="471" spans="20:20" ht="21.95" customHeight="1">
       <c r="T471" s="13"/>
     </row>
-    <row r="472" spans="20:20">
+    <row r="472" spans="20:20" ht="21.95" customHeight="1">
       <c r="T472" s="13"/>
     </row>
-    <row r="473" spans="20:20">
+    <row r="473" spans="20:20" ht="21.95" customHeight="1">
       <c r="T473" s="13"/>
     </row>
-    <row r="474" spans="20:20">
+    <row r="474" spans="20:20" ht="21.95" customHeight="1">
       <c r="T474" s="13"/>
     </row>
-    <row r="475" spans="20:20">
+    <row r="475" spans="20:20" ht="21.95" customHeight="1">
       <c r="T475" s="13"/>
     </row>
-    <row r="476" spans="20:20">
+    <row r="476" spans="20:20" ht="21.95" customHeight="1">
       <c r="T476" s="13"/>
     </row>
-    <row r="477" spans="20:20">
+    <row r="477" spans="20:20" ht="21.95" customHeight="1">
       <c r="T477" s="13"/>
     </row>
-    <row r="478" spans="20:20">
+    <row r="478" spans="20:20" ht="21.95" customHeight="1">
       <c r="T478" s="13"/>
     </row>
-    <row r="479" spans="20:20">
+    <row r="479" spans="20:20" ht="21.95" customHeight="1">
       <c r="T479" s="13"/>
     </row>
-    <row r="480" spans="20:20">
+    <row r="480" spans="20:20" ht="21.95" customHeight="1">
       <c r="T480" s="13"/>
     </row>
-    <row r="481" spans="20:20">
+    <row r="481" spans="20:20" ht="21.95" customHeight="1">
       <c r="T481" s="13"/>
     </row>
-    <row r="482" spans="20:20">
+    <row r="482" spans="20:20" ht="21.95" customHeight="1">
       <c r="T482" s="13"/>
     </row>
-    <row r="483" spans="20:20">
+    <row r="483" spans="20:20" ht="21.95" customHeight="1">
       <c r="T483" s="13"/>
     </row>
-    <row r="484" spans="20:20">
+    <row r="484" spans="20:20" ht="21.95" customHeight="1">
       <c r="T484" s="13"/>
     </row>
-    <row r="485" spans="20:20">
+    <row r="485" spans="20:20" ht="21.95" customHeight="1">
       <c r="T485" s="13"/>
     </row>
-    <row r="486" spans="20:20">
+    <row r="486" spans="20:20" ht="21.95" customHeight="1">
       <c r="T486" s="13"/>
     </row>
-    <row r="487" spans="20:20">
+    <row r="487" spans="20:20" ht="21.95" customHeight="1">
       <c r="T487" s="13"/>
     </row>
-    <row r="488" spans="20:20">
+    <row r="488" spans="20:20" ht="21.95" customHeight="1">
       <c r="T488" s="13"/>
     </row>
-    <row r="489" spans="20:20">
+    <row r="489" spans="20:20" ht="21.95" customHeight="1">
       <c r="T489" s="13"/>
     </row>
-    <row r="490" spans="20:20">
+    <row r="490" spans="20:20" ht="21.95" customHeight="1">
       <c r="T490" s="13"/>
     </row>
-    <row r="491" spans="20:20">
+    <row r="491" spans="20:20" ht="21.95" customHeight="1">
       <c r="T491" s="13"/>
     </row>
-    <row r="492" spans="20:20">
+    <row r="492" spans="20:20" ht="21.95" customHeight="1">
       <c r="T492" s="13"/>
     </row>
-    <row r="493" spans="20:20">
+    <row r="493" spans="20:20" ht="21.95" customHeight="1">
       <c r="T493" s="13"/>
     </row>
-    <row r="494" spans="20:20">
+    <row r="494" spans="20:20" ht="21.95" customHeight="1">
       <c r="T494" s="13"/>
     </row>
-    <row r="495" spans="20:20">
+    <row r="495" spans="20:20" ht="21.95" customHeight="1">
       <c r="T495" s="13"/>
     </row>
-    <row r="496" spans="20:20">
+    <row r="496" spans="20:20" ht="21.95" customHeight="1">
       <c r="T496" s="13"/>
     </row>
-    <row r="497" spans="20:20">
+    <row r="497" spans="20:20" ht="21.95" customHeight="1">
       <c r="T497" s="13"/>
     </row>
-    <row r="498" spans="20:20">
+    <row r="498" spans="20:20" ht="21.95" customHeight="1">
       <c r="T498" s="13"/>
     </row>
-    <row r="499" spans="20:20">
+    <row r="499" spans="20:20" ht="21.95" customHeight="1">
       <c r="T499" s="13"/>
     </row>
-    <row r="500" spans="20:20">
+    <row r="500" spans="20:20" ht="21.95" customHeight="1">
       <c r="T500" s="13"/>
     </row>
-    <row r="501" spans="20:20">
+    <row r="501" spans="20:20" ht="21.95" customHeight="1">
       <c r="T501" s="13"/>
     </row>
-    <row r="502" spans="20:20">
+    <row r="502" spans="20:20" ht="21.95" customHeight="1">
       <c r="T502" s="13"/>
     </row>
-    <row r="503" spans="20:20">
+    <row r="503" spans="20:20" ht="21.95" customHeight="1">
       <c r="T503" s="13"/>
     </row>
-    <row r="504" spans="20:20">
+    <row r="504" spans="20:20" ht="21.95" customHeight="1">
       <c r="T504" s="13"/>
     </row>
-    <row r="505" spans="20:20">
+    <row r="505" spans="20:20" ht="21.95" customHeight="1">
       <c r="T505" s="13"/>
     </row>
-    <row r="506" spans="20:20">
+    <row r="506" spans="20:20" ht="21.95" customHeight="1">
       <c r="T506" s="13"/>
     </row>
-    <row r="507" spans="20:20">
+    <row r="507" spans="20:20" ht="21.95" customHeight="1">
       <c r="T507" s="13"/>
     </row>
-    <row r="508" spans="20:20">
+    <row r="508" spans="20:20" ht="21.95" customHeight="1">
       <c r="T508" s="13"/>
     </row>
-    <row r="509" spans="20:20">
+    <row r="509" spans="20:20" ht="21.95" customHeight="1">
       <c r="T509" s="13"/>
     </row>
-    <row r="510" spans="20:20">
+    <row r="510" spans="20:20" ht="21.95" customHeight="1">
       <c r="T510" s="13"/>
     </row>
-    <row r="511" spans="20:20">
+    <row r="511" spans="20:20" ht="21.95" customHeight="1">
       <c r="T511" s="13"/>
     </row>
-    <row r="512" spans="20:20">
+    <row r="512" spans="20:20" ht="21.95" customHeight="1">
       <c r="T512" s="13"/>
     </row>
-    <row r="513" spans="20:20">
+    <row r="513" spans="20:20" ht="21.95" customHeight="1">
       <c r="T513" s="13"/>
     </row>
-    <row r="514" spans="20:20">
+    <row r="514" spans="20:20" ht="21.95" customHeight="1">
       <c r="T514" s="13"/>
     </row>
-    <row r="515" spans="20:20">
+    <row r="515" spans="20:20" ht="21.95" customHeight="1">
       <c r="T515" s="13"/>
     </row>
-    <row r="516" spans="20:20">
+    <row r="516" spans="20:20" ht="21.95" customHeight="1">
       <c r="T516" s="13"/>
     </row>
-    <row r="517" spans="20:20">
+    <row r="517" spans="20:20" ht="21.95" customHeight="1">
       <c r="T517" s="13"/>
     </row>
-    <row r="518" spans="20:20">
+    <row r="518" spans="20:20" ht="21.95" customHeight="1">
       <c r="T518" s="13"/>
     </row>
-    <row r="519" spans="20:20">
+    <row r="519" spans="20:20" ht="21.95" customHeight="1">
       <c r="T519" s="13"/>
     </row>
-    <row r="520" spans="20:20">
+    <row r="520" spans="20:20" ht="21.95" customHeight="1">
       <c r="T520" s="13"/>
     </row>
-    <row r="521" spans="20:20">
+    <row r="521" spans="20:20" ht="21.95" customHeight="1">
       <c r="T521" s="13"/>
     </row>
-    <row r="522" spans="20:20">
+    <row r="522" spans="20:20" ht="21.95" customHeight="1">
       <c r="T522" s="13"/>
     </row>
-    <row r="523" spans="20:20">
+    <row r="523" spans="20:20" ht="21.95" customHeight="1">
       <c r="T523" s="13"/>
     </row>
-    <row r="524" spans="20:20">
+    <row r="524" spans="20:20" ht="21.95" customHeight="1">
       <c r="T524" s="13"/>
     </row>
-    <row r="525" spans="20:20">
+    <row r="525" spans="20:20" ht="21.95" customHeight="1">
       <c r="T525" s="13"/>
     </row>
-    <row r="526" spans="20:20">
+    <row r="526" spans="20:20" ht="21.95" customHeight="1">
       <c r="T526" s="13"/>
     </row>
-    <row r="527" spans="20:20">
+    <row r="527" spans="20:20" ht="21.95" customHeight="1">
       <c r="T527" s="13"/>
     </row>
-    <row r="528" spans="20:20">
+    <row r="528" spans="20:20" ht="21.95" customHeight="1">
       <c r="T528" s="13"/>
     </row>
-    <row r="529" spans="20:20">
+    <row r="529" spans="20:20" ht="21.95" customHeight="1">
       <c r="T529" s="13"/>
     </row>
-    <row r="530" spans="20:20">
+    <row r="530" spans="20:20" ht="21.95" customHeight="1">
       <c r="T530" s="13"/>
     </row>
-    <row r="531" spans="20:20">
+    <row r="531" spans="20:20" ht="21.95" customHeight="1">
       <c r="T531" s="13"/>
     </row>
-    <row r="532" spans="20:20">
+    <row r="532" spans="20:20" ht="21.95" customHeight="1">
       <c r="T532" s="13"/>
     </row>
-    <row r="533" spans="20:20">
+    <row r="533" spans="20:20" ht="21.95" customHeight="1">
       <c r="T533" s="13"/>
     </row>
-    <row r="534" spans="20:20">
+    <row r="534" spans="20:20" ht="21.95" customHeight="1">
       <c r="T534" s="13"/>
     </row>
-    <row r="535" spans="20:20">
+    <row r="535" spans="20:20" ht="21.95" customHeight="1">
       <c r="T535" s="13"/>
     </row>
-    <row r="536" spans="20:20">
+    <row r="536" spans="20:20" ht="21.95" customHeight="1">
       <c r="T536" s="13"/>
     </row>
-    <row r="537" spans="20:20">
+    <row r="537" spans="20:20" ht="21.95" customHeight="1">
       <c r="T537" s="13"/>
     </row>
-    <row r="538" spans="20:20">
+    <row r="538" spans="20:20" ht="21.95" customHeight="1">
       <c r="T538" s="13"/>
     </row>
-    <row r="539" spans="20:20">
+    <row r="539" spans="20:20" ht="21.95" customHeight="1">
       <c r="T539" s="13"/>
     </row>
-    <row r="540" spans="20:20">
+    <row r="540" spans="20:20" ht="21.95" customHeight="1">
       <c r="T540" s="13"/>
     </row>
-    <row r="541" spans="20:20">
+    <row r="541" spans="20:20" ht="21.95" customHeight="1">
       <c r="T541" s="13"/>
     </row>
-    <row r="542" spans="20:20">
+    <row r="542" spans="20:20" ht="21.95" customHeight="1">
       <c r="T542" s="13"/>
     </row>
-    <row r="543" spans="20:20">
+    <row r="543" spans="20:20" ht="21.95" customHeight="1">
       <c r="T543" s="13"/>
     </row>
-    <row r="544" spans="20:20">
+    <row r="544" spans="20:20" ht="21.95" customHeight="1">
       <c r="T544" s="13"/>
     </row>
-    <row r="545" spans="20:20">
+    <row r="545" spans="20:20" ht="21.95" customHeight="1">
       <c r="T545" s="13"/>
     </row>
-    <row r="546" spans="20:20">
+    <row r="546" spans="20:20" ht="21.95" customHeight="1">
       <c r="T546" s="13"/>
     </row>
-    <row r="547" spans="20:20">
+    <row r="547" spans="20:20" ht="21.95" customHeight="1">
       <c r="T547" s="13"/>
     </row>
-    <row r="548" spans="20:20">
+    <row r="548" spans="20:20" ht="21.95" customHeight="1">
       <c r="T548" s="13"/>
     </row>
-    <row r="549" spans="20:20">
+    <row r="549" spans="20:20" ht="21.95" customHeight="1">
       <c r="T549" s="13"/>
     </row>
-    <row r="550" spans="20:20">
+    <row r="550" spans="20:20" ht="21.95" customHeight="1">
       <c r="T550" s="13"/>
     </row>
-    <row r="551" spans="20:20">
+    <row r="551" spans="20:20" ht="21.95" customHeight="1">
       <c r="T551" s="13"/>
     </row>
-    <row r="552" spans="20:20">
+    <row r="552" spans="20:20" ht="21.95" customHeight="1">
       <c r="T552" s="13"/>
     </row>
-    <row r="553" spans="20:20">
+    <row r="553" spans="20:20" ht="21.95" customHeight="1">
       <c r="T553" s="13"/>
     </row>
-    <row r="554" spans="20:20">
+    <row r="554" spans="20:20" ht="21.95" customHeight="1">
       <c r="T554" s="13"/>
     </row>
-    <row r="555" spans="20:20">
+    <row r="555" spans="20:20" ht="21.95" customHeight="1">
       <c r="T555" s="13"/>
     </row>
-    <row r="556" spans="20:20">
+    <row r="556" spans="20:20" ht="21.95" customHeight="1">
       <c r="T556" s="13"/>
     </row>
-    <row r="557" spans="20:20">
+    <row r="557" spans="20:20" ht="21.95" customHeight="1">
       <c r="T557" s="13"/>
     </row>
-    <row r="558" spans="20:20">
+    <row r="558" spans="20:20" ht="21.95" customHeight="1">
       <c r="T558" s="13"/>
     </row>
-    <row r="559" spans="20:20">
+    <row r="559" spans="20:20" ht="21.95" customHeight="1">
       <c r="T559" s="13"/>
     </row>
-    <row r="560" spans="20:20">
+    <row r="560" spans="20:20" ht="21.95" customHeight="1">
       <c r="T560" s="13"/>
     </row>
-    <row r="561" spans="20:20">
+    <row r="561" spans="20:20" ht="21.95" customHeight="1">
       <c r="T561" s="13"/>
     </row>
-    <row r="562" spans="20:20">
+    <row r="562" spans="20:20" ht="21.95" customHeight="1">
       <c r="T562" s="13"/>
     </row>
-    <row r="563" spans="20:20">
+    <row r="563" spans="20:20" ht="21.95" customHeight="1">
       <c r="T563" s="13"/>
     </row>
-    <row r="564" spans="20:20">
+    <row r="564" spans="20:20" ht="21.95" customHeight="1">
       <c r="T564" s="13"/>
     </row>
-    <row r="565" spans="20:20">
+    <row r="565" spans="20:20" ht="21.95" customHeight="1">
       <c r="T565" s="13"/>
     </row>
-    <row r="566" spans="20:20">
+    <row r="566" spans="20:20" ht="21.95" customHeight="1">
       <c r="T566" s="13"/>
     </row>
-    <row r="567" spans="20:20">
+    <row r="567" spans="20:20" ht="21.95" customHeight="1">
       <c r="T567" s="13"/>
     </row>
-    <row r="568" spans="20:20">
+    <row r="568" spans="20:20" ht="21.95" customHeight="1">
       <c r="T568" s="13"/>
     </row>
-    <row r="569" spans="20:20">
+    <row r="569" spans="20:20" ht="21.95" customHeight="1">
       <c r="T569" s="13"/>
     </row>
-    <row r="570" spans="20:20">
+    <row r="570" spans="20:20" ht="21.95" customHeight="1">
       <c r="T570" s="13"/>
     </row>
-    <row r="571" spans="20:20">
+    <row r="571" spans="20:20" ht="21.95" customHeight="1">
       <c r="T571" s="13"/>
     </row>
-    <row r="572" spans="20:20">
+    <row r="572" spans="20:20" ht="21.95" customHeight="1">
       <c r="T572" s="13"/>
     </row>
-    <row r="573" spans="20:20">
+    <row r="573" spans="20:20" ht="21.95" customHeight="1">
       <c r="T573" s="13"/>
     </row>
-    <row r="574" spans="20:20">
+    <row r="574" spans="20:20" ht="21.95" customHeight="1">
       <c r="T574" s="13"/>
     </row>
-    <row r="575" spans="20:20">
+    <row r="575" spans="20:20" ht="21.95" customHeight="1">
       <c r="T575" s="13"/>
     </row>
-    <row r="576" spans="20:20">
+    <row r="576" spans="20:20" ht="21.95" customHeight="1">
       <c r="T576" s="13"/>
     </row>
-    <row r="577" spans="20:20">
+    <row r="577" spans="20:20" ht="21.95" customHeight="1">
       <c r="T577" s="13"/>
     </row>
-    <row r="578" spans="20:20">
+    <row r="578" spans="20:20" ht="21.95" customHeight="1">
       <c r="T578" s="13"/>
     </row>
-    <row r="579" spans="20:20">
+    <row r="579" spans="20:20" ht="21.95" customHeight="1">
       <c r="T579" s="13"/>
     </row>
-    <row r="580" spans="20:20">
+    <row r="580" spans="20:20" ht="21.95" customHeight="1">
       <c r="T580" s="13"/>
     </row>
-    <row r="581" spans="20:20">
+    <row r="581" spans="20:20" ht="21.95" customHeight="1">
       <c r="T581" s="13"/>
     </row>
-    <row r="582" spans="20:20">
+    <row r="582" spans="20:20" ht="21.95" customHeight="1">
       <c r="T582" s="13"/>
     </row>
-    <row r="583" spans="20:20">
+    <row r="583" spans="20:20" ht="21.95" customHeight="1">
       <c r="T583" s="13"/>
     </row>
-    <row r="584" spans="20:20">
+    <row r="584" spans="20:20" ht="21.95" customHeight="1">
       <c r="T584" s="13"/>
     </row>
-    <row r="585" spans="20:20">
+    <row r="585" spans="20:20" ht="21.95" customHeight="1">
       <c r="T585" s="13"/>
     </row>
-    <row r="586" spans="20:20">
+    <row r="586" spans="20:20" ht="21.95" customHeight="1">
       <c r="T586" s="13"/>
     </row>
-    <row r="587" spans="20:20">
+    <row r="587" spans="20:20" ht="21.95" customHeight="1">
       <c r="T587" s="13"/>
     </row>
-    <row r="588" spans="20:20">
+    <row r="588" spans="20:20" ht="21.95" customHeight="1">
       <c r="T588" s="13"/>
     </row>
-    <row r="589" spans="20:20">
+    <row r="589" spans="20:20" ht="21.95" customHeight="1">
       <c r="T589" s="13"/>
     </row>
-    <row r="590" spans="20:20">
+    <row r="590" spans="20:20" ht="21.95" customHeight="1">
       <c r="T590" s="13"/>
     </row>
-    <row r="591" spans="20:20">
+    <row r="591" spans="20:20" ht="21.95" customHeight="1">
       <c r="T591" s="13"/>
     </row>
-    <row r="592" spans="20:20">
+    <row r="592" spans="20:20" ht="21.95" customHeight="1">
       <c r="T592" s="13"/>
     </row>
-    <row r="593" spans="20:20">
+    <row r="593" spans="20:20" ht="21.95" customHeight="1">
       <c r="T593" s="13"/>
     </row>
-    <row r="594" spans="20:20">
+    <row r="594" spans="20:20" ht="21.95" customHeight="1">
       <c r="T594" s="13"/>
     </row>
-    <row r="595" spans="20:20">
+    <row r="595" spans="20:20" ht="21.95" customHeight="1">
       <c r="T595" s="13"/>
     </row>
-    <row r="596" spans="20:20">
+    <row r="596" spans="20:20" ht="21.95" customHeight="1">
       <c r="T596" s="13"/>
     </row>
-    <row r="597" spans="20:20">
+    <row r="597" spans="20:20" ht="21.95" customHeight="1">
       <c r="T597" s="13"/>
     </row>
-    <row r="598" spans="20:20">
+    <row r="598" spans="20:20" ht="21.95" customHeight="1">
       <c r="T598" s="13"/>
     </row>
-    <row r="599" spans="20:20">
+    <row r="599" spans="20:20" ht="21.95" customHeight="1">
       <c r="T599" s="13"/>
     </row>
-    <row r="600" spans="20:20">
+    <row r="600" spans="20:20" ht="21.95" customHeight="1">
       <c r="T600" s="13"/>
     </row>
-    <row r="601" spans="20:20">
+    <row r="601" spans="20:20" ht="21.95" customHeight="1">
       <c r="T601" s="13"/>
     </row>
-    <row r="602" spans="20:20">
+    <row r="602" spans="20:20" ht="21.95" customHeight="1">
       <c r="T602" s="13"/>
     </row>
-    <row r="603" spans="20:20">
+    <row r="603" spans="20:20" ht="21.95" customHeight="1">
       <c r="T603" s="13"/>
     </row>
-    <row r="604" spans="20:20">
+    <row r="604" spans="20:20" ht="21.95" customHeight="1">
       <c r="T604" s="13"/>
     </row>
-    <row r="605" spans="20:20">
+    <row r="605" spans="20:20" ht="21.95" customHeight="1">
       <c r="T605" s="13"/>
     </row>
-    <row r="606" spans="20:20">
+    <row r="606" spans="20:20" ht="21.95" customHeight="1">
       <c r="T606" s="13"/>
     </row>
-    <row r="607" spans="20:20">
+    <row r="607" spans="20:20" ht="21.95" customHeight="1">
       <c r="T607" s="13"/>
     </row>
-    <row r="608" spans="20:20">
+    <row r="608" spans="20:20" ht="21.95" customHeight="1">
       <c r="T608" s="13"/>
     </row>
-    <row r="609" spans="20:20">
+    <row r="609" spans="20:20" ht="21.95" customHeight="1">
       <c r="T609" s="13"/>
     </row>
-    <row r="610" spans="20:20">
+    <row r="610" spans="20:20" ht="21.95" customHeight="1">
       <c r="T610" s="13"/>
     </row>
-    <row r="611" spans="20:20">
+    <row r="611" spans="20:20" ht="21.95" customHeight="1">
       <c r="T611" s="13"/>
     </row>
-    <row r="612" spans="20:20">
+    <row r="612" spans="20:20" ht="21.95" customHeight="1">
       <c r="T612" s="13"/>
     </row>
-    <row r="613" spans="20:20">
+    <row r="613" spans="20:20" ht="21.95" customHeight="1">
       <c r="T613" s="13"/>
     </row>
-    <row r="614" spans="20:20">
+    <row r="614" spans="20:20" ht="21.95" customHeight="1">
       <c r="T614" s="13"/>
     </row>
-    <row r="615" spans="20:20">
+    <row r="615" spans="20:20" ht="21.95" customHeight="1">
       <c r="T615" s="13"/>
     </row>
-    <row r="616" spans="20:20">
+    <row r="616" spans="20:20" ht="21.95" customHeight="1">
       <c r="T616" s="13"/>
     </row>
-    <row r="617" spans="20:20">
+    <row r="617" spans="20:20" ht="21.95" customHeight="1">
       <c r="T617" s="13"/>
     </row>
-    <row r="618" spans="20:20">
+    <row r="618" spans="20:20" ht="21.95" customHeight="1">
       <c r="T618" s="13"/>
     </row>
-    <row r="619" spans="20:20">
+    <row r="619" spans="20:20" ht="21.95" customHeight="1">
       <c r="T619" s="13"/>
     </row>
-    <row r="620" spans="20:20">
+    <row r="620" spans="20:20" ht="21.95" customHeight="1">
       <c r="T620" s="13"/>
     </row>
-    <row r="621" spans="20:20">
+    <row r="621" spans="20:20" ht="21.95" customHeight="1">
       <c r="T621" s="13"/>
     </row>
-    <row r="622" spans="20:20">
+    <row r="622" spans="20:20" ht="21.95" customHeight="1">
       <c r="T622" s="13"/>
     </row>
-    <row r="623" spans="20:20">
+    <row r="623" spans="20:20" ht="21.95" customHeight="1">
       <c r="T623" s="13"/>
     </row>
-    <row r="624" spans="20:20">
+    <row r="624" spans="20:20" ht="21.95" customHeight="1">
       <c r="T624" s="13"/>
     </row>
-    <row r="625" spans="20:20">
+    <row r="625" spans="20:20" ht="21.95" customHeight="1">
       <c r="T625" s="13"/>
     </row>
-    <row r="626" spans="20:20">
+    <row r="626" spans="20:20" ht="21.95" customHeight="1">
       <c r="T626" s="13"/>
     </row>
-    <row r="627" spans="20:20">
+    <row r="627" spans="20:20" ht="21.95" customHeight="1">
       <c r="T627" s="13"/>
     </row>
-    <row r="628" spans="20:20">
+    <row r="628" spans="20:20" ht="21.95" customHeight="1">
       <c r="T628" s="13"/>
     </row>
-    <row r="629" spans="20:20">
+    <row r="629" spans="20:20" ht="21.95" customHeight="1">
       <c r="T629" s="13"/>
     </row>
-    <row r="630" spans="20:20">
+    <row r="630" spans="20:20" ht="21.95" customHeight="1">
       <c r="T630" s="13"/>
     </row>
-    <row r="631" spans="20:20">
+    <row r="631" spans="20:20" ht="21.95" customHeight="1">
       <c r="T631" s="13"/>
     </row>
-    <row r="632" spans="20:20">
+    <row r="632" spans="20:20" ht="21.95" customHeight="1">
       <c r="T632" s="13"/>
     </row>
-    <row r="633" spans="20:20">
+    <row r="633" spans="20:20" ht="21.95" customHeight="1">
       <c r="T633" s="13"/>
     </row>
-    <row r="634" spans="20:20">
+    <row r="634" spans="20:20" ht="21.95" customHeight="1">
       <c r="T634" s="13"/>
     </row>
-    <row r="635" spans="20:20">
+    <row r="635" spans="20:20" ht="21.95" customHeight="1">
       <c r="T635" s="13"/>
     </row>
-    <row r="636" spans="20:20">
+    <row r="636" spans="20:20" ht="21.95" customHeight="1">
       <c r="T636" s="13"/>
     </row>
-    <row r="637" spans="20:20">
+    <row r="637" spans="20:20" ht="21.95" customHeight="1">
       <c r="T637" s="13"/>
     </row>
-    <row r="638" spans="20:20">
+    <row r="638" spans="20:20" ht="21.95" customHeight="1">
       <c r="T638" s="13"/>
     </row>
-    <row r="639" spans="20:20">
+    <row r="639" spans="20:20" ht="21.95" customHeight="1">
       <c r="T639" s="13"/>
     </row>
-    <row r="640" spans="20:20">
+    <row r="640" spans="20:20" ht="21.95" customHeight="1">
       <c r="T640" s="13"/>
     </row>
-    <row r="641" spans="20:20">
+    <row r="641" spans="20:20" ht="21.95" customHeight="1">
       <c r="T641" s="13"/>
     </row>
-    <row r="642" spans="20:20">
+    <row r="642" spans="20:20" ht="21.95" customHeight="1">
       <c r="T642" s="13"/>
     </row>
-    <row r="643" spans="20:20">
+    <row r="643" spans="20:20" ht="21.95" customHeight="1">
       <c r="T643" s="13"/>
     </row>
-    <row r="644" spans="20:20">
+    <row r="644" spans="20:20" ht="21.95" customHeight="1">
       <c r="T644" s="13"/>
     </row>
-    <row r="645" spans="20:20">
+    <row r="645" spans="20:20" ht="21.95" customHeight="1">
       <c r="T645" s="13"/>
     </row>
-    <row r="646" spans="20:20">
+    <row r="646" spans="20:20" ht="21.95" customHeight="1">
       <c r="T646" s="13"/>
     </row>
-    <row r="647" spans="20:20">
+    <row r="647" spans="20:20" ht="21.95" customHeight="1">
       <c r="T647" s="13"/>
     </row>
-    <row r="648" spans="20:20">
+    <row r="648" spans="20:20" ht="21.95" customHeight="1">
       <c r="T648" s="13"/>
     </row>
-    <row r="649" spans="20:20">
+    <row r="649" spans="20:20" ht="21.95" customHeight="1">
       <c r="T649" s="13"/>
     </row>
-    <row r="650" spans="20:20">
+    <row r="650" spans="20:20" ht="21.95" customHeight="1">
       <c r="T650" s="13"/>
     </row>
-    <row r="651" spans="20:20">
+    <row r="651" spans="20:20" ht="21.95" customHeight="1">
       <c r="T651" s="13"/>
     </row>
-    <row r="652" spans="20:20">
+    <row r="652" spans="20:20" ht="21.95" customHeight="1">
       <c r="T652" s="13"/>
     </row>
-    <row r="653" spans="20:20">
+    <row r="653" spans="20:20" ht="21.95" customHeight="1">
       <c r="T653" s="13"/>
     </row>
-    <row r="654" spans="20:20">
+    <row r="654" spans="20:20" ht="21.95" customHeight="1">
       <c r="T654" s="13"/>
     </row>
-    <row r="655" spans="20:20">
+    <row r="655" spans="20:20" ht="21.95" customHeight="1">
       <c r="T655" s="13"/>
     </row>
-    <row r="656" spans="20:20">
+    <row r="656" spans="20:20" ht="21.95" customHeight="1">
       <c r="T656" s="13"/>
     </row>
-    <row r="657" spans="20:20">
+    <row r="657" spans="20:20" ht="21.95" customHeight="1">
       <c r="T657" s="13"/>
     </row>
-    <row r="658" spans="20:20">
+    <row r="658" spans="20:20" ht="21.95" customHeight="1">
       <c r="T658" s="13"/>
     </row>
-    <row r="659" spans="20:20">
+    <row r="659" spans="20:20" ht="21.95" customHeight="1">
       <c r="T659" s="13"/>
     </row>
-    <row r="660" spans="20:20">
+    <row r="660" spans="20:20" ht="21.95" customHeight="1">
       <c r="T660" s="13"/>
     </row>
-    <row r="661" spans="20:20">
+    <row r="661" spans="20:20" ht="21.95" customHeight="1">
       <c r="T661" s="13"/>
     </row>
-    <row r="662" spans="20:20">
+    <row r="662" spans="20:20" ht="21.95" customHeight="1">
       <c r="T662" s="13"/>
     </row>
-    <row r="663" spans="20:20">
+    <row r="663" spans="20:20" ht="21.95" customHeight="1">
       <c r="T663" s="13"/>
     </row>
-    <row r="664" spans="20:20">
+    <row r="664" spans="20:20" ht="21.95" customHeight="1">
       <c r="T664" s="13"/>
     </row>
-    <row r="665" spans="20:20">
+    <row r="665" spans="20:20" ht="21.95" customHeight="1">
       <c r="T665" s="13"/>
     </row>
-    <row r="666" spans="20:20">
+    <row r="666" spans="20:20" ht="21.95" customHeight="1">
       <c r="T666" s="13"/>
     </row>
-    <row r="667" spans="20:20">
+    <row r="667" spans="20:20" ht="21.95" customHeight="1">
       <c r="T667" s="13"/>
     </row>
-    <row r="668" spans="20:20">
+    <row r="668" spans="20:20" ht="21.95" customHeight="1">
       <c r="T668" s="13"/>
     </row>
-    <row r="669" spans="20:20">
+    <row r="669" spans="20:20" ht="21.95" customHeight="1">
       <c r="T669" s="13"/>
     </row>
-    <row r="670" spans="20:20">
+    <row r="670" spans="20:20" ht="21.95" customHeight="1">
       <c r="T670" s="13"/>
     </row>
-    <row r="671" spans="20:20">
+    <row r="671" spans="20:20" ht="21.95" customHeight="1">
       <c r="T671" s="13"/>
     </row>
-    <row r="672" spans="20:20">
+    <row r="672" spans="20:20" ht="21.95" customHeight="1">
       <c r="T672" s="13"/>
     </row>
-    <row r="673" spans="20:20">
+    <row r="673" spans="20:20" ht="21.95" customHeight="1">
       <c r="T673" s="13"/>
     </row>
-    <row r="674" spans="20:20">
+    <row r="674" spans="20:20" ht="21.95" customHeight="1">
       <c r="T674" s="13"/>
     </row>
-    <row r="675" spans="20:20">
+    <row r="675" spans="20:20" ht="21.95" customHeight="1">
       <c r="T675" s="13"/>
     </row>
-    <row r="676" spans="20:20">
+    <row r="676" spans="20:20" ht="21.95" customHeight="1">
       <c r="T676" s="13"/>
     </row>
-    <row r="677" spans="20:20">
+    <row r="677" spans="20:20" ht="21.95" customHeight="1">
       <c r="T677" s="13"/>
     </row>
-    <row r="678" spans="20:20">
+    <row r="678" spans="20:20" ht="21.95" customHeight="1">
       <c r="T678" s="13"/>
     </row>
-    <row r="679" spans="20:20">
+    <row r="679" spans="20:20" ht="21.95" customHeight="1">
       <c r="T679" s="13"/>
     </row>
-    <row r="680" spans="20:20">
+    <row r="680" spans="20:20" ht="21.95" customHeight="1">
       <c r="T680" s="13"/>
     </row>
-    <row r="681" spans="20:20">
+    <row r="681" spans="20:20" ht="21.95" customHeight="1">
       <c r="T681" s="13"/>
     </row>
-    <row r="682" spans="20:20">
+    <row r="682" spans="20:20" ht="21.95" customHeight="1">
       <c r="T682" s="13"/>
     </row>
-    <row r="683" spans="20:20">
+    <row r="683" spans="20:20" ht="21.95" customHeight="1">
       <c r="T683" s="13"/>
     </row>
-    <row r="684" spans="20:20">
+    <row r="684" spans="20:20" ht="21.95" customHeight="1">
       <c r="T684" s="13"/>
     </row>
-    <row r="685" spans="20:20">
+    <row r="685" spans="20:20" ht="21.95" customHeight="1">
       <c r="T685" s="13"/>
     </row>
-    <row r="686" spans="20:20">
+    <row r="686" spans="20:20" ht="21.95" customHeight="1">
       <c r="T686" s="13"/>
     </row>
-    <row r="687" spans="20:20">
+    <row r="687" spans="20:20" ht="21.95" customHeight="1">
       <c r="T687" s="13"/>
     </row>
-    <row r="688" spans="20:20">
+    <row r="688" spans="20:20" ht="21.95" customHeight="1">
       <c r="T688" s="13"/>
     </row>
-    <row r="689" spans="20:20">
+    <row r="689" spans="20:20" ht="21.95" customHeight="1">
       <c r="T689" s="13"/>
     </row>
-    <row r="690" spans="20:20">
+    <row r="690" spans="20:20" ht="21.95" customHeight="1">
       <c r="T690" s="13"/>
     </row>
-    <row r="691" spans="20:20">
+    <row r="691" spans="20:20" ht="21.95" customHeight="1">
       <c r="T691" s="13"/>
     </row>
-    <row r="692" spans="20:20">
+    <row r="692" spans="20:20" ht="21.95" customHeight="1">
       <c r="T692" s="13"/>
     </row>
-    <row r="693" spans="20:20">
+    <row r="693" spans="20:20" ht="21.95" customHeight="1">
       <c r="T693" s="13"/>
     </row>
-    <row r="694" spans="20:20">
+    <row r="694" spans="20:20" ht="21.95" customHeight="1">
       <c r="T694" s="13"/>
     </row>
-    <row r="695" spans="20:20">
+    <row r="695" spans="20:20" ht="21.95" customHeight="1">
       <c r="T695" s="13"/>
     </row>
-    <row r="696" spans="20:20">
+    <row r="696" spans="20:20" ht="21.95" customHeight="1">
       <c r="T696" s="13"/>
     </row>
-    <row r="697" spans="20:20">
+    <row r="697" spans="20:20" ht="21.95" customHeight="1">
       <c r="T697" s="13"/>
     </row>
-    <row r="698" spans="20:20">
+    <row r="698" spans="20:20" ht="21.95" customHeight="1">
       <c r="T698" s="13"/>
     </row>
-    <row r="699" spans="20:20">
+    <row r="699" spans="20:20" ht="21.95" customHeight="1">
       <c r="T699" s="13"/>
     </row>
-    <row r="700" spans="20:20">
+    <row r="700" spans="20:20" ht="21.95" customHeight="1">
       <c r="T700" s="13"/>
     </row>
-    <row r="701" spans="20:20">
+    <row r="701" spans="20:20" ht="21.95" customHeight="1">
       <c r="T701" s="13"/>
     </row>
-    <row r="702" spans="20:20">
+    <row r="702" spans="20:20" ht="21.95" customHeight="1">
       <c r="T702" s="13"/>
     </row>
-    <row r="703" spans="20:20">
+    <row r="703" spans="20:20" ht="21.95" customHeight="1">
       <c r="T703" s="13"/>
     </row>
-    <row r="704" spans="20:20">
+    <row r="704" spans="20:20" ht="21.95" customHeight="1">
       <c r="T704" s="13"/>
     </row>
-    <row r="705" spans="20:20">
+    <row r="705" spans="20:20" ht="21.95" customHeight="1">
       <c r="T705" s="13"/>
     </row>
-    <row r="706" spans="20:20">
+    <row r="706" spans="20:20" ht="21.95" customHeight="1">
       <c r="T706" s="13"/>
     </row>
-    <row r="707" spans="20:20">
+    <row r="707" spans="20:20" ht="21.95" customHeight="1">
       <c r="T707" s="13"/>
     </row>
-    <row r="708" spans="20:20">
+    <row r="708" spans="20:20" ht="21.95" customHeight="1">
       <c r="T708" s="13"/>
     </row>
-    <row r="709" spans="20:20">
+    <row r="709" spans="20:20" ht="21.95" customHeight="1">
       <c r="T709" s="13"/>
     </row>
-    <row r="710" spans="20:20">
+    <row r="710" spans="20:20" ht="21.95" customHeight="1">
       <c r="T710" s="13"/>
     </row>
-    <row r="711" spans="20:20">
+    <row r="711" spans="20:20" ht="21.95" customHeight="1">
       <c r="T711" s="13"/>
     </row>
-    <row r="712" spans="20:20">
+    <row r="712" spans="20:20" ht="21.95" customHeight="1">
       <c r="T712" s="13"/>
     </row>
-    <row r="713" spans="20:20">
+    <row r="713" spans="20:20" ht="21.95" customHeight="1">
       <c r="T713" s="13"/>
     </row>
-    <row r="714" spans="20:20">
+    <row r="714" spans="20:20" ht="21.95" customHeight="1">
       <c r="T714" s="13"/>
     </row>
-    <row r="715" spans="20:20">
+    <row r="715" spans="20:20" ht="21.95" customHeight="1">
       <c r="T715" s="13"/>
     </row>
-    <row r="716" spans="20:20">
+    <row r="716" spans="20:20" ht="21.95" customHeight="1">
       <c r="T716" s="13"/>
     </row>
-    <row r="717" spans="20:20">
+    <row r="717" spans="20:20" ht="21.95" customHeight="1">
       <c r="T717" s="13"/>
     </row>
-    <row r="718" spans="20:20">
+    <row r="718" spans="20:20" ht="21.95" customHeight="1">
       <c r="T718" s="13"/>
     </row>
-    <row r="719" spans="20:20">
+    <row r="719" spans="20:20" ht="21.95" customHeight="1">
       <c r="T719" s="13"/>
     </row>
-    <row r="720" spans="20:20">
+    <row r="720" spans="20:20" ht="21.95" customHeight="1">
       <c r="T720" s="13"/>
     </row>
-    <row r="721" spans="20:20">
+    <row r="721" spans="20:20" ht="21.95" customHeight="1">
       <c r="T721" s="13"/>
     </row>
-    <row r="722" spans="20:20">
+    <row r="722" spans="20:20" ht="21.95" customHeight="1">
       <c r="T722" s="13"/>
     </row>
-    <row r="723" spans="20:20">
+    <row r="723" spans="20:20" ht="21.95" customHeight="1">
       <c r="T723" s="13"/>
     </row>
-    <row r="724" spans="20:20">
+    <row r="724" spans="20:20" ht="21.95" customHeight="1">
       <c r="T724" s="13"/>
     </row>
-    <row r="725" spans="20:20">
+    <row r="725" spans="20:20" ht="21.95" customHeight="1">
       <c r="T725" s="13"/>
     </row>
-    <row r="726" spans="20:20">
+    <row r="726" spans="20:20" ht="21.95" customHeight="1">
       <c r="T726" s="13"/>
     </row>
-    <row r="727" spans="20:20">
+    <row r="727" spans="20:20" ht="21.95" customHeight="1">
       <c r="T727" s="13"/>
     </row>
-    <row r="728" spans="20:20">
+    <row r="728" spans="20:20" ht="21.95" customHeight="1">
       <c r="T728" s="13"/>
     </row>
-    <row r="729" spans="20:20">
+    <row r="729" spans="20:20" ht="21.95" customHeight="1">
       <c r="T729" s="13"/>
     </row>
-    <row r="730" spans="20:20">
+    <row r="730" spans="20:20" ht="21.95" customHeight="1">
       <c r="T730" s="13"/>
     </row>
-    <row r="731" spans="20:20">
+    <row r="731" spans="20:20" ht="21.95" customHeight="1">
       <c r="T731" s="13"/>
     </row>
-    <row r="732" spans="20:20">
+    <row r="732" spans="20:20" ht="21.95" customHeight="1">
       <c r="T732" s="13"/>
     </row>
-    <row r="733" spans="20:20">
+    <row r="733" spans="20:20" ht="21.95" customHeight="1">
       <c r="T733" s="13"/>
     </row>
-    <row r="734" spans="20:20">
+    <row r="734" spans="20:20" ht="21.95" customHeight="1">
       <c r="T734" s="13"/>
     </row>
-    <row r="735" spans="20:20">
+    <row r="735" spans="20:20" ht="21.95" customHeight="1">
       <c r="T735" s="13"/>
     </row>
-    <row r="736" spans="20:20">
+    <row r="736" spans="20:20" ht="21.95" customHeight="1">
       <c r="T736" s="13"/>
     </row>
-    <row r="737" spans="20:20">
+    <row r="737" spans="20:20" ht="21.95" customHeight="1">
       <c r="T737" s="13"/>
     </row>
-    <row r="738" spans="20:20">
+    <row r="738" spans="20:20" ht="21.95" customHeight="1">
       <c r="T738" s="13"/>
     </row>
-    <row r="739" spans="20:20">
+    <row r="739" spans="20:20" ht="21.95" customHeight="1">
       <c r="T739" s="13"/>
     </row>
-    <row r="740" spans="20:20">
+    <row r="740" spans="20:20" ht="21.95" customHeight="1">
       <c r="T740" s="13"/>
     </row>
-    <row r="741" spans="20:20">
+    <row r="741" spans="20:20" ht="21.95" customHeight="1">
       <c r="T741" s="13"/>
     </row>
-    <row r="742" spans="20:20">
+    <row r="742" spans="20:20" ht="21.95" customHeight="1">
       <c r="T742" s="13"/>
     </row>
-    <row r="743" spans="20:20">
+    <row r="743" spans="20:20" ht="21.95" customHeight="1">
       <c r="T743" s="13"/>
     </row>
-    <row r="744" spans="20:20">
+    <row r="744" spans="20:20" ht="21.95" customHeight="1">
       <c r="T744" s="13"/>
     </row>
-    <row r="745" spans="20:20">
+    <row r="745" spans="20:20" ht="21.95" customHeight="1">
       <c r="T745" s="13"/>
     </row>
-    <row r="746" spans="20:20">
+    <row r="746" spans="20:20" ht="21.95" customHeight="1">
       <c r="T746" s="13"/>
     </row>
-    <row r="747" spans="20:20">
+    <row r="747" spans="20:20" ht="21.95" customHeight="1">
       <c r="T747" s="13"/>
     </row>
-    <row r="748" spans="20:20">
+    <row r="748" spans="20:20" ht="21.95" customHeight="1">
       <c r="T748" s="13"/>
     </row>
-    <row r="749" spans="20:20">
+    <row r="749" spans="20:20" ht="21.95" customHeight="1">
       <c r="T749" s="13"/>
     </row>
-    <row r="750" spans="20:20">
+    <row r="750" spans="20:20" ht="21.95" customHeight="1">
       <c r="T750" s="13"/>
     </row>
-    <row r="751" spans="20:20">
+    <row r="751" spans="20:20" ht="21.95" customHeight="1">
       <c r="T751" s="13"/>
     </row>
-    <row r="752" spans="20:20">
+    <row r="752" spans="20:20" ht="21.95" customHeight="1">
       <c r="T752" s="13"/>
     </row>
-    <row r="753" spans="20:20">
+    <row r="753" spans="20:20" ht="21.95" customHeight="1">
       <c r="T753" s="13"/>
     </row>
-    <row r="754" spans="20:20">
+    <row r="754" spans="20:20" ht="21.95" customHeight="1">
       <c r="T754" s="13"/>
     </row>
-    <row r="755" spans="20:20">
+    <row r="755" spans="20:20" ht="21.95" customHeight="1">
       <c r="T755" s="13"/>
     </row>
-    <row r="756" spans="20:20">
+    <row r="756" spans="20:20" ht="21.95" customHeight="1">
       <c r="T756" s="13"/>
     </row>
-    <row r="757" spans="20:20">
+    <row r="757" spans="20:20" ht="21.95" customHeight="1">
       <c r="T757" s="13"/>
     </row>
-    <row r="758" spans="20:20">
+    <row r="758" spans="20:20" ht="21.95" customHeight="1">
       <c r="T758" s="13"/>
     </row>
-    <row r="759" spans="20:20">
+    <row r="759" spans="20:20" ht="21.95" customHeight="1">
       <c r="T759" s="13"/>
     </row>
-    <row r="760" spans="20:20">
+    <row r="760" spans="20:20" ht="21.95" customHeight="1">
       <c r="T760" s="13"/>
     </row>
-    <row r="761" spans="20:20">
+    <row r="761" spans="20:20" ht="21.95" customHeight="1">
       <c r="T761" s="13"/>
     </row>
-    <row r="762" spans="20:20">
+    <row r="762" spans="20:20" ht="21.95" customHeight="1">
       <c r="T762" s="13"/>
     </row>
-    <row r="763" spans="20:20">
+    <row r="763" spans="20:20" ht="21.95" customHeight="1">
       <c r="T763" s="13"/>
     </row>
-    <row r="764" spans="20:20">
+    <row r="764" spans="20:20" ht="21.95" customHeight="1">
       <c r="T764" s="13"/>
     </row>
-    <row r="765" spans="20:20">
+    <row r="765" spans="20:20" ht="21.95" customHeight="1">
       <c r="T765" s="13"/>
     </row>
-    <row r="766" spans="20:20">
+    <row r="766" spans="20:20" ht="21.95" customHeight="1">
       <c r="T766" s="13"/>
     </row>
-    <row r="767" spans="20:20">
+    <row r="767" spans="20:20" ht="21.95" customHeight="1">
       <c r="T767" s="13"/>
     </row>
-    <row r="768" spans="20:20">
+    <row r="768" spans="20:20" ht="21.95" customHeight="1">
       <c r="T768" s="13"/>
     </row>
   </sheetData>
@@ -14295,11 +15219,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RAD"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:T151">
@@ -14325,7 +15244,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M102 J11:J53 L11:L57 M11:M72 M75 M79 O102 O75 O79 O11:O72</xm:sqref>
+          <xm:sqref>M102 M30:M72 J10:J53 L54:L57 M75 M79 O102 O75 O79 L30:L51 M11:M14 L18:M25 L27:M27 O11:O14 O18:O25 O27 O29:O51 O53:O72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41833FD8-FD6F-40C3-B8A4-F61EADA585C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12024F8F-4A0B-489F-A612-D756F9696C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2770,7 +2770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2906,6 +2906,9 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2928,100 +2931,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4500,10 +4409,10 @@
   <dimension ref="A1:T768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="F76" sqref="F76:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="21.95" customHeight="1"/>
@@ -4544,14 +4453,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4569,14 +4478,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4594,12 +4503,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4618,12 +4527,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4641,8 +4550,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="9.9499999999999993" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4775,23 +4684,23 @@
       <c r="E10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="23">
         <v>45466</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="93"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -4819,23 +4728,23 @@
       <c r="E11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="23">
         <v>45466</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K11" s="25"/>
-      <c r="L11" s="93"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -4863,23 +4772,23 @@
       <c r="E12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="23">
         <v>45466</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="93"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
@@ -4907,23 +4816,23 @@
       <c r="E13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="23">
         <v>45466</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="I13" s="79" t="s">
+      <c r="I13" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="25"/>
-      <c r="L13" s="93"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -4951,23 +4860,23 @@
       <c r="E14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="23">
         <v>45466</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="J14" s="93" t="s">
+      <c r="J14" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K14" s="25"/>
-      <c r="L14" s="93"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -4995,35 +4904,35 @@
       <c r="E15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="23">
         <v>45466</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="J15" s="93" t="s">
+      <c r="J15" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="93" t="s">
+      <c r="L15" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="80" t="s">
+      <c r="N15" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="O15" s="93" t="s">
+      <c r="O15" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="80" t="s">
+      <c r="P15" s="25" t="s">
         <v>416</v>
       </c>
       <c r="Q15" s="25"/>
@@ -5049,35 +4958,35 @@
       <c r="E16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="23">
         <v>45466</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="93" t="s">
+      <c r="L16" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="93" t="s">
+      <c r="M16" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="93" t="s">
+      <c r="N16" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="O16" s="93" t="s">
+      <c r="O16" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="80" t="s">
+      <c r="P16" s="25" t="s">
         <v>416</v>
       </c>
       <c r="Q16" s="25"/>
@@ -5100,32 +5009,32 @@
       <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="23">
         <v>45466</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="93" t="s">
+      <c r="L17" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="93" t="s">
+      <c r="M17" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="93" t="s">
+      <c r="N17" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="O17" s="93" t="s">
+      <c r="O17" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="80" t="s">
+      <c r="P17" s="25" t="s">
         <v>416</v>
       </c>
       <c r="Q17" s="25"/>
@@ -5457,35 +5366,35 @@
       <c r="E26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="23">
         <v>45466</v>
       </c>
-      <c r="G26" s="79" t="s">
+      <c r="G26" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="H26" s="79" t="s">
+      <c r="H26" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="I26" s="79" t="s">
+      <c r="I26" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="J26" s="93" t="s">
+      <c r="J26" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K26" s="25"/>
-      <c r="L26" s="93" t="s">
+      <c r="L26" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="M26" s="93" t="s">
+      <c r="M26" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="93" t="s">
+      <c r="N26" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="O26" s="93" t="s">
+      <c r="O26" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="P26" s="80" t="s">
+      <c r="P26" s="25" t="s">
         <v>416</v>
       </c>
       <c r="Q26" s="25"/>
@@ -5549,35 +5458,35 @@
       <c r="E28" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="78">
+      <c r="F28" s="23">
         <v>45466</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="I28" s="79" t="s">
+      <c r="I28" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="J28" s="93" t="s">
+      <c r="J28" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K28" s="25"/>
-      <c r="L28" s="93" t="s">
+      <c r="L28" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="93" t="s">
+      <c r="M28" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="N28" s="80" t="s">
+      <c r="N28" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="O28" s="93" t="s">
+      <c r="O28" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="80" t="s">
+      <c r="P28" s="25" t="s">
         <v>416</v>
       </c>
       <c r="Q28" s="25"/>
@@ -5587,47 +5496,47 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="90" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="81">
+    <row r="29" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A29" s="33">
         <v>191</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="36">
         <v>45466</v>
       </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="91" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="K29" s="91" t="s">
+      <c r="K29" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="L29" s="91" t="s">
+      <c r="L29" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="M29" s="91" t="s">
+      <c r="M29" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="89" t="s">
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6395,26 +6304,26 @@
       <c r="E52" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F52" s="78">
+      <c r="F52" s="23">
         <v>45466</v>
       </c>
-      <c r="G52" s="79" t="s">
+      <c r="G52" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="H52" s="79" t="s">
+      <c r="H52" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="I52" s="79" t="s">
+      <c r="I52" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="J52" s="93" t="s">
+      <c r="J52" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K52" s="25"/>
-      <c r="L52" s="93"/>
+      <c r="L52" s="46"/>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
-      <c r="O52" s="93"/>
+      <c r="O52" s="46"/>
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
       <c r="R52" s="26"/>
@@ -6423,43 +6332,43 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="90" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="81">
+    <row r="53" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A53" s="33">
         <v>376</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="82" t="s">
+      <c r="C53" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="D53" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="E53" s="83" t="s">
+      <c r="E53" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="F53" s="84">
+      <c r="F53" s="36">
         <v>45466</v>
       </c>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="91" t="s">
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="K53" s="91" t="s">
+      <c r="K53" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="L53" s="91"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="87"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="89" t="s">
+      <c r="L53" s="43"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7451,9 +7360,7 @@
       <c r="E73" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="23">
-        <v>45466</v>
-      </c>
+      <c r="F73" s="36"/>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
@@ -7491,9 +7398,7 @@
       <c r="E74" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="23">
-        <v>45466</v>
-      </c>
+      <c r="F74" s="36"/>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
@@ -7585,9 +7490,7 @@
       <c r="E76" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F76" s="23">
-        <v>45466</v>
-      </c>
+      <c r="F76" s="36"/>
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
@@ -7625,9 +7528,7 @@
       <c r="E77" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="23">
-        <v>45466</v>
-      </c>
+      <c r="F77" s="36"/>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
@@ -7665,9 +7566,7 @@
       <c r="E78" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="23">
-        <v>45466</v>
-      </c>
+      <c r="F78" s="36"/>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
@@ -8554,16 +8453,16 @@
       <c r="F103" s="23">
         <v>45466</v>
       </c>
-      <c r="G103" s="79" t="s">
+      <c r="G103" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="H103" s="79" t="s">
+      <c r="H103" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="I103" s="79" t="s">
+      <c r="I103" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="J103" s="80" t="s">
+      <c r="J103" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K103" s="25"/>
@@ -8573,13 +8472,13 @@
       <c r="M103" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N103" s="80" t="s">
+      <c r="N103" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="O103" s="80" t="s">
+      <c r="O103" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P103" s="63" t="s">
+      <c r="P103" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q103" s="25"/>
@@ -8608,16 +8507,16 @@
       <c r="F104" s="23">
         <v>45466</v>
       </c>
-      <c r="G104" s="79" t="s">
+      <c r="G104" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="H104" s="79" t="s">
+      <c r="H104" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="I104" s="79" t="s">
+      <c r="I104" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="J104" s="80" t="s">
+      <c r="J104" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K104" s="25"/>
@@ -8627,13 +8526,13 @@
       <c r="M104" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N104" s="80" t="s">
+      <c r="N104" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="O104" s="80" t="s">
+      <c r="O104" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P104" s="64" t="s">
+      <c r="P104" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q104" s="25"/>
@@ -8665,7 +8564,7 @@
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
-      <c r="J105" s="80" t="s">
+      <c r="J105" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K105" s="25"/>
@@ -8676,10 +8575,10 @@
         <v>84</v>
       </c>
       <c r="N105" s="25"/>
-      <c r="O105" s="80" t="s">
+      <c r="O105" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P105" s="65" t="s">
+      <c r="P105" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q105" s="25"/>
@@ -8719,7 +8618,7 @@
       <c r="I106" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="J106" s="80" t="s">
+      <c r="J106" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K106" s="25"/>
@@ -8868,16 +8767,16 @@
       <c r="F110" s="23">
         <v>45466</v>
       </c>
-      <c r="G110" s="79" t="s">
+      <c r="G110" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="H110" s="79" t="s">
+      <c r="H110" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="I110" s="79" t="s">
+      <c r="I110" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="J110" s="80" t="s">
+      <c r="J110" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K110" s="25"/>
@@ -8890,10 +8789,10 @@
       <c r="N110" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="O110" s="80" t="s">
+      <c r="O110" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P110" s="66" t="s">
+      <c r="P110" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q110" s="25"/>
@@ -8922,16 +8821,16 @@
       <c r="F111" s="23">
         <v>45466</v>
       </c>
-      <c r="G111" s="79" t="s">
+      <c r="G111" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="H111" s="79" t="s">
+      <c r="H111" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="I111" s="79" t="s">
+      <c r="I111" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="J111" s="80" t="s">
+      <c r="J111" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K111" s="25"/>
@@ -8941,13 +8840,13 @@
       <c r="M111" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N111" s="93" t="s">
+      <c r="N111" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="O111" s="80" t="s">
+      <c r="O111" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P111" s="67" t="s">
+      <c r="P111" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q111" s="25"/>
@@ -8976,16 +8875,16 @@
       <c r="F112" s="23">
         <v>45466</v>
       </c>
-      <c r="G112" s="79" t="s">
+      <c r="G112" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H112" s="79" t="s">
+      <c r="H112" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="I112" s="79" t="s">
+      <c r="I112" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="J112" s="80" t="s">
+      <c r="J112" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K112" s="25"/>
@@ -8998,10 +8897,10 @@
       <c r="N112" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="O112" s="80" t="s">
+      <c r="O112" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P112" s="68" t="s">
+      <c r="P112" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q112" s="25"/>
@@ -9030,16 +8929,16 @@
       <c r="F113" s="23">
         <v>45466</v>
       </c>
-      <c r="G113" s="79" t="s">
+      <c r="G113" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H113" s="79" t="s">
+      <c r="H113" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="I113" s="79" t="s">
+      <c r="I113" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="J113" s="80" t="s">
+      <c r="J113" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K113" s="25"/>
@@ -9049,13 +8948,13 @@
       <c r="M113" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N113" s="80" t="s">
+      <c r="N113" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="O113" s="80" t="s">
+      <c r="O113" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P113" s="69" t="s">
+      <c r="P113" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q113" s="25"/>
@@ -9084,16 +8983,16 @@
       <c r="F114" s="23">
         <v>45466</v>
       </c>
-      <c r="G114" s="79" t="s">
+      <c r="G114" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H114" s="79" t="s">
+      <c r="H114" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="I114" s="79" t="s">
+      <c r="I114" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="J114" s="80" t="s">
+      <c r="J114" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K114" s="25"/>
@@ -9103,13 +9002,13 @@
       <c r="M114" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N114" s="80" t="s">
+      <c r="N114" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="O114" s="80" t="s">
+      <c r="O114" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P114" s="70" t="s">
+      <c r="P114" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q114" s="25"/>
@@ -9138,16 +9037,16 @@
       <c r="F115" s="23">
         <v>45466</v>
       </c>
-      <c r="G115" s="79" t="s">
+      <c r="G115" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H115" s="79" t="s">
+      <c r="H115" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="I115" s="79" t="s">
+      <c r="I115" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="J115" s="80" t="s">
+      <c r="J115" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K115" s="25"/>
@@ -9157,13 +9056,13 @@
       <c r="M115" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N115" s="80" t="s">
+      <c r="N115" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="O115" s="80" t="s">
+      <c r="O115" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P115" s="71" t="s">
+      <c r="P115" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q115" s="25"/>
@@ -9268,16 +9167,16 @@
       <c r="F118" s="23">
         <v>45466</v>
       </c>
-      <c r="G118" s="79" t="s">
+      <c r="G118" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="H118" s="79" t="s">
+      <c r="H118" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="I118" s="79" t="s">
+      <c r="I118" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="J118" s="80" t="s">
+      <c r="J118" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K118" s="25"/>
@@ -9290,10 +9189,10 @@
       <c r="N118" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="O118" s="80" t="s">
+      <c r="O118" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P118" s="72" t="s">
+      <c r="P118" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q118" s="25"/>
@@ -9322,16 +9221,16 @@
       <c r="F119" s="23">
         <v>45466</v>
       </c>
-      <c r="G119" s="79" t="s">
+      <c r="G119" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="H119" s="79" t="s">
+      <c r="H119" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="I119" s="79" t="s">
+      <c r="I119" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="J119" s="80" t="s">
+      <c r="J119" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K119" s="25"/>
@@ -9344,10 +9243,10 @@
       <c r="N119" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="O119" s="80" t="s">
+      <c r="O119" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P119" s="73" t="s">
+      <c r="P119" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q119" s="25"/>
@@ -9376,16 +9275,16 @@
       <c r="F120" s="23">
         <v>45466</v>
       </c>
-      <c r="G120" s="79" t="s">
+      <c r="G120" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="H120" s="79" t="s">
+      <c r="H120" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="I120" s="79" t="s">
+      <c r="I120" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="J120" s="80" t="s">
+      <c r="J120" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K120" s="25"/>
@@ -9395,13 +9294,13 @@
       <c r="M120" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N120" s="80" t="s">
+      <c r="N120" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="O120" s="80" t="s">
+      <c r="O120" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P120" s="74" t="s">
+      <c r="P120" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q120" s="25"/>
@@ -9430,16 +9329,16 @@
       <c r="F121" s="23">
         <v>45466</v>
       </c>
-      <c r="G121" s="79" t="s">
+      <c r="G121" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="H121" s="79" t="s">
+      <c r="H121" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="I121" s="79" t="s">
+      <c r="I121" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="J121" s="80" t="s">
+      <c r="J121" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K121" s="25"/>
@@ -9452,10 +9351,10 @@
       <c r="N121" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="O121" s="80" t="s">
+      <c r="O121" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P121" s="75" t="s">
+      <c r="P121" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q121" s="25"/>
@@ -9493,7 +9392,7 @@
       <c r="I122" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="J122" s="80" t="s">
+      <c r="J122" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K122" s="25"/>
@@ -9506,10 +9405,10 @@
       <c r="N122" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="O122" s="80" t="s">
+      <c r="O122" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P122" s="76" t="s">
+      <c r="P122" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q122" s="25"/>
@@ -9728,7 +9627,7 @@
       <c r="F128" s="23">
         <v>45466</v>
       </c>
-      <c r="G128" s="79" t="s">
+      <c r="G128" s="24" t="s">
         <v>506</v>
       </c>
       <c r="H128" s="24" t="s">
@@ -9737,7 +9636,7 @@
       <c r="I128" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="J128" s="80" t="s">
+      <c r="J128" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K128" s="25"/>
@@ -9750,10 +9649,10 @@
       <c r="N128" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="O128" s="80" t="s">
+      <c r="O128" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P128" s="77" t="s">
+      <c r="P128" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q128" s="25"/>
@@ -10533,13 +10432,13 @@
       <c r="G151" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="H151" s="79" t="s">
+      <c r="H151" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="I151" s="79" t="s">
+      <c r="I151" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="J151" s="80" t="s">
+      <c r="J151" s="25" t="s">
         <v>84</v>
       </c>
       <c r="K151" s="25"/>
@@ -10550,10 +10449,10 @@
         <v>84</v>
       </c>
       <c r="N151" s="25"/>
-      <c r="O151" s="80" t="s">
+      <c r="O151" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="P151" s="93" t="s">
+      <c r="P151" s="46" t="s">
         <v>416</v>
       </c>
       <c r="Q151" s="25"/>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12024F8F-4A0B-489F-A612-D756F9696C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F98C2-6B63-486F-9A8F-19722A542D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="542">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2212,9 +2212,6 @@
     <t>2024-06-23T09:26:37Z</t>
   </si>
   <si>
-    <t>42a5df690be18e3f</t>
-  </si>
-  <si>
     <t>1ee707f0d6de4d68</t>
   </si>
   <si>
@@ -2423,6 +2420,12 @@
   </si>
   <si>
     <t>[ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.</t>
+  </si>
+  <si>
+    <t>2024-06-27T17:45:57Z</t>
+  </si>
+  <si>
+    <t>416ff6dc4164be55</t>
   </si>
 </sst>
 </file>
@@ -4409,10 +4412,10 @@
   <dimension ref="A1:T768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F76" sqref="F76:F78"/>
+      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="21.95" customHeight="1"/>
@@ -4688,13 +4691,13 @@
         <v>45466</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>516</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>517</v>
       </c>
       <c r="J10" s="46" t="s">
         <v>84</v>
@@ -4732,13 +4735,13 @@
         <v>45466</v>
       </c>
       <c r="G11" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="24" t="s">
         <v>519</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>520</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>84</v>
@@ -4776,13 +4779,13 @@
         <v>45466</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H12" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>521</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>522</v>
       </c>
       <c r="J12" s="46" t="s">
         <v>84</v>
@@ -4820,13 +4823,13 @@
         <v>45466</v>
       </c>
       <c r="G13" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="I13" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>525</v>
       </c>
       <c r="J13" s="46" t="s">
         <v>84</v>
@@ -4864,13 +4867,13 @@
         <v>45466</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H14" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>526</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>527</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>84</v>
@@ -4908,10 +4911,10 @@
         <v>45466</v>
       </c>
       <c r="G15" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>530</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>531</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>436</v>
@@ -4962,10 +4965,10 @@
         <v>45466</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>436</v>
@@ -5029,7 +5032,7 @@
         <v>84</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O17" s="46" t="s">
         <v>84</v>
@@ -5370,13 +5373,13 @@
         <v>45466</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H26" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>535</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>536</v>
       </c>
       <c r="J26" s="46" t="s">
         <v>84</v>
@@ -5389,7 +5392,7 @@
         <v>84</v>
       </c>
       <c r="N26" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O26" s="46" t="s">
         <v>84</v>
@@ -5462,13 +5465,13 @@
         <v>45466</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H28" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>538</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>539</v>
       </c>
       <c r="J28" s="46" t="s">
         <v>84</v>
@@ -5481,7 +5484,7 @@
         <v>84</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O28" s="46" t="s">
         <v>84</v>
@@ -5522,7 +5525,7 @@
         <v>391</v>
       </c>
       <c r="K29" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L29" s="43" t="s">
         <v>84</v>
@@ -6308,13 +6311,13 @@
         <v>45466</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H52" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="I52" s="24" t="s">
         <v>528</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>529</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>84</v>
@@ -6358,7 +6361,7 @@
         <v>391</v>
       </c>
       <c r="K53" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L53" s="43"/>
       <c r="M53" s="38"/>
@@ -8451,13 +8454,13 @@
         <v>76</v>
       </c>
       <c r="F103" s="23">
-        <v>45466</v>
+        <v>45470</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="I103" s="24" t="s">
         <v>436</v>
@@ -8511,7 +8514,7 @@
         <v>476</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I104" s="24" t="s">
         <v>436</v>
@@ -8771,10 +8774,10 @@
         <v>476</v>
       </c>
       <c r="H110" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I110" s="24" t="s">
         <v>479</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>480</v>
       </c>
       <c r="J110" s="25" t="s">
         <v>84</v>
@@ -8825,10 +8828,10 @@
         <v>476</v>
       </c>
       <c r="H111" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="I111" s="24" t="s">
         <v>481</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>482</v>
       </c>
       <c r="J111" s="25" t="s">
         <v>84</v>
@@ -8876,13 +8879,13 @@
         <v>45466</v>
       </c>
       <c r="G112" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="H112" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H112" s="24" t="s">
+      <c r="I112" s="24" t="s">
         <v>484</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>485</v>
       </c>
       <c r="J112" s="25" t="s">
         <v>84</v>
@@ -8895,7 +8898,7 @@
         <v>84</v>
       </c>
       <c r="N112" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O112" s="25" t="s">
         <v>84</v>
@@ -8930,13 +8933,13 @@
         <v>45466</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J113" s="25" t="s">
         <v>84</v>
@@ -8949,7 +8952,7 @@
         <v>84</v>
       </c>
       <c r="N113" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O113" s="25" t="s">
         <v>84</v>
@@ -8984,13 +8987,13 @@
         <v>45466</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>84</v>
@@ -9038,13 +9041,13 @@
         <v>45466</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H115" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="I115" s="24" t="s">
         <v>492</v>
-      </c>
-      <c r="I115" s="24" t="s">
-        <v>493</v>
       </c>
       <c r="J115" s="25" t="s">
         <v>84</v>
@@ -9168,13 +9171,13 @@
         <v>45466</v>
       </c>
       <c r="G118" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="H118" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="H118" s="24" t="s">
+      <c r="I118" s="24" t="s">
         <v>495</v>
-      </c>
-      <c r="I118" s="24" t="s">
-        <v>496</v>
       </c>
       <c r="J118" s="25" t="s">
         <v>84</v>
@@ -9222,13 +9225,13 @@
         <v>45466</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H119" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="I119" s="24" t="s">
         <v>497</v>
-      </c>
-      <c r="I119" s="24" t="s">
-        <v>498</v>
       </c>
       <c r="J119" s="25" t="s">
         <v>84</v>
@@ -9241,7 +9244,7 @@
         <v>84</v>
       </c>
       <c r="N119" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O119" s="25" t="s">
         <v>84</v>
@@ -9276,13 +9279,13 @@
         <v>45466</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H120" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="I120" s="24" t="s">
         <v>500</v>
-      </c>
-      <c r="I120" s="24" t="s">
-        <v>501</v>
       </c>
       <c r="J120" s="25" t="s">
         <v>84</v>
@@ -9295,7 +9298,7 @@
         <v>84</v>
       </c>
       <c r="N120" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O120" s="25" t="s">
         <v>84</v>
@@ -9330,13 +9333,13 @@
         <v>45466</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H121" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="I121" s="24" t="s">
         <v>503</v>
-      </c>
-      <c r="I121" s="24" t="s">
-        <v>504</v>
       </c>
       <c r="J121" s="25" t="s">
         <v>84</v>
@@ -9349,7 +9352,7 @@
         <v>84</v>
       </c>
       <c r="N121" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O121" s="25" t="s">
         <v>84</v>
@@ -9384,13 +9387,13 @@
         <v>45466</v>
       </c>
       <c r="G122" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="H122" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="I122" s="24" t="s">
         <v>507</v>
-      </c>
-      <c r="I122" s="24" t="s">
-        <v>508</v>
       </c>
       <c r="J122" s="25" t="s">
         <v>84</v>
@@ -9403,7 +9406,7 @@
         <v>84</v>
       </c>
       <c r="N122" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O122" s="25" t="s">
         <v>84</v>
@@ -9628,13 +9631,13 @@
         <v>45466</v>
       </c>
       <c r="G128" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H128" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="I128" s="24" t="s">
         <v>510</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>511</v>
       </c>
       <c r="J128" s="25" t="s">
         <v>84</v>
@@ -9647,7 +9650,7 @@
         <v>84</v>
       </c>
       <c r="N128" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O128" s="25" t="s">
         <v>84</v>
@@ -10430,13 +10433,13 @@
         <v>45466</v>
       </c>
       <c r="G151" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H151" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="I151" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="I151" s="24" t="s">
-        <v>514</v>
       </c>
       <c r="J151" s="25" t="s">
         <v>84</v>

--- a/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOSERVICEONLINE/INFOSERVICE/FLY/2.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Accreditamento totale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSE 2.0\Correzione 04072024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F98C2-6B63-486F-9A8F-19722A542D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AC073E-23A9-4B0B-ABFB-4FE537BBF40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="347" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="544">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2074,12 +2074,6 @@
     <t>2024-06-23T09:25:51Z</t>
   </si>
   <si>
-    <t>b261ba53322028ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c5c5d0abdd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>1583ae9b3162fcdc</t>
   </si>
   <si>
@@ -2339,12 +2333,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.07955da806^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b4927df7eab92de2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.857ed8468f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2024-06-23T09:27:31Z</t>
@@ -2426,6 +2414,24 @@
   </si>
   <si>
     <t>416ff6dc4164be55</t>
+  </si>
+  <si>
+    <t>2024-07-04T08:59:49Z</t>
+  </si>
+  <si>
+    <t>e049b28a8c07c90d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a428a4f62e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-04T09:02:38Z</t>
+  </si>
+  <si>
+    <t>0a4f6a1449564ab0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1cfbce3e2ea6115e39532217a87595250844292a296d1c58e76015a325319cf2.3d4ab1af76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2773,7 +2779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2935,6 +2941,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4412,10 +4449,10 @@
   <dimension ref="A1:T768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="21.95" customHeight="1"/>
@@ -4691,13 +4728,13 @@
         <v>45466</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>514</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>516</v>
       </c>
       <c r="J10" s="46" t="s">
         <v>84</v>
@@ -4735,13 +4772,13 @@
         <v>45466</v>
       </c>
       <c r="G11" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>517</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>519</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>84</v>
@@ -4759,47 +4796,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="20">
+    <row r="12" spans="1:20" s="73" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A12" s="63">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="23">
-        <v>45466</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="J12" s="46" t="s">
+      <c r="F12" s="66">
+        <v>45477</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>543</v>
+      </c>
+      <c r="J12" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28" t="s">
+      <c r="K12" s="69"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="72" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4823,13 +4860,13 @@
         <v>45466</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J13" s="46" t="s">
         <v>84</v>
@@ -4867,13 +4904,13 @@
         <v>45466</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>522</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>526</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>84</v>
@@ -4911,13 +4948,13 @@
         <v>45466</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J15" s="46" t="s">
         <v>84</v>
@@ -4965,13 +5002,13 @@
         <v>45466</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J16" s="46" t="s">
         <v>84</v>
@@ -5032,7 +5069,7 @@
         <v>84</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O17" s="46" t="s">
         <v>84</v>
@@ -5373,13 +5410,13 @@
         <v>45466</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J26" s="46" t="s">
         <v>84</v>
@@ -5392,7 +5429,7 @@
         <v>84</v>
       </c>
       <c r="N26" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="O26" s="46" t="s">
         <v>84</v>
@@ -5465,13 +5502,13 @@
         <v>45466</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="J28" s="46" t="s">
         <v>84</v>
@@ -5484,7 +5521,7 @@
         <v>84</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O28" s="46" t="s">
         <v>84</v>
@@ -5525,7 +5562,7 @@
         <v>391</v>
       </c>
       <c r="K29" s="43" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L29" s="43" t="s">
         <v>84</v>
@@ -6311,13 +6348,13 @@
         <v>45466</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>84</v>
@@ -6361,7 +6398,7 @@
         <v>391</v>
       </c>
       <c r="K53" s="43" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L53" s="43"/>
       <c r="M53" s="38"/>
@@ -6392,16 +6429,16 @@
         <v>395</v>
       </c>
       <c r="F54" s="23">
-        <v>45466</v>
+        <v>45477</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>430</v>
+        <v>538</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>431</v>
+        <v>539</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="J54" s="25" t="s">
         <v>84</v>
@@ -6442,10 +6479,10 @@
         <v>430</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J55" s="25" t="s">
         <v>84</v>
@@ -6566,10 +6603,10 @@
         <v>430</v>
       </c>
       <c r="H58" s="47" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I58" s="47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J58" s="25" t="s">
         <v>84</v>
@@ -6617,13 +6654,13 @@
         <v>45466</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I59" s="47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J59" s="25" t="s">
         <v>84</v>
@@ -6719,13 +6756,13 @@
         <v>45466</v>
       </c>
       <c r="G61" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="H61" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="H61" s="47" t="s">
-        <v>439</v>
-      </c>
       <c r="I61" s="47" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J61" s="25" t="s">
         <v>84</v>
@@ -6773,13 +6810,13 @@
         <v>45466</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H62" s="47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>84</v>
@@ -6827,13 +6864,13 @@
         <v>45466</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H63" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>84</v>
@@ -6881,13 +6918,13 @@
         <v>45466</v>
       </c>
       <c r="G64" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="I64" s="47" t="s">
         <v>445</v>
-      </c>
-      <c r="H64" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>447</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>84</v>
@@ -6935,13 +6972,13 @@
         <v>45466</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H65" s="47" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>84</v>
@@ -6989,13 +7026,13 @@
         <v>45466</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H66" s="47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>84</v>
@@ -7043,13 +7080,13 @@
         <v>45466</v>
       </c>
       <c r="G67" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="H67" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="I67" s="47" t="s">
         <v>452</v>
-      </c>
-      <c r="H67" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="I67" s="47" t="s">
-        <v>454</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>84</v>
@@ -7097,13 +7134,13 @@
         <v>45466</v>
       </c>
       <c r="G68" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H68" s="47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I68" s="47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J68" s="25" t="s">
         <v>84</v>
@@ -7151,13 +7188,13 @@
         <v>45466</v>
       </c>
       <c r="G69" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>84</v>
@@ -7205,13 +7242,13 @@
         <v>45466</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>84</v>
@@ -7259,13 +7296,13 @@
         <v>45466</v>
       </c>
       <c r="G71" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="I71" s="24" t="s">
         <v>461</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>463</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>84</v>
@@ -7313,13 +7350,13 @@
         <v>45466</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>84</v>
@@ -7443,13 +7480,13 @@
         <v>45466</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>84</v>
@@ -7611,13 +7648,13 @@
         <v>45466</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>84</v>
@@ -8413,13 +8450,13 @@
         <v>45466</v>
       </c>
       <c r="G102" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="I102" s="24" t="s">
         <v>470</v>
-      </c>
-      <c r="H102" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="I102" s="24" t="s">
-        <v>472</v>
       </c>
       <c r="J102" s="25" t="s">
         <v>84</v>
@@ -8457,13 +8494,13 @@
         <v>45470</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J103" s="25" t="s">
         <v>84</v>
@@ -8511,13 +8548,13 @@
         <v>45466</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J104" s="25" t="s">
         <v>84</v>
@@ -8613,13 +8650,13 @@
         <v>45466</v>
       </c>
       <c r="G106" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I106" s="24" t="s">
         <v>473</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>475</v>
       </c>
       <c r="J106" s="25" t="s">
         <v>84</v>
@@ -8771,13 +8808,13 @@
         <v>45466</v>
       </c>
       <c r="G110" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="H110" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="H110" s="24" t="s">
-        <v>478</v>
-      </c>
       <c r="I110" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J110" s="25" t="s">
         <v>84</v>
@@ -8825,13 +8862,13 @@
         <v>45466</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I111" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J111" s="25" t="s">
         <v>84</v>
@@ -8879,13 +8916,13 @@
         <v>45466</v>
       </c>
       <c r="G112" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="I112" s="24" t="s">
         <v>482</v>
-      </c>
-      <c r="H112" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>484</v>
       </c>
       <c r="J112" s="25" t="s">
         <v>84</v>
@@ -8898,7 +8935,7 @@
         <v>84</v>
       </c>
       <c r="N112" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O112" s="25" t="s">
         <v>84</v>
@@ -8933,13 +8970,13 @@
         <v>45466</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H113" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="I113" s="24" t="s">
         <v>486</v>
-      </c>
-      <c r="I113" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="J113" s="25" t="s">
         <v>84</v>
@@ -8952,7 +8989,7 @@
         <v>84</v>
       </c>
       <c r="N113" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O113" s="25" t="s">
         <v>84</v>
@@ -8987,13 +9024,13 @@
         <v>45466</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>84</v>
@@ -9041,13 +9078,13 @@
         <v>45466</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I115" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J115" s="25" t="s">
         <v>84</v>
@@ -9171,13 +9208,13 @@
         <v>45466</v>
       </c>
       <c r="G118" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="I118" s="24" t="s">
         <v>493</v>
-      </c>
-      <c r="H118" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="I118" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="J118" s="25" t="s">
         <v>84</v>
@@ -9225,13 +9262,13 @@
         <v>45466</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J119" s="25" t="s">
         <v>84</v>
@@ -9244,7 +9281,7 @@
         <v>84</v>
       </c>
       <c r="N119" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O119" s="25" t="s">
         <v>84</v>
@@ -9279,13 +9316,13 @@
         <v>45466</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J120" s="25" t="s">
         <v>84</v>
@@ -9298,7 +9335,7 @@
         <v>84</v>
       </c>
       <c r="N120" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O120" s="25" t="s">
         <v>84</v>
@@ -9333,13 +9370,13 @@
         <v>45466</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I121" s="24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J121" s="25" t="s">
         <v>84</v>
@@ -9352,7 +9389,7 @@
         <v>84</v>
       </c>
       <c r="N121" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O121" s="25" t="s">
         <v>84</v>
@@ -9387,13 +9424,13 @@
         <v>45466</v>
       </c>
       <c r="G122" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="I122" s="24" t="s">
         <v>505</v>
-      </c>
-      <c r="H122" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="I122" s="24" t="s">
-        <v>507</v>
       </c>
       <c r="J122" s="25" t="s">
         <v>84</v>
@@ -9406,7 +9443,7 @@
         <v>84</v>
       </c>
       <c r="N122" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O122" s="25" t="s">
         <v>84</v>
@@ -9631,13 +9668,13 @@
         <v>45466</v>
       </c>
       <c r="G128" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I128" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J128" s="25" t="s">
         <v>84</v>
@@ -9650,7 +9687,7 @@
         <v>84</v>
       </c>
       <c r="N128" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="O128" s="25" t="s">
         <v>84</v>
@@ -10433,13 +10470,13 @@
         <v>45466</v>
       </c>
       <c r="G151" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H151" s="24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I151" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J151" s="25" t="s">
         <v>84</v>
